--- a/plog-proj2/docs/statistics.xlsx
+++ b/plog-proj2/docs/statistics.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\plog_talpa_2\plog-proj2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2DAFA2-098E-4CCA-B3ED-EB8C3FE41951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7FA75D-DC47-4D79-AD64-0E2F6181299B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="44">
   <si>
     <t>Options</t>
   </si>
@@ -76,6 +77,96 @@
   </si>
   <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>leftmost, up, step</t>
+  </si>
+  <si>
+    <t>leftmost, up, enum</t>
+  </si>
+  <si>
+    <t>leftmost, up, bisect</t>
+  </si>
+  <si>
+    <t>leftmost, down, step</t>
+  </si>
+  <si>
+    <t>leftmost, down, enum</t>
+  </si>
+  <si>
+    <t>leftmost, down, bisect</t>
+  </si>
+  <si>
+    <t>ff, up, step</t>
+  </si>
+  <si>
+    <t>ff, up, enum</t>
+  </si>
+  <si>
+    <t>ff, up, bisect</t>
+  </si>
+  <si>
+    <t>ff, down, step</t>
+  </si>
+  <si>
+    <t>ff, down, enum</t>
+  </si>
+  <si>
+    <t>ff, down, bisect</t>
+  </si>
+  <si>
+    <t>ffc, up, step</t>
+  </si>
+  <si>
+    <t>ffc, up, enum</t>
+  </si>
+  <si>
+    <t>ffc, up, bisect</t>
+  </si>
+  <si>
+    <t>ffc, down, step</t>
+  </si>
+  <si>
+    <t>ffc, down, enum</t>
+  </si>
+  <si>
+    <t>ffc, down, bisect</t>
+  </si>
+  <si>
+    <t>min, up, step</t>
+  </si>
+  <si>
+    <t>min, up, enum</t>
+  </si>
+  <si>
+    <t>min, up, bisect</t>
+  </si>
+  <si>
+    <t>min, down, step</t>
+  </si>
+  <si>
+    <t>min, down, enum</t>
+  </si>
+  <si>
+    <t>min, down, bisect</t>
+  </si>
+  <si>
+    <t>max, up, step</t>
+  </si>
+  <si>
+    <t>max, up, enum</t>
+  </si>
+  <si>
+    <t>max, up, bisect</t>
+  </si>
+  <si>
+    <t>max, down, step</t>
+  </si>
+  <si>
+    <t>max, down, enum</t>
+  </si>
+  <si>
+    <t>max, down, bisect</t>
   </si>
 </sst>
 </file>
@@ -129,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -297,11 +388,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -348,12 +448,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -366,7 +460,55 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -384,6 +526,3300 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Search Strategies</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>leftmost, up, step</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>296.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A954-4B76-8246-601AC5111D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>leftmost, up, enum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20.142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>304.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A954-4B76-8246-601AC5111D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>leftmost, up, bisect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$E$3:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>347.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A954-4B76-8246-601AC5111D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>leftmost, down, step</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$F$3:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>359.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A954-4B76-8246-601AC5111D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>leftmost, down, enum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$G$3:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17.857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>343.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A954-4B76-8246-601AC5111D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>leftmost, down, bisect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$H$3:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>320.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A954-4B76-8246-601AC5111D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ff, up, step</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$I$3:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>143.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A954-4B76-8246-601AC5111D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ff, up, enum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$J$3:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>26.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-A954-4B76-8246-601AC5111D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ff, up, bisect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$K$3:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>277.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-A954-4B76-8246-601AC5111D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ff, down, step</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$L$3:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-A954-4B76-8246-601AC5111D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ff, down, enum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$M$3:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>308.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-A954-4B76-8246-601AC5111D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ff, down, bisect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$N$3:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>308.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-A954-4B76-8246-601AC5111D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ffc, up, step</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$O$3:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>308.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-A954-4B76-8246-601AC5111D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ffc, up, enum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$P$3:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>308.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-A954-4B76-8246-601AC5111D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ffc, up, bisect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$Q$3:$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>296.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-A954-4B76-8246-601AC5111D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ffc, down, step</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$R$3:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.7142857142857135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-A954-4B76-8246-601AC5111D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ffc, down, enum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$S$3:$S$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>285.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-A954-4B76-8246-601AC5111D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$T$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ffc, down, bisect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$T$3:$T$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>293</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-A954-4B76-8246-601AC5111D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$U$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min, up, step</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$U$3:$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>281.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-A954-4B76-8246-601AC5111D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$V$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min, up, enum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$V$3:$V$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>137.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-A954-4B76-8246-601AC5111D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$W$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min, up, bisect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$W$3:$W$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>312.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-A954-4B76-8246-601AC5111D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min, down, step</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$X$3:$X$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17.857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-A954-4B76-8246-601AC5111D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$Y$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min, down, enum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$Y$3:$Y$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>143.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>304.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-A954-4B76-8246-601AC5111D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="23"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$Z$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min, down, bisect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$Z$3:$Z$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>312.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-A954-4B76-8246-601AC5111D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="24"/>
+          <c:order val="24"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$AA$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max, up, step</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$AA$3:$AA$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-A954-4B76-8246-601AC5111D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="25"/>
+          <c:order val="25"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$AB$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max, up, enum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$AB$3:$AB$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>304.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-A954-4B76-8246-601AC5111D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="26"/>
+          <c:order val="26"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$AC$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max, up, bisect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$AC$3:$AC$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>304.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-A954-4B76-8246-601AC5111D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="27"/>
+          <c:order val="27"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$AD$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max, down, step</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$AD$3:$AD$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-A954-4B76-8246-601AC5111D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="28"/>
+          <c:order val="28"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$AE$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max, down, enum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$AE$3:$AE$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17.857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001C-A954-4B76-8246-601AC5111D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="29"/>
+          <c:order val="29"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$AF$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max, down, bisect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$AF$3:$AF$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001D-A954-4B76-8246-601AC5111D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="580516992"/>
+        <c:axId val="580515680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="580516992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Dimensions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580515680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="580515680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Execution Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580516992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85913081619514542"/>
+          <c:y val="0.10060800877798204"/>
+          <c:w val="0.13368140303216816"/>
+          <c:h val="0.83996334611032941"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1047749</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1514474</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AF5789E-07D2-476E-A021-B3D957F73BA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -651,8 +4087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:X135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D110" workbookViewId="0">
-      <selection activeCell="T120" sqref="T120:T126"/>
+    <sheetView topLeftCell="D78" workbookViewId="0">
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -672,36 +4108,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
-      <c r="F2" s="18" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="F2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="J2" s="18" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
+      <c r="J2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="20"/>
-      <c r="N2" s="18" t="s">
+      <c r="K2" s="17"/>
+      <c r="L2" s="18"/>
+      <c r="N2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="20"/>
-      <c r="R2" s="18" t="s">
+      <c r="O2" s="17"/>
+      <c r="P2" s="18"/>
+      <c r="R2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="19"/>
-      <c r="T2" s="20"/>
-      <c r="V2" s="18" t="s">
+      <c r="S2" s="17"/>
+      <c r="T2" s="18"/>
+      <c r="V2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="19"/>
-      <c r="X2" s="20"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="18"/>
     </row>
     <row r="3" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -816,258 +4252,258 @@
       </c>
     </row>
     <row r="5" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="21">
+      <c r="B5" s="19">
         <v>4</v>
       </c>
       <c r="C5" s="6">
         <v>16</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <f>SUM(C5:C11)/7</f>
         <v>13.428571428571429</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
         <v>4</v>
       </c>
       <c r="G5" s="6">
         <v>16</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="21">
         <f>SUM(G5:G11)/7</f>
         <v>20.142857142857142</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="19">
         <v>4</v>
       </c>
       <c r="K5" s="6">
         <v>0</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="21">
         <f>SUM(K5:K11)/7</f>
         <v>13.428571428571429</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="19">
         <v>4</v>
       </c>
       <c r="O5" s="6">
         <v>15</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="21">
         <f>SUM(O5:O11)/7</f>
         <v>17.714285714285715</v>
       </c>
-      <c r="R5" s="21">
+      <c r="R5" s="19">
         <v>4</v>
       </c>
       <c r="S5" s="6">
         <v>16</v>
       </c>
-      <c r="T5" s="22">
+      <c r="T5" s="21">
         <f>SUM(S5:S11)/7</f>
         <v>17.857142857142858</v>
       </c>
-      <c r="V5" s="21">
+      <c r="V5" s="19">
         <v>4</v>
       </c>
       <c r="W5" s="6">
         <v>15</v>
       </c>
-      <c r="X5" s="22">
+      <c r="X5" s="21">
         <f>SUM(W5:W11)/7</f>
         <v>17.714285714285715</v>
       </c>
     </row>
     <row r="6" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="5">
         <v>15</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="F6" s="16"/>
+      <c r="D6" s="22"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="5">
         <v>15</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="J6" s="16"/>
+      <c r="H6" s="22"/>
+      <c r="J6" s="20"/>
       <c r="K6" s="5">
         <v>15</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="N6" s="16"/>
+      <c r="L6" s="22"/>
+      <c r="N6" s="20"/>
       <c r="O6" s="5">
         <v>15</v>
       </c>
-      <c r="P6" s="17"/>
-      <c r="R6" s="16"/>
+      <c r="P6" s="22"/>
+      <c r="R6" s="20"/>
       <c r="S6" s="5">
         <v>15</v>
       </c>
-      <c r="T6" s="17"/>
-      <c r="V6" s="16"/>
+      <c r="T6" s="22"/>
+      <c r="V6" s="20"/>
       <c r="W6" s="5">
         <v>16</v>
       </c>
-      <c r="X6" s="17"/>
+      <c r="X6" s="22"/>
     </row>
     <row r="7" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="5">
         <v>16</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="F7" s="16"/>
+      <c r="D7" s="22"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="5">
         <v>16</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="J7" s="16"/>
+      <c r="H7" s="22"/>
+      <c r="J7" s="20"/>
       <c r="K7" s="5">
         <v>16</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="N7" s="16"/>
+      <c r="L7" s="22"/>
+      <c r="N7" s="20"/>
       <c r="O7" s="5">
         <v>16</v>
       </c>
-      <c r="P7" s="17"/>
-      <c r="R7" s="16"/>
+      <c r="P7" s="22"/>
+      <c r="R7" s="20"/>
       <c r="S7" s="5">
         <v>16</v>
       </c>
-      <c r="T7" s="17"/>
-      <c r="V7" s="16"/>
+      <c r="T7" s="22"/>
+      <c r="V7" s="20"/>
       <c r="W7" s="5">
         <v>16</v>
       </c>
-      <c r="X7" s="17"/>
+      <c r="X7" s="22"/>
     </row>
     <row r="8" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="5">
         <v>16</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="F8" s="16"/>
+      <c r="D8" s="22"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="5">
         <v>16</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="J8" s="16"/>
+      <c r="H8" s="22"/>
+      <c r="J8" s="20"/>
       <c r="K8" s="5">
         <v>16</v>
       </c>
-      <c r="L8" s="17"/>
-      <c r="N8" s="16"/>
+      <c r="L8" s="22"/>
+      <c r="N8" s="20"/>
       <c r="O8" s="5">
         <v>16</v>
       </c>
-      <c r="P8" s="17"/>
-      <c r="R8" s="16"/>
+      <c r="P8" s="22"/>
+      <c r="R8" s="20"/>
       <c r="S8" s="5">
         <v>16</v>
       </c>
-      <c r="T8" s="17"/>
-      <c r="V8" s="16"/>
+      <c r="T8" s="22"/>
+      <c r="V8" s="20"/>
       <c r="W8" s="5">
         <v>15</v>
       </c>
-      <c r="X8" s="17"/>
+      <c r="X8" s="22"/>
     </row>
     <row r="9" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="5">
         <v>15</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="F9" s="16"/>
+      <c r="D9" s="22"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="5">
         <v>15</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="J9" s="16"/>
+      <c r="H9" s="22"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="5">
         <v>15</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="N9" s="16"/>
+      <c r="L9" s="22"/>
+      <c r="N9" s="20"/>
       <c r="O9" s="5">
         <v>15</v>
       </c>
-      <c r="P9" s="17"/>
-      <c r="R9" s="16"/>
+      <c r="P9" s="22"/>
+      <c r="R9" s="20"/>
       <c r="S9" s="5">
         <v>31</v>
       </c>
-      <c r="T9" s="17"/>
-      <c r="V9" s="16"/>
+      <c r="T9" s="22"/>
+      <c r="V9" s="20"/>
       <c r="W9" s="5">
         <v>32</v>
       </c>
-      <c r="X9" s="17"/>
+      <c r="X9" s="22"/>
     </row>
     <row r="10" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="5">
         <v>16</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="F10" s="16"/>
+      <c r="D10" s="22"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="5">
         <v>32</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="J10" s="16"/>
+      <c r="H10" s="22"/>
+      <c r="J10" s="20"/>
       <c r="K10" s="5">
         <v>16</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="N10" s="16"/>
+      <c r="L10" s="22"/>
+      <c r="N10" s="20"/>
       <c r="O10" s="5">
         <v>32</v>
       </c>
-      <c r="P10" s="17"/>
-      <c r="R10" s="16"/>
+      <c r="P10" s="22"/>
+      <c r="R10" s="20"/>
       <c r="S10" s="5">
         <v>16</v>
       </c>
-      <c r="T10" s="17"/>
-      <c r="V10" s="16"/>
+      <c r="T10" s="22"/>
+      <c r="V10" s="20"/>
       <c r="W10" s="5">
         <v>15</v>
       </c>
-      <c r="X10" s="17"/>
+      <c r="X10" s="22"/>
     </row>
     <row r="11" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="5">
         <v>0</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="F11" s="16"/>
+      <c r="D11" s="22"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="5">
         <v>31</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="J11" s="16"/>
+      <c r="H11" s="22"/>
+      <c r="J11" s="20"/>
       <c r="K11" s="5">
         <v>16</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="N11" s="16"/>
+      <c r="L11" s="22"/>
+      <c r="N11" s="20"/>
       <c r="O11" s="5">
         <v>15</v>
       </c>
-      <c r="P11" s="17"/>
-      <c r="R11" s="16"/>
+      <c r="P11" s="22"/>
+      <c r="R11" s="20"/>
       <c r="S11" s="5">
         <v>15</v>
       </c>
-      <c r="T11" s="17"/>
-      <c r="V11" s="16"/>
+      <c r="T11" s="22"/>
+      <c r="V11" s="20"/>
       <c r="W11" s="5">
         <v>15</v>
       </c>
-      <c r="X11" s="17"/>
+      <c r="X11" s="22"/>
     </row>
     <row r="12" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
@@ -1324,194 +4760,194 @@
       <c r="X18" s="14"/>
     </row>
     <row r="19" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16">
+      <c r="B19" s="20">
         <v>6</v>
       </c>
       <c r="C19" s="5">
         <v>110</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="22">
         <f>SUM(C19:C23)/5</f>
         <v>131.4</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="20">
         <v>6</v>
       </c>
       <c r="G19" s="5">
         <v>140</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="22">
         <f>SUM(G19:G23)/5</f>
         <v>128</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="20">
         <v>6</v>
       </c>
       <c r="K19" s="5">
         <v>125</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="22">
         <f>SUM(K19:K23)/5</f>
         <v>131.19999999999999</v>
       </c>
-      <c r="N19" s="16">
+      <c r="N19" s="20">
         <v>6</v>
       </c>
       <c r="O19" s="5">
         <v>156</v>
       </c>
-      <c r="P19" s="17">
+      <c r="P19" s="22">
         <f>SUM(O19:O23)/5</f>
         <v>140.6</v>
       </c>
-      <c r="R19" s="16">
+      <c r="R19" s="20">
         <v>6</v>
       </c>
       <c r="S19" s="5">
         <v>141</v>
       </c>
-      <c r="T19" s="17">
+      <c r="T19" s="22">
         <f>SUM(S19:S23)/5</f>
         <v>128.19999999999999</v>
       </c>
-      <c r="V19" s="16">
+      <c r="V19" s="20">
         <v>6</v>
       </c>
       <c r="W19" s="5">
         <v>125</v>
       </c>
-      <c r="X19" s="17">
+      <c r="X19" s="22">
         <f>SUM(W19:W23)/5</f>
         <v>150</v>
       </c>
     </row>
     <row r="20" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="5">
         <v>125</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="F20" s="16"/>
+      <c r="D20" s="22"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="5">
         <v>110</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="J20" s="16"/>
+      <c r="H20" s="22"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="5">
         <v>125</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="N20" s="16"/>
+      <c r="L20" s="22"/>
+      <c r="N20" s="20"/>
       <c r="O20" s="5">
         <v>125</v>
       </c>
-      <c r="P20" s="17"/>
-      <c r="R20" s="16"/>
+      <c r="P20" s="22"/>
+      <c r="R20" s="20"/>
       <c r="S20" s="5">
         <v>125</v>
       </c>
-      <c r="T20" s="17"/>
-      <c r="V20" s="16"/>
+      <c r="T20" s="22"/>
+      <c r="V20" s="20"/>
       <c r="W20" s="5">
         <v>125</v>
       </c>
-      <c r="X20" s="17"/>
+      <c r="X20" s="22"/>
     </row>
     <row r="21" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="5">
         <v>140</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="F21" s="16"/>
+      <c r="D21" s="22"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="5">
         <v>125</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="J21" s="16"/>
+      <c r="H21" s="22"/>
+      <c r="J21" s="20"/>
       <c r="K21" s="5">
         <v>125</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="N21" s="16"/>
+      <c r="L21" s="22"/>
+      <c r="N21" s="20"/>
       <c r="O21" s="5">
         <v>125</v>
       </c>
-      <c r="P21" s="17"/>
-      <c r="R21" s="16"/>
+      <c r="P21" s="22"/>
+      <c r="R21" s="20"/>
       <c r="S21" s="5">
         <v>125</v>
       </c>
-      <c r="T21" s="17"/>
-      <c r="V21" s="16"/>
+      <c r="T21" s="22"/>
+      <c r="V21" s="20"/>
       <c r="W21" s="5">
         <v>140</v>
       </c>
-      <c r="X21" s="17"/>
+      <c r="X21" s="22"/>
     </row>
     <row r="22" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="5">
         <v>141</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="F22" s="16"/>
+      <c r="D22" s="22"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="5">
         <v>140</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="J22" s="16"/>
+      <c r="H22" s="22"/>
+      <c r="J22" s="20"/>
       <c r="K22" s="5">
         <v>125</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="N22" s="16"/>
+      <c r="L22" s="22"/>
+      <c r="N22" s="20"/>
       <c r="O22" s="5">
         <v>140</v>
       </c>
-      <c r="P22" s="17"/>
-      <c r="R22" s="16"/>
+      <c r="P22" s="22"/>
+      <c r="R22" s="20"/>
       <c r="S22" s="5">
         <v>109</v>
       </c>
-      <c r="T22" s="17"/>
-      <c r="V22" s="16"/>
+      <c r="T22" s="22"/>
+      <c r="V22" s="20"/>
       <c r="W22" s="5">
         <v>156</v>
       </c>
-      <c r="X22" s="17"/>
+      <c r="X22" s="22"/>
     </row>
     <row r="23" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="5">
         <v>141</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="F23" s="16"/>
+      <c r="D23" s="22"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="5">
         <v>125</v>
       </c>
-      <c r="H23" s="17"/>
-      <c r="J23" s="16"/>
+      <c r="H23" s="22"/>
+      <c r="J23" s="20"/>
       <c r="K23" s="5">
         <v>156</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="N23" s="16"/>
+      <c r="L23" s="22"/>
+      <c r="N23" s="20"/>
       <c r="O23" s="5">
         <v>157</v>
       </c>
-      <c r="P23" s="17"/>
-      <c r="R23" s="16"/>
+      <c r="P23" s="22"/>
+      <c r="R23" s="20"/>
       <c r="S23" s="5">
         <v>141</v>
       </c>
-      <c r="T23" s="17"/>
-      <c r="V23" s="16"/>
+      <c r="T23" s="22"/>
+      <c r="V23" s="20"/>
       <c r="W23" s="5">
         <v>204</v>
       </c>
-      <c r="X23" s="17"/>
+      <c r="X23" s="22"/>
     </row>
     <row r="24" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
@@ -1672,36 +5108,36 @@
       <c r="X27" s="15"/>
     </row>
     <row r="29" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
-      <c r="F29" s="18" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="F29" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
-      <c r="J29" s="18" t="s">
+      <c r="G29" s="17"/>
+      <c r="H29" s="18"/>
+      <c r="J29" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="20"/>
-      <c r="N29" s="18" t="s">
+      <c r="K29" s="17"/>
+      <c r="L29" s="18"/>
+      <c r="N29" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="O29" s="19"/>
-      <c r="P29" s="20"/>
-      <c r="R29" s="18" t="s">
+      <c r="O29" s="17"/>
+      <c r="P29" s="18"/>
+      <c r="R29" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="S29" s="19"/>
-      <c r="T29" s="20"/>
-      <c r="V29" s="18" t="s">
+      <c r="S29" s="17"/>
+      <c r="T29" s="18"/>
+      <c r="V29" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="W29" s="19"/>
-      <c r="X29" s="20"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="18"/>
     </row>
     <row r="30" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
@@ -1816,258 +5252,258 @@
       </c>
     </row>
     <row r="32" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="21">
+      <c r="B32" s="19">
         <v>4</v>
       </c>
       <c r="C32" s="6">
         <v>15</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="21">
         <f>SUM(C32:C38)/7</f>
         <v>13.428571428571429</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="19">
         <v>4</v>
       </c>
       <c r="G32" s="6">
         <v>31</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="21">
         <f>SUM(G32:G38)/7</f>
         <v>26.714285714285715</v>
       </c>
-      <c r="J32" s="21">
+      <c r="J32" s="19">
         <v>4</v>
       </c>
       <c r="K32" s="6">
         <v>15</v>
       </c>
-      <c r="L32" s="22">
+      <c r="L32" s="21">
         <f>SUM(K32:K38)/7</f>
         <v>20</v>
       </c>
-      <c r="N32" s="21">
+      <c r="N32" s="19">
         <v>4</v>
       </c>
       <c r="O32" s="6">
         <v>16</v>
       </c>
-      <c r="P32" s="22">
+      <c r="P32" s="21">
         <f>SUM(O32:O38)/7</f>
         <v>18</v>
       </c>
-      <c r="R32" s="21">
+      <c r="R32" s="19">
         <v>4</v>
       </c>
       <c r="S32" s="6">
         <v>16</v>
       </c>
-      <c r="T32" s="22">
+      <c r="T32" s="21">
         <f>SUM(S32:S38)/7</f>
         <v>15.714285714285714</v>
       </c>
-      <c r="V32" s="21">
+      <c r="V32" s="19">
         <v>4</v>
       </c>
       <c r="W32" s="6">
         <v>16</v>
       </c>
-      <c r="X32" s="22">
+      <c r="X32" s="21">
         <f>SUM(W32:W38)/7</f>
         <v>15.714285714285714</v>
       </c>
     </row>
     <row r="33" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="16"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="5">
         <v>16</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="F33" s="16"/>
+      <c r="D33" s="22"/>
+      <c r="F33" s="20"/>
       <c r="G33" s="5">
         <v>31</v>
       </c>
-      <c r="H33" s="17"/>
-      <c r="J33" s="16"/>
+      <c r="H33" s="22"/>
+      <c r="J33" s="20"/>
       <c r="K33" s="5">
         <v>0</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="N33" s="16"/>
+      <c r="L33" s="22"/>
+      <c r="N33" s="20"/>
       <c r="O33" s="5">
         <v>32</v>
       </c>
-      <c r="P33" s="17"/>
-      <c r="R33" s="16"/>
+      <c r="P33" s="22"/>
+      <c r="R33" s="20"/>
       <c r="S33" s="5">
         <v>16</v>
       </c>
-      <c r="T33" s="17"/>
-      <c r="V33" s="16"/>
+      <c r="T33" s="22"/>
+      <c r="V33" s="20"/>
       <c r="W33" s="5">
         <v>15</v>
       </c>
-      <c r="X33" s="17"/>
+      <c r="X33" s="22"/>
     </row>
     <row r="34" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="16"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="5">
         <v>16</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="F34" s="16"/>
+      <c r="D34" s="22"/>
+      <c r="F34" s="20"/>
       <c r="G34" s="5">
         <v>16</v>
       </c>
-      <c r="H34" s="17"/>
-      <c r="J34" s="16"/>
+      <c r="H34" s="22"/>
+      <c r="J34" s="20"/>
       <c r="K34" s="5">
         <v>16</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="N34" s="16"/>
+      <c r="L34" s="22"/>
+      <c r="N34" s="20"/>
       <c r="O34" s="5">
         <v>15</v>
       </c>
-      <c r="P34" s="17"/>
-      <c r="R34" s="16"/>
+      <c r="P34" s="22"/>
+      <c r="R34" s="20"/>
       <c r="S34" s="5">
         <v>15</v>
       </c>
-      <c r="T34" s="17"/>
-      <c r="V34" s="16"/>
+      <c r="T34" s="22"/>
+      <c r="V34" s="20"/>
       <c r="W34" s="5">
         <v>16</v>
       </c>
-      <c r="X34" s="17"/>
+      <c r="X34" s="22"/>
     </row>
     <row r="35" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="16"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="5">
         <v>15</v>
       </c>
-      <c r="D35" s="17"/>
-      <c r="F35" s="16"/>
+      <c r="D35" s="22"/>
+      <c r="F35" s="20"/>
       <c r="G35" s="5">
         <v>16</v>
       </c>
-      <c r="H35" s="17"/>
-      <c r="J35" s="16"/>
+      <c r="H35" s="22"/>
+      <c r="J35" s="20"/>
       <c r="K35" s="5">
         <v>15</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="N35" s="16"/>
+      <c r="L35" s="22"/>
+      <c r="N35" s="20"/>
       <c r="O35" s="5">
         <v>16</v>
       </c>
-      <c r="P35" s="17"/>
-      <c r="R35" s="16"/>
+      <c r="P35" s="22"/>
+      <c r="R35" s="20"/>
       <c r="S35" s="5">
         <v>16</v>
       </c>
-      <c r="T35" s="17"/>
-      <c r="V35" s="16"/>
+      <c r="T35" s="22"/>
+      <c r="V35" s="20"/>
       <c r="W35" s="5">
         <v>16</v>
       </c>
-      <c r="X35" s="17"/>
+      <c r="X35" s="22"/>
     </row>
     <row r="36" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="16"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="5">
         <v>16</v>
       </c>
-      <c r="D36" s="17"/>
-      <c r="F36" s="16"/>
+      <c r="D36" s="22"/>
+      <c r="F36" s="20"/>
       <c r="G36" s="5">
         <v>31</v>
       </c>
-      <c r="H36" s="17"/>
-      <c r="J36" s="16"/>
+      <c r="H36" s="22"/>
+      <c r="J36" s="20"/>
       <c r="K36" s="5">
         <v>32</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="N36" s="16"/>
+      <c r="L36" s="22"/>
+      <c r="N36" s="20"/>
       <c r="O36" s="5">
         <v>16</v>
       </c>
-      <c r="P36" s="17"/>
-      <c r="R36" s="16"/>
+      <c r="P36" s="22"/>
+      <c r="R36" s="20"/>
       <c r="S36" s="5">
         <v>16</v>
       </c>
-      <c r="T36" s="17"/>
-      <c r="V36" s="16"/>
+      <c r="T36" s="22"/>
+      <c r="V36" s="20"/>
       <c r="W36" s="5">
         <v>15</v>
       </c>
-      <c r="X36" s="17"/>
+      <c r="X36" s="22"/>
     </row>
     <row r="37" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="16"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="5">
         <v>0</v>
       </c>
-      <c r="D37" s="17"/>
-      <c r="F37" s="16"/>
+      <c r="D37" s="22"/>
+      <c r="F37" s="20"/>
       <c r="G37" s="5">
         <v>31</v>
       </c>
-      <c r="H37" s="17"/>
-      <c r="J37" s="16"/>
+      <c r="H37" s="22"/>
+      <c r="J37" s="20"/>
       <c r="K37" s="5">
         <v>31</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="N37" s="16"/>
+      <c r="L37" s="22"/>
+      <c r="N37" s="20"/>
       <c r="O37" s="5">
         <v>15</v>
       </c>
-      <c r="P37" s="17"/>
-      <c r="R37" s="16"/>
+      <c r="P37" s="22"/>
+      <c r="R37" s="20"/>
       <c r="S37" s="5">
         <v>15</v>
       </c>
-      <c r="T37" s="17"/>
-      <c r="V37" s="16"/>
+      <c r="T37" s="22"/>
+      <c r="V37" s="20"/>
       <c r="W37" s="5">
         <v>16</v>
       </c>
-      <c r="X37" s="17"/>
+      <c r="X37" s="22"/>
     </row>
     <row r="38" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="16"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="5">
         <v>16</v>
       </c>
-      <c r="D38" s="17"/>
-      <c r="F38" s="16"/>
+      <c r="D38" s="22"/>
+      <c r="F38" s="20"/>
       <c r="G38" s="5">
         <v>31</v>
       </c>
-      <c r="H38" s="17"/>
-      <c r="J38" s="16"/>
+      <c r="H38" s="22"/>
+      <c r="J38" s="20"/>
       <c r="K38" s="5">
         <v>31</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="N38" s="16"/>
+      <c r="L38" s="22"/>
+      <c r="N38" s="20"/>
       <c r="O38" s="5">
         <v>16</v>
       </c>
-      <c r="P38" s="17"/>
-      <c r="R38" s="16"/>
+      <c r="P38" s="22"/>
+      <c r="R38" s="20"/>
       <c r="S38" s="5">
         <v>16</v>
       </c>
-      <c r="T38" s="17"/>
-      <c r="V38" s="16"/>
+      <c r="T38" s="22"/>
+      <c r="V38" s="20"/>
       <c r="W38" s="5">
         <v>16</v>
       </c>
-      <c r="X38" s="17"/>
+      <c r="X38" s="22"/>
     </row>
     <row r="39" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="12">
@@ -2324,194 +5760,194 @@
       <c r="X45" s="14"/>
     </row>
     <row r="46" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="16">
+      <c r="B46" s="20">
         <v>6</v>
       </c>
       <c r="C46" s="5">
         <v>157</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="22">
         <f>SUM(C46:C50)/5</f>
         <v>143.80000000000001</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="20">
         <v>6</v>
       </c>
       <c r="G46" s="5">
         <v>141</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="22">
         <f>SUM(G46:G50)/5</f>
         <v>131.19999999999999</v>
       </c>
-      <c r="J46" s="16">
+      <c r="J46" s="20">
         <v>6</v>
       </c>
       <c r="K46" s="5">
         <v>125</v>
       </c>
-      <c r="L46" s="17">
+      <c r="L46" s="22">
         <f>SUM(K46:K50)/5</f>
         <v>122</v>
       </c>
-      <c r="N46" s="16">
+      <c r="N46" s="20">
         <v>6</v>
       </c>
       <c r="O46" s="5">
         <v>125</v>
       </c>
-      <c r="P46" s="17">
+      <c r="P46" s="22">
         <f>SUM(O46:O50)/5</f>
         <v>128</v>
       </c>
-      <c r="R46" s="16">
+      <c r="R46" s="20">
         <v>6</v>
       </c>
       <c r="S46" s="5">
         <v>109</v>
       </c>
-      <c r="T46" s="17">
+      <c r="T46" s="22">
         <f>SUM(S46:S50)/5</f>
         <v>128</v>
       </c>
-      <c r="V46" s="16">
+      <c r="V46" s="20">
         <v>6</v>
       </c>
       <c r="W46" s="5">
         <v>156</v>
       </c>
-      <c r="X46" s="17">
+      <c r="X46" s="22">
         <f>SUM(W46:W50)/5</f>
         <v>134.4</v>
       </c>
     </row>
     <row r="47" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="16"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="5">
         <v>125</v>
       </c>
-      <c r="D47" s="17"/>
-      <c r="F47" s="16"/>
+      <c r="D47" s="22"/>
+      <c r="F47" s="20"/>
       <c r="G47" s="5">
         <v>125</v>
       </c>
-      <c r="H47" s="17"/>
-      <c r="J47" s="16"/>
+      <c r="H47" s="22"/>
+      <c r="J47" s="20"/>
       <c r="K47" s="5">
         <v>125</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="N47" s="16"/>
+      <c r="L47" s="22"/>
+      <c r="N47" s="20"/>
       <c r="O47" s="5">
         <v>125</v>
       </c>
-      <c r="P47" s="17"/>
-      <c r="R47" s="16"/>
+      <c r="P47" s="22"/>
+      <c r="R47" s="20"/>
       <c r="S47" s="5">
         <v>125</v>
       </c>
-      <c r="T47" s="17"/>
-      <c r="V47" s="16"/>
+      <c r="T47" s="22"/>
+      <c r="V47" s="20"/>
       <c r="W47" s="5">
         <v>125</v>
       </c>
-      <c r="X47" s="17"/>
+      <c r="X47" s="22"/>
     </row>
     <row r="48" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="16"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="5">
         <v>125</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="F48" s="16"/>
+      <c r="D48" s="22"/>
+      <c r="F48" s="20"/>
       <c r="G48" s="5">
         <v>140</v>
       </c>
-      <c r="H48" s="17"/>
-      <c r="J48" s="16"/>
+      <c r="H48" s="22"/>
+      <c r="J48" s="20"/>
       <c r="K48" s="5">
         <v>125</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="N48" s="16"/>
+      <c r="L48" s="22"/>
+      <c r="N48" s="20"/>
       <c r="O48" s="5">
         <v>125</v>
       </c>
-      <c r="P48" s="17"/>
-      <c r="R48" s="16"/>
+      <c r="P48" s="22"/>
+      <c r="R48" s="20"/>
       <c r="S48" s="5">
         <v>125</v>
       </c>
-      <c r="T48" s="17"/>
-      <c r="V48" s="16"/>
+      <c r="T48" s="22"/>
+      <c r="V48" s="20"/>
       <c r="W48" s="5">
         <v>125</v>
       </c>
-      <c r="X48" s="17"/>
+      <c r="X48" s="22"/>
     </row>
     <row r="49" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="16"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="5">
         <v>172</v>
       </c>
-      <c r="D49" s="17"/>
-      <c r="F49" s="16"/>
+      <c r="D49" s="22"/>
+      <c r="F49" s="20"/>
       <c r="G49" s="5">
         <v>125</v>
       </c>
-      <c r="H49" s="17"/>
-      <c r="J49" s="16"/>
+      <c r="H49" s="22"/>
+      <c r="J49" s="20"/>
       <c r="K49" s="5">
         <v>110</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="N49" s="16"/>
+      <c r="L49" s="22"/>
+      <c r="N49" s="20"/>
       <c r="O49" s="5">
         <v>125</v>
       </c>
-      <c r="P49" s="17"/>
-      <c r="R49" s="16"/>
+      <c r="P49" s="22"/>
+      <c r="R49" s="20"/>
       <c r="S49" s="5">
         <v>125</v>
       </c>
-      <c r="T49" s="17"/>
-      <c r="V49" s="16"/>
+      <c r="T49" s="22"/>
+      <c r="V49" s="20"/>
       <c r="W49" s="5">
         <v>125</v>
       </c>
-      <c r="X49" s="17"/>
+      <c r="X49" s="22"/>
     </row>
     <row r="50" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="16"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="5">
         <v>140</v>
       </c>
-      <c r="D50" s="17"/>
-      <c r="F50" s="16"/>
+      <c r="D50" s="22"/>
+      <c r="F50" s="20"/>
       <c r="G50" s="5">
         <v>125</v>
       </c>
-      <c r="H50" s="17"/>
-      <c r="J50" s="16"/>
+      <c r="H50" s="22"/>
+      <c r="J50" s="20"/>
       <c r="K50" s="5">
         <v>125</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="N50" s="16"/>
+      <c r="L50" s="22"/>
+      <c r="N50" s="20"/>
       <c r="O50" s="5">
         <v>140</v>
       </c>
-      <c r="P50" s="17"/>
-      <c r="R50" s="16"/>
+      <c r="P50" s="22"/>
+      <c r="R50" s="20"/>
       <c r="S50" s="5">
         <v>156</v>
       </c>
-      <c r="T50" s="17"/>
-      <c r="V50" s="16"/>
+      <c r="T50" s="22"/>
+      <c r="V50" s="20"/>
       <c r="W50" s="5">
         <v>141</v>
       </c>
-      <c r="X50" s="17"/>
+      <c r="X50" s="22"/>
     </row>
     <row r="51" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="12">
@@ -2672,36 +6108,36 @@
       <c r="X54" s="15"/>
     </row>
     <row r="56" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="20"/>
-      <c r="F56" s="18" t="s">
+      <c r="C56" s="17"/>
+      <c r="D56" s="18"/>
+      <c r="F56" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G56" s="19"/>
-      <c r="H56" s="20"/>
-      <c r="J56" s="18" t="s">
+      <c r="G56" s="17"/>
+      <c r="H56" s="18"/>
+      <c r="J56" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="K56" s="19"/>
-      <c r="L56" s="20"/>
-      <c r="N56" s="18" t="s">
+      <c r="K56" s="17"/>
+      <c r="L56" s="18"/>
+      <c r="N56" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="O56" s="19"/>
-      <c r="P56" s="20"/>
-      <c r="R56" s="18" t="s">
+      <c r="O56" s="17"/>
+      <c r="P56" s="18"/>
+      <c r="R56" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="S56" s="19"/>
-      <c r="T56" s="20"/>
-      <c r="V56" s="18" t="s">
+      <c r="S56" s="17"/>
+      <c r="T56" s="18"/>
+      <c r="V56" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="W56" s="19"/>
-      <c r="X56" s="20"/>
+      <c r="W56" s="17"/>
+      <c r="X56" s="18"/>
     </row>
     <row r="57" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
@@ -2816,258 +6252,258 @@
       </c>
     </row>
     <row r="59" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="21">
+      <c r="B59" s="19">
         <v>4</v>
       </c>
       <c r="C59" s="6">
         <v>16</v>
       </c>
-      <c r="D59" s="22">
+      <c r="D59" s="21">
         <f>SUM(C59:C65)/7</f>
         <v>11.142857142857142</v>
       </c>
-      <c r="F59" s="21">
+      <c r="F59" s="19">
         <v>4</v>
       </c>
       <c r="G59" s="6">
         <v>0</v>
       </c>
-      <c r="H59" s="22">
+      <c r="H59" s="21">
         <f>SUM(G59:G65)/7</f>
         <v>13.285714285714286</v>
       </c>
-      <c r="J59" s="21">
+      <c r="J59" s="19">
         <v>4</v>
       </c>
       <c r="K59" s="6">
         <v>16</v>
       </c>
-      <c r="L59" s="22">
+      <c r="L59" s="21">
         <f>SUM(K59:K65)/7</f>
         <v>11.142857142857142</v>
       </c>
-      <c r="N59" s="21">
+      <c r="N59" s="19">
         <v>4</v>
       </c>
       <c r="O59" s="6">
         <v>16</v>
       </c>
-      <c r="P59" s="22">
+      <c r="P59" s="21">
         <f>SUM(O59:O65)/7</f>
         <v>9.7142857142857135</v>
       </c>
-      <c r="R59" s="21">
+      <c r="R59" s="19">
         <v>4</v>
       </c>
       <c r="S59" s="6">
         <v>16</v>
       </c>
-      <c r="T59" s="22">
+      <c r="T59" s="21">
         <f>SUM(S59:S65)/7</f>
         <v>15.571428571428571</v>
       </c>
-      <c r="V59" s="21">
+      <c r="V59" s="19">
         <v>4</v>
       </c>
       <c r="W59" s="6">
         <v>15</v>
       </c>
-      <c r="X59" s="22">
+      <c r="X59" s="21">
         <f>SUM(W59:W65)/7</f>
         <v>15.571428571428571</v>
       </c>
     </row>
     <row r="60" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="16"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="5">
         <v>16</v>
       </c>
-      <c r="D60" s="17"/>
-      <c r="F60" s="16"/>
+      <c r="D60" s="22"/>
+      <c r="F60" s="20"/>
       <c r="G60" s="5">
         <v>15</v>
       </c>
-      <c r="H60" s="17"/>
-      <c r="J60" s="16"/>
+      <c r="H60" s="22"/>
+      <c r="J60" s="20"/>
       <c r="K60" s="5">
         <v>0</v>
       </c>
-      <c r="L60" s="17"/>
-      <c r="N60" s="16"/>
+      <c r="L60" s="22"/>
+      <c r="N60" s="20"/>
       <c r="O60" s="5">
         <v>0</v>
       </c>
-      <c r="P60" s="17"/>
-      <c r="R60" s="16"/>
+      <c r="P60" s="22"/>
+      <c r="R60" s="20"/>
       <c r="S60" s="5">
         <v>16</v>
       </c>
-      <c r="T60" s="17"/>
-      <c r="V60" s="16"/>
+      <c r="T60" s="22"/>
+      <c r="V60" s="20"/>
       <c r="W60" s="5">
         <v>16</v>
       </c>
-      <c r="X60" s="17"/>
+      <c r="X60" s="22"/>
     </row>
     <row r="61" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="16"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="5">
         <v>15</v>
       </c>
-      <c r="D61" s="17"/>
-      <c r="F61" s="16"/>
+      <c r="D61" s="22"/>
+      <c r="F61" s="20"/>
       <c r="G61" s="5">
         <v>16</v>
       </c>
-      <c r="H61" s="17"/>
-      <c r="J61" s="16"/>
+      <c r="H61" s="22"/>
+      <c r="J61" s="20"/>
       <c r="K61" s="5">
         <v>15</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="N61" s="16"/>
+      <c r="L61" s="22"/>
+      <c r="N61" s="20"/>
       <c r="O61" s="5">
         <v>5</v>
       </c>
-      <c r="P61" s="17"/>
-      <c r="R61" s="16"/>
+      <c r="P61" s="22"/>
+      <c r="R61" s="20"/>
       <c r="S61" s="5">
         <v>31</v>
       </c>
-      <c r="T61" s="17"/>
-      <c r="V61" s="16"/>
+      <c r="T61" s="22"/>
+      <c r="V61" s="20"/>
       <c r="W61" s="5">
         <v>16</v>
       </c>
-      <c r="X61" s="17"/>
+      <c r="X61" s="22"/>
     </row>
     <row r="62" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="16"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="5">
         <v>16</v>
       </c>
-      <c r="D62" s="17"/>
-      <c r="F62" s="16"/>
+      <c r="D62" s="22"/>
+      <c r="F62" s="20"/>
       <c r="G62" s="5">
         <v>0</v>
       </c>
-      <c r="H62" s="17"/>
-      <c r="J62" s="16"/>
+      <c r="H62" s="22"/>
+      <c r="J62" s="20"/>
       <c r="K62" s="5">
         <v>16</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="N62" s="16"/>
+      <c r="L62" s="22"/>
+      <c r="N62" s="20"/>
       <c r="O62" s="5">
         <v>16</v>
       </c>
-      <c r="P62" s="17"/>
-      <c r="R62" s="16"/>
+      <c r="P62" s="22"/>
+      <c r="R62" s="20"/>
       <c r="S62" s="5">
         <v>16</v>
       </c>
-      <c r="T62" s="17"/>
-      <c r="V62" s="16"/>
+      <c r="T62" s="22"/>
+      <c r="V62" s="20"/>
       <c r="W62" s="5">
         <v>15</v>
       </c>
-      <c r="X62" s="17"/>
+      <c r="X62" s="22"/>
     </row>
     <row r="63" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="16"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="5">
         <v>0</v>
       </c>
-      <c r="D63" s="17"/>
-      <c r="F63" s="16"/>
+      <c r="D63" s="22"/>
+      <c r="F63" s="20"/>
       <c r="G63" s="5">
         <v>16</v>
       </c>
-      <c r="H63" s="17"/>
-      <c r="J63" s="16"/>
+      <c r="H63" s="22"/>
+      <c r="J63" s="20"/>
       <c r="K63" s="5">
         <v>15</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="N63" s="16"/>
+      <c r="L63" s="22"/>
+      <c r="N63" s="20"/>
       <c r="O63" s="5">
         <v>16</v>
       </c>
-      <c r="P63" s="17"/>
-      <c r="R63" s="16"/>
+      <c r="P63" s="22"/>
+      <c r="R63" s="20"/>
       <c r="S63" s="5">
         <v>15</v>
       </c>
-      <c r="T63" s="17"/>
-      <c r="V63" s="16"/>
+      <c r="T63" s="22"/>
+      <c r="V63" s="20"/>
       <c r="W63" s="5">
         <v>16</v>
       </c>
-      <c r="X63" s="17"/>
+      <c r="X63" s="22"/>
     </row>
     <row r="64" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="16"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="5">
         <v>0</v>
       </c>
-      <c r="D64" s="17"/>
-      <c r="F64" s="16"/>
+      <c r="D64" s="22"/>
+      <c r="F64" s="20"/>
       <c r="G64" s="5">
         <v>15</v>
       </c>
-      <c r="H64" s="17"/>
-      <c r="J64" s="16"/>
+      <c r="H64" s="22"/>
+      <c r="J64" s="20"/>
       <c r="K64" s="5">
         <v>16</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="N64" s="16"/>
+      <c r="L64" s="22"/>
+      <c r="N64" s="20"/>
       <c r="O64" s="5">
         <v>0</v>
       </c>
-      <c r="P64" s="17"/>
-      <c r="R64" s="16"/>
+      <c r="P64" s="22"/>
+      <c r="R64" s="20"/>
       <c r="S64" s="5">
         <v>15</v>
       </c>
-      <c r="T64" s="17"/>
-      <c r="V64" s="16"/>
+      <c r="T64" s="22"/>
+      <c r="V64" s="20"/>
       <c r="W64" s="5">
         <v>15</v>
       </c>
-      <c r="X64" s="17"/>
+      <c r="X64" s="22"/>
     </row>
     <row r="65" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="16"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="5">
         <v>15</v>
       </c>
-      <c r="D65" s="17"/>
-      <c r="F65" s="16"/>
+      <c r="D65" s="22"/>
+      <c r="F65" s="20"/>
       <c r="G65" s="5">
         <v>31</v>
       </c>
-      <c r="H65" s="17"/>
-      <c r="J65" s="16"/>
+      <c r="H65" s="22"/>
+      <c r="J65" s="20"/>
       <c r="K65" s="5">
         <v>0</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="N65" s="16"/>
+      <c r="L65" s="22"/>
+      <c r="N65" s="20"/>
       <c r="O65" s="5">
         <v>15</v>
       </c>
-      <c r="P65" s="17"/>
-      <c r="R65" s="16"/>
+      <c r="P65" s="22"/>
+      <c r="R65" s="20"/>
       <c r="S65" s="5">
         <v>0</v>
       </c>
-      <c r="T65" s="17"/>
-      <c r="V65" s="16"/>
+      <c r="T65" s="22"/>
+      <c r="V65" s="20"/>
       <c r="W65" s="5">
         <v>16</v>
       </c>
-      <c r="X65" s="17"/>
+      <c r="X65" s="22"/>
     </row>
     <row r="66" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="12">
@@ -3324,194 +6760,194 @@
       <c r="X72" s="14"/>
     </row>
     <row r="73" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="16">
+      <c r="B73" s="20">
         <v>6</v>
       </c>
       <c r="C73" s="5">
         <v>140</v>
       </c>
-      <c r="D73" s="17">
+      <c r="D73" s="22">
         <f>SUM(C73:C77)/5</f>
         <v>134.4</v>
       </c>
-      <c r="F73" s="16">
+      <c r="F73" s="20">
         <v>6</v>
       </c>
       <c r="G73" s="5">
         <v>125</v>
       </c>
-      <c r="H73" s="17">
+      <c r="H73" s="22">
         <f>SUM(G73:G77)/5</f>
         <v>131.4</v>
       </c>
-      <c r="J73" s="16">
+      <c r="J73" s="20">
         <v>6</v>
       </c>
       <c r="K73" s="5">
         <v>141</v>
       </c>
-      <c r="L73" s="17">
+      <c r="L73" s="22">
         <f>SUM(K73:K77)/5</f>
         <v>131.4</v>
       </c>
-      <c r="N73" s="16">
+      <c r="N73" s="20">
         <v>6</v>
       </c>
       <c r="O73" s="5">
         <v>110</v>
       </c>
-      <c r="P73" s="17">
+      <c r="P73" s="22">
         <f>SUM(O73:O77)/5</f>
         <v>134.4</v>
       </c>
-      <c r="R73" s="16">
+      <c r="R73" s="20">
         <v>6</v>
       </c>
       <c r="S73" s="5">
         <v>125</v>
       </c>
-      <c r="T73" s="17">
+      <c r="T73" s="22">
         <f>SUM(S73:S77)/5</f>
         <v>121.8</v>
       </c>
-      <c r="V73" s="16">
+      <c r="V73" s="20">
         <v>6</v>
       </c>
       <c r="W73" s="5">
         <v>125</v>
       </c>
-      <c r="X73" s="17">
+      <c r="X73" s="22">
         <f>SUM(W73:W77)/5</f>
         <v>125</v>
       </c>
     </row>
     <row r="74" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="16"/>
+      <c r="B74" s="20"/>
       <c r="C74" s="5">
         <v>141</v>
       </c>
-      <c r="D74" s="17"/>
-      <c r="F74" s="16"/>
+      <c r="D74" s="22"/>
+      <c r="F74" s="20"/>
       <c r="G74" s="5">
         <v>125</v>
       </c>
-      <c r="H74" s="17"/>
-      <c r="J74" s="16"/>
+      <c r="H74" s="22"/>
+      <c r="J74" s="20"/>
       <c r="K74" s="5">
         <v>125</v>
       </c>
-      <c r="L74" s="17"/>
-      <c r="N74" s="16"/>
+      <c r="L74" s="22"/>
+      <c r="N74" s="20"/>
       <c r="O74" s="5">
         <v>140</v>
       </c>
-      <c r="P74" s="17"/>
-      <c r="R74" s="16"/>
+      <c r="P74" s="22"/>
+      <c r="R74" s="20"/>
       <c r="S74" s="5">
         <v>109</v>
       </c>
-      <c r="T74" s="17"/>
-      <c r="V74" s="16"/>
+      <c r="T74" s="22"/>
+      <c r="V74" s="20"/>
       <c r="W74" s="5">
         <v>110</v>
       </c>
-      <c r="X74" s="17"/>
+      <c r="X74" s="22"/>
     </row>
     <row r="75" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="16"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="5">
         <v>141</v>
       </c>
-      <c r="D75" s="17"/>
-      <c r="F75" s="16"/>
+      <c r="D75" s="22"/>
+      <c r="F75" s="20"/>
       <c r="G75" s="5">
         <v>141</v>
       </c>
-      <c r="H75" s="17"/>
-      <c r="J75" s="16"/>
+      <c r="H75" s="22"/>
+      <c r="J75" s="20"/>
       <c r="K75" s="5">
         <v>125</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="N75" s="16"/>
+      <c r="L75" s="22"/>
+      <c r="N75" s="20"/>
       <c r="O75" s="5">
         <v>141</v>
       </c>
-      <c r="P75" s="17"/>
-      <c r="R75" s="16"/>
+      <c r="P75" s="22"/>
+      <c r="R75" s="20"/>
       <c r="S75" s="5">
         <v>109</v>
       </c>
-      <c r="T75" s="17"/>
-      <c r="V75" s="16"/>
+      <c r="T75" s="22"/>
+      <c r="V75" s="20"/>
       <c r="W75" s="5">
         <v>140</v>
       </c>
-      <c r="X75" s="17"/>
+      <c r="X75" s="22"/>
     </row>
     <row r="76" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="16"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="5">
         <v>125</v>
       </c>
-      <c r="D76" s="17"/>
-      <c r="F76" s="16"/>
+      <c r="D76" s="22"/>
+      <c r="F76" s="20"/>
       <c r="G76" s="5">
         <v>141</v>
       </c>
-      <c r="H76" s="17"/>
-      <c r="J76" s="16"/>
+      <c r="H76" s="22"/>
+      <c r="J76" s="20"/>
       <c r="K76" s="5">
         <v>125</v>
       </c>
-      <c r="L76" s="17"/>
-      <c r="N76" s="16"/>
+      <c r="L76" s="22"/>
+      <c r="N76" s="20"/>
       <c r="O76" s="5">
         <v>156</v>
       </c>
-      <c r="P76" s="17"/>
-      <c r="R76" s="16"/>
+      <c r="P76" s="22"/>
+      <c r="R76" s="20"/>
       <c r="S76" s="5">
         <v>141</v>
       </c>
-      <c r="T76" s="17"/>
-      <c r="V76" s="16"/>
+      <c r="T76" s="22"/>
+      <c r="V76" s="20"/>
       <c r="W76" s="5">
         <v>125</v>
       </c>
-      <c r="X76" s="17"/>
+      <c r="X76" s="22"/>
     </row>
     <row r="77" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="16"/>
+      <c r="B77" s="20"/>
       <c r="C77" s="5">
         <v>125</v>
       </c>
-      <c r="D77" s="17"/>
-      <c r="F77" s="16"/>
+      <c r="D77" s="22"/>
+      <c r="F77" s="20"/>
       <c r="G77" s="5">
         <v>125</v>
       </c>
-      <c r="H77" s="17"/>
-      <c r="J77" s="16"/>
+      <c r="H77" s="22"/>
+      <c r="J77" s="20"/>
       <c r="K77" s="5">
         <v>141</v>
       </c>
-      <c r="L77" s="17"/>
-      <c r="N77" s="16"/>
+      <c r="L77" s="22"/>
+      <c r="N77" s="20"/>
       <c r="O77" s="5">
         <v>125</v>
       </c>
-      <c r="P77" s="17"/>
-      <c r="R77" s="16"/>
+      <c r="P77" s="22"/>
+      <c r="R77" s="20"/>
       <c r="S77" s="5">
         <v>125</v>
       </c>
-      <c r="T77" s="17"/>
-      <c r="V77" s="16"/>
+      <c r="T77" s="22"/>
+      <c r="V77" s="20"/>
       <c r="W77" s="5">
         <v>125</v>
       </c>
-      <c r="X77" s="17"/>
+      <c r="X77" s="22"/>
     </row>
     <row r="78" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="12">
@@ -3672,36 +7108,36 @@
       <c r="X81" s="15"/>
     </row>
     <row r="83" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="18" t="s">
+      <c r="B83" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C83" s="19"/>
-      <c r="D83" s="20"/>
-      <c r="F83" s="18" t="s">
+      <c r="C83" s="17"/>
+      <c r="D83" s="18"/>
+      <c r="F83" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G83" s="19"/>
-      <c r="H83" s="20"/>
-      <c r="J83" s="18" t="s">
+      <c r="G83" s="17"/>
+      <c r="H83" s="18"/>
+      <c r="J83" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="K83" s="19"/>
-      <c r="L83" s="20"/>
-      <c r="N83" s="18" t="s">
+      <c r="K83" s="17"/>
+      <c r="L83" s="18"/>
+      <c r="N83" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="O83" s="19"/>
-      <c r="P83" s="20"/>
-      <c r="R83" s="18" t="s">
+      <c r="O83" s="17"/>
+      <c r="P83" s="18"/>
+      <c r="R83" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="S83" s="19"/>
-      <c r="T83" s="20"/>
-      <c r="V83" s="18" t="s">
+      <c r="S83" s="17"/>
+      <c r="T83" s="18"/>
+      <c r="V83" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="W83" s="19"/>
-      <c r="X83" s="20"/>
+      <c r="W83" s="17"/>
+      <c r="X83" s="18"/>
     </row>
     <row r="84" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
@@ -3816,258 +7252,258 @@
       </c>
     </row>
     <row r="86" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="21">
+      <c r="B86" s="19">
         <v>4</v>
       </c>
       <c r="C86" s="6">
         <v>16</v>
       </c>
-      <c r="D86" s="22">
+      <c r="D86" s="21">
         <f>SUM(C86:C92)/7</f>
         <v>15.714285714285714</v>
       </c>
-      <c r="F86" s="21">
+      <c r="F86" s="19">
         <v>4</v>
       </c>
       <c r="G86" s="6">
         <v>16</v>
       </c>
-      <c r="H86" s="22">
+      <c r="H86" s="21">
         <f>SUM(G86:G92)/7</f>
         <v>15.571428571428571</v>
       </c>
-      <c r="J86" s="21">
+      <c r="J86" s="19">
         <v>4</v>
       </c>
       <c r="K86" s="6">
         <v>16</v>
       </c>
-      <c r="L86" s="22">
+      <c r="L86" s="21">
         <f>SUM(K86:K92)/7</f>
         <v>13.428571428571429</v>
       </c>
-      <c r="N86" s="21">
+      <c r="N86" s="19">
         <v>4</v>
       </c>
       <c r="O86" s="6">
         <v>15</v>
       </c>
-      <c r="P86" s="22">
+      <c r="P86" s="21">
         <f>SUM(O86:O92)/7</f>
         <v>17.857142857142858</v>
       </c>
-      <c r="R86" s="21">
+      <c r="R86" s="19">
         <v>4</v>
       </c>
       <c r="S86" s="6">
         <v>16</v>
       </c>
-      <c r="T86" s="22">
+      <c r="T86" s="21">
         <f>SUM(S86:S92)/7</f>
         <v>15.714285714285714</v>
       </c>
-      <c r="V86" s="21">
+      <c r="V86" s="19">
         <v>4</v>
       </c>
       <c r="W86" s="6">
         <v>16</v>
       </c>
-      <c r="X86" s="22">
+      <c r="X86" s="21">
         <f>SUM(W86:W92)/7</f>
         <v>13.428571428571429</v>
       </c>
     </row>
     <row r="87" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="16"/>
+      <c r="B87" s="20"/>
       <c r="C87" s="5">
         <v>16</v>
       </c>
-      <c r="D87" s="17"/>
-      <c r="F87" s="16"/>
+      <c r="D87" s="22"/>
+      <c r="F87" s="20"/>
       <c r="G87" s="5">
         <v>15</v>
       </c>
-      <c r="H87" s="17"/>
-      <c r="J87" s="16"/>
+      <c r="H87" s="22"/>
+      <c r="J87" s="20"/>
       <c r="K87" s="5">
         <v>0</v>
       </c>
-      <c r="L87" s="17"/>
-      <c r="N87" s="16"/>
+      <c r="L87" s="22"/>
+      <c r="N87" s="20"/>
       <c r="O87" s="5">
         <v>16</v>
       </c>
-      <c r="P87" s="17"/>
-      <c r="R87" s="16"/>
+      <c r="P87" s="22"/>
+      <c r="R87" s="20"/>
       <c r="S87" s="5">
         <v>16</v>
       </c>
-      <c r="T87" s="17"/>
-      <c r="V87" s="16"/>
+      <c r="T87" s="22"/>
+      <c r="V87" s="20"/>
       <c r="W87" s="5">
         <v>16</v>
       </c>
-      <c r="X87" s="17"/>
+      <c r="X87" s="22"/>
     </row>
     <row r="88" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="16"/>
+      <c r="B88" s="20"/>
       <c r="C88" s="5">
         <v>15</v>
       </c>
-      <c r="D88" s="17"/>
-      <c r="F88" s="16"/>
+      <c r="D88" s="22"/>
+      <c r="F88" s="20"/>
       <c r="G88" s="5">
         <v>16</v>
       </c>
-      <c r="H88" s="17"/>
-      <c r="J88" s="16"/>
+      <c r="H88" s="22"/>
+      <c r="J88" s="20"/>
       <c r="K88" s="5">
         <v>16</v>
       </c>
-      <c r="L88" s="17"/>
-      <c r="N88" s="16"/>
+      <c r="L88" s="22"/>
+      <c r="N88" s="20"/>
       <c r="O88" s="5">
         <v>16</v>
       </c>
-      <c r="P88" s="17"/>
-      <c r="R88" s="16"/>
+      <c r="P88" s="22"/>
+      <c r="R88" s="20"/>
       <c r="S88" s="5">
         <v>15</v>
       </c>
-      <c r="T88" s="17"/>
-      <c r="V88" s="16"/>
+      <c r="T88" s="22"/>
+      <c r="V88" s="20"/>
       <c r="W88" s="5">
         <v>15</v>
       </c>
-      <c r="X88" s="17"/>
+      <c r="X88" s="22"/>
     </row>
     <row r="89" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="16"/>
+      <c r="B89" s="20"/>
       <c r="C89" s="5">
         <v>16</v>
       </c>
-      <c r="D89" s="17"/>
-      <c r="F89" s="16"/>
+      <c r="D89" s="22"/>
+      <c r="F89" s="20"/>
       <c r="G89" s="5">
         <v>15</v>
       </c>
-      <c r="H89" s="17"/>
-      <c r="J89" s="16"/>
+      <c r="H89" s="22"/>
+      <c r="J89" s="20"/>
       <c r="K89" s="5">
         <v>31</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="N89" s="16"/>
+      <c r="L89" s="22"/>
+      <c r="N89" s="20"/>
       <c r="O89" s="5">
         <v>15</v>
       </c>
-      <c r="P89" s="17"/>
-      <c r="R89" s="16"/>
+      <c r="P89" s="22"/>
+      <c r="R89" s="20"/>
       <c r="S89" s="5">
         <v>16</v>
       </c>
-      <c r="T89" s="17"/>
-      <c r="V89" s="16"/>
+      <c r="T89" s="22"/>
+      <c r="V89" s="20"/>
       <c r="W89" s="5">
         <v>0</v>
       </c>
-      <c r="X89" s="17"/>
+      <c r="X89" s="22"/>
     </row>
     <row r="90" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="16"/>
+      <c r="B90" s="20"/>
       <c r="C90" s="5">
         <v>15</v>
       </c>
-      <c r="D90" s="17"/>
-      <c r="F90" s="16"/>
+      <c r="D90" s="22"/>
+      <c r="F90" s="20"/>
       <c r="G90" s="5">
         <v>16</v>
       </c>
-      <c r="H90" s="17"/>
-      <c r="J90" s="16"/>
+      <c r="H90" s="22"/>
+      <c r="J90" s="20"/>
       <c r="K90" s="5">
         <v>15</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="N90" s="16"/>
+      <c r="L90" s="22"/>
+      <c r="N90" s="20"/>
       <c r="O90" s="5">
         <v>16</v>
       </c>
-      <c r="P90" s="17"/>
-      <c r="R90" s="16"/>
+      <c r="P90" s="22"/>
+      <c r="R90" s="20"/>
       <c r="S90" s="5">
         <v>15</v>
       </c>
-      <c r="T90" s="17"/>
-      <c r="V90" s="16"/>
+      <c r="T90" s="22"/>
+      <c r="V90" s="20"/>
       <c r="W90" s="5">
         <v>16</v>
       </c>
-      <c r="X90" s="17"/>
+      <c r="X90" s="22"/>
     </row>
     <row r="91" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="16"/>
+      <c r="B91" s="20"/>
       <c r="C91" s="5">
         <v>16</v>
       </c>
-      <c r="D91" s="17"/>
-      <c r="F91" s="16"/>
+      <c r="D91" s="22"/>
+      <c r="F91" s="20"/>
       <c r="G91" s="5">
         <v>16</v>
       </c>
-      <c r="H91" s="17"/>
-      <c r="J91" s="16"/>
+      <c r="H91" s="22"/>
+      <c r="J91" s="20"/>
       <c r="K91" s="5">
         <v>16</v>
       </c>
-      <c r="L91" s="17"/>
-      <c r="N91" s="16"/>
+      <c r="L91" s="22"/>
+      <c r="N91" s="20"/>
       <c r="O91" s="5">
         <v>16</v>
       </c>
-      <c r="P91" s="17"/>
-      <c r="R91" s="16"/>
+      <c r="P91" s="22"/>
+      <c r="R91" s="20"/>
       <c r="S91" s="5">
         <v>16</v>
       </c>
-      <c r="T91" s="17"/>
-      <c r="V91" s="16"/>
+      <c r="T91" s="22"/>
+      <c r="V91" s="20"/>
       <c r="W91" s="5">
         <v>15</v>
       </c>
-      <c r="X91" s="17"/>
+      <c r="X91" s="22"/>
     </row>
     <row r="92" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="16"/>
+      <c r="B92" s="20"/>
       <c r="C92" s="5">
         <v>16</v>
       </c>
-      <c r="D92" s="17"/>
-      <c r="F92" s="16"/>
+      <c r="D92" s="22"/>
+      <c r="F92" s="20"/>
       <c r="G92" s="5">
         <v>15</v>
       </c>
-      <c r="H92" s="17"/>
-      <c r="J92" s="16"/>
+      <c r="H92" s="22"/>
+      <c r="J92" s="20"/>
       <c r="K92" s="5">
         <v>0</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="N92" s="16"/>
+      <c r="L92" s="22"/>
+      <c r="N92" s="20"/>
       <c r="O92" s="5">
         <v>31</v>
       </c>
-      <c r="P92" s="17"/>
-      <c r="R92" s="16"/>
+      <c r="P92" s="22"/>
+      <c r="R92" s="20"/>
       <c r="S92" s="5">
         <v>16</v>
       </c>
-      <c r="T92" s="17"/>
-      <c r="V92" s="16"/>
+      <c r="T92" s="22"/>
+      <c r="V92" s="20"/>
       <c r="W92" s="5">
         <v>16</v>
       </c>
-      <c r="X92" s="17"/>
+      <c r="X92" s="22"/>
     </row>
     <row r="93" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="12">
@@ -4324,194 +7760,194 @@
       <c r="X99" s="14"/>
     </row>
     <row r="100" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="16">
+      <c r="B100" s="20">
         <v>6</v>
       </c>
       <c r="C100" s="5">
         <v>125</v>
       </c>
-      <c r="D100" s="17">
+      <c r="D100" s="22">
         <f>SUM(C100:C104)/5</f>
         <v>118.8</v>
       </c>
-      <c r="F100" s="16">
+      <c r="F100" s="20">
         <v>6</v>
       </c>
       <c r="G100" s="5">
         <v>172</v>
       </c>
-      <c r="H100" s="17">
+      <c r="H100" s="22">
         <f>SUM(G100:G104)/5</f>
-        <v>28168.799999999999</v>
-      </c>
-      <c r="J100" s="16">
+        <v>137.4</v>
+      </c>
+      <c r="J100" s="20">
         <v>6</v>
       </c>
       <c r="K100" s="5">
         <v>156</v>
       </c>
-      <c r="L100" s="17">
+      <c r="L100" s="22">
         <f>SUM(K100:K104)/5</f>
         <v>131.19999999999999</v>
       </c>
-      <c r="N100" s="16">
+      <c r="N100" s="20">
         <v>6</v>
       </c>
       <c r="O100" s="5">
         <v>125</v>
       </c>
-      <c r="P100" s="17">
+      <c r="P100" s="22">
         <f>SUM(O100:O104)/5</f>
         <v>131.4</v>
       </c>
-      <c r="R100" s="16">
+      <c r="R100" s="20">
         <v>6</v>
       </c>
       <c r="S100" s="5">
         <v>156</v>
       </c>
-      <c r="T100" s="17">
+      <c r="T100" s="22">
         <f>SUM(S100:S104)/5</f>
         <v>143.80000000000001</v>
       </c>
-      <c r="V100" s="16">
+      <c r="V100" s="20">
         <v>6</v>
       </c>
       <c r="W100" s="5">
         <v>125</v>
       </c>
-      <c r="X100" s="17">
+      <c r="X100" s="22">
         <f>SUM(W100:W104)/5</f>
         <v>125</v>
       </c>
     </row>
     <row r="101" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="16"/>
+      <c r="B101" s="20"/>
       <c r="C101" s="5">
         <v>125</v>
       </c>
-      <c r="D101" s="17"/>
-      <c r="F101" s="16"/>
+      <c r="D101" s="22"/>
+      <c r="F101" s="20"/>
       <c r="G101" s="5">
         <v>125</v>
       </c>
-      <c r="H101" s="17"/>
-      <c r="J101" s="16"/>
+      <c r="H101" s="22"/>
+      <c r="J101" s="20"/>
       <c r="K101" s="5">
         <v>125</v>
       </c>
-      <c r="L101" s="17"/>
-      <c r="N101" s="16"/>
+      <c r="L101" s="22"/>
+      <c r="N101" s="20"/>
       <c r="O101" s="5">
         <v>141</v>
       </c>
-      <c r="P101" s="17"/>
-      <c r="R101" s="16"/>
+      <c r="P101" s="22"/>
+      <c r="R101" s="20"/>
       <c r="S101" s="5">
         <v>156</v>
       </c>
-      <c r="T101" s="17"/>
-      <c r="V101" s="16"/>
+      <c r="T101" s="22"/>
+      <c r="V101" s="20"/>
       <c r="W101" s="5">
         <v>125</v>
       </c>
-      <c r="X101" s="17"/>
+      <c r="X101" s="22"/>
     </row>
     <row r="102" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="16"/>
+      <c r="B102" s="20"/>
       <c r="C102" s="5">
         <v>110</v>
       </c>
-      <c r="D102" s="17"/>
-      <c r="F102" s="16"/>
+      <c r="D102" s="22"/>
+      <c r="F102" s="20"/>
       <c r="G102" s="5">
         <v>140</v>
       </c>
-      <c r="H102" s="17"/>
-      <c r="J102" s="16"/>
+      <c r="H102" s="22"/>
+      <c r="J102" s="20"/>
       <c r="K102" s="5">
         <v>109</v>
       </c>
-      <c r="L102" s="17"/>
-      <c r="N102" s="16"/>
+      <c r="L102" s="22"/>
+      <c r="N102" s="20"/>
       <c r="O102" s="5">
         <v>156</v>
       </c>
-      <c r="P102" s="17"/>
-      <c r="R102" s="16"/>
+      <c r="P102" s="22"/>
+      <c r="R102" s="20"/>
       <c r="S102" s="5">
         <v>141</v>
       </c>
-      <c r="T102" s="17"/>
-      <c r="V102" s="16"/>
+      <c r="T102" s="22"/>
+      <c r="V102" s="20"/>
       <c r="W102" s="5">
         <v>125</v>
       </c>
-      <c r="X102" s="17"/>
+      <c r="X102" s="22"/>
     </row>
     <row r="103" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="16"/>
+      <c r="B103" s="20"/>
       <c r="C103" s="5">
         <v>109</v>
       </c>
-      <c r="D103" s="17"/>
-      <c r="F103" s="16"/>
+      <c r="D103" s="22"/>
+      <c r="F103" s="20"/>
       <c r="G103" s="5">
         <v>110</v>
       </c>
-      <c r="H103" s="17"/>
-      <c r="J103" s="16"/>
+      <c r="H103" s="22"/>
+      <c r="J103" s="20"/>
       <c r="K103" s="5">
         <v>125</v>
       </c>
-      <c r="L103" s="17"/>
-      <c r="N103" s="16"/>
+      <c r="L103" s="22"/>
+      <c r="N103" s="20"/>
       <c r="O103" s="5">
         <v>110</v>
       </c>
-      <c r="P103" s="17"/>
-      <c r="R103" s="16"/>
+      <c r="P103" s="22"/>
+      <c r="R103" s="20"/>
       <c r="S103" s="5">
         <v>125</v>
       </c>
-      <c r="T103" s="17"/>
-      <c r="V103" s="16"/>
+      <c r="T103" s="22"/>
+      <c r="V103" s="20"/>
       <c r="W103" s="5">
         <v>125</v>
       </c>
-      <c r="X103" s="17"/>
+      <c r="X103" s="22"/>
     </row>
     <row r="104" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="16"/>
+      <c r="B104" s="20"/>
       <c r="C104" s="5">
         <v>125</v>
       </c>
-      <c r="D104" s="17"/>
-      <c r="F104" s="16"/>
+      <c r="D104" s="22"/>
+      <c r="F104" s="20"/>
       <c r="G104" s="5">
-        <v>140297</v>
-      </c>
-      <c r="H104" s="17"/>
-      <c r="J104" s="16"/>
+        <v>140</v>
+      </c>
+      <c r="H104" s="22"/>
+      <c r="J104" s="20"/>
       <c r="K104" s="5">
         <v>141</v>
       </c>
-      <c r="L104" s="17"/>
-      <c r="N104" s="16"/>
+      <c r="L104" s="22"/>
+      <c r="N104" s="20"/>
       <c r="O104" s="5">
         <v>125</v>
       </c>
-      <c r="P104" s="17"/>
-      <c r="R104" s="16"/>
+      <c r="P104" s="22"/>
+      <c r="R104" s="20"/>
       <c r="S104" s="5">
         <v>141</v>
       </c>
-      <c r="T104" s="17"/>
-      <c r="V104" s="16"/>
+      <c r="T104" s="22"/>
+      <c r="V104" s="20"/>
       <c r="W104" s="5">
         <v>125</v>
       </c>
-      <c r="X104" s="17"/>
+      <c r="X104" s="22"/>
     </row>
     <row r="105" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="12">
@@ -4672,36 +8108,36 @@
       <c r="X108" s="15"/>
     </row>
     <row r="110" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C110" s="19"/>
-      <c r="D110" s="20"/>
-      <c r="F110" s="18" t="s">
+      <c r="C110" s="17"/>
+      <c r="D110" s="18"/>
+      <c r="F110" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G110" s="19"/>
-      <c r="H110" s="20"/>
-      <c r="J110" s="18" t="s">
+      <c r="G110" s="17"/>
+      <c r="H110" s="18"/>
+      <c r="J110" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="K110" s="19"/>
-      <c r="L110" s="20"/>
-      <c r="N110" s="18" t="s">
+      <c r="K110" s="17"/>
+      <c r="L110" s="18"/>
+      <c r="N110" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="O110" s="19"/>
-      <c r="P110" s="20"/>
-      <c r="R110" s="18" t="s">
+      <c r="O110" s="17"/>
+      <c r="P110" s="18"/>
+      <c r="R110" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="S110" s="19"/>
-      <c r="T110" s="20"/>
-      <c r="V110" s="18" t="s">
+      <c r="S110" s="17"/>
+      <c r="T110" s="18"/>
+      <c r="V110" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="W110" s="19"/>
-      <c r="X110" s="20"/>
+      <c r="W110" s="17"/>
+      <c r="X110" s="18"/>
     </row>
     <row r="111" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="2" t="s">
@@ -4816,258 +8252,258 @@
       </c>
     </row>
     <row r="113" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="21">
+      <c r="B113" s="19">
         <v>4</v>
       </c>
       <c r="C113" s="6">
         <v>0</v>
       </c>
-      <c r="D113" s="22">
+      <c r="D113" s="21">
         <f>SUM(C113:C119)/7</f>
         <v>13.428571428571429</v>
       </c>
-      <c r="F113" s="21">
+      <c r="F113" s="19">
         <v>4</v>
       </c>
       <c r="G113" s="6">
         <v>15</v>
       </c>
-      <c r="H113" s="22">
+      <c r="H113" s="21">
         <f>SUM(G113:G119)/7</f>
         <v>13.428571428571429</v>
       </c>
-      <c r="J113" s="21">
+      <c r="J113" s="19">
         <v>4</v>
       </c>
       <c r="K113" s="6">
         <v>0</v>
       </c>
-      <c r="L113" s="22">
+      <c r="L113" s="21">
         <f>SUM(K113:K119)/7</f>
         <v>13.285714285714286</v>
       </c>
-      <c r="N113" s="21">
+      <c r="N113" s="19">
         <v>4</v>
       </c>
       <c r="O113" s="6">
         <v>16</v>
       </c>
-      <c r="P113" s="22">
+      <c r="P113" s="21">
         <f>SUM(O113:O119)/7</f>
         <v>13.428571428571429</v>
       </c>
-      <c r="R113" s="21">
+      <c r="R113" s="19">
         <v>4</v>
       </c>
       <c r="S113" s="6">
         <v>15</v>
       </c>
-      <c r="T113" s="22">
+      <c r="T113" s="21">
         <f>SUM(S113:S119)/7</f>
         <v>17.857142857142858</v>
       </c>
-      <c r="V113" s="21">
+      <c r="V113" s="19">
         <v>4</v>
       </c>
       <c r="W113" s="6">
         <v>15</v>
       </c>
-      <c r="X113" s="22">
+      <c r="X113" s="21">
         <f>SUM(W113:W119)/7</f>
         <v>20</v>
       </c>
     </row>
     <row r="114" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="16"/>
+      <c r="B114" s="20"/>
       <c r="C114" s="5">
         <v>15</v>
       </c>
-      <c r="D114" s="17"/>
-      <c r="F114" s="16"/>
+      <c r="D114" s="22"/>
+      <c r="F114" s="20"/>
       <c r="G114" s="5">
         <v>16</v>
       </c>
-      <c r="H114" s="17"/>
-      <c r="J114" s="16"/>
+      <c r="H114" s="22"/>
+      <c r="J114" s="20"/>
       <c r="K114" s="5">
         <v>15</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="N114" s="16"/>
+      <c r="L114" s="22"/>
+      <c r="N114" s="20"/>
       <c r="O114" s="5">
         <v>0</v>
       </c>
-      <c r="P114" s="17"/>
-      <c r="R114" s="16"/>
+      <c r="P114" s="22"/>
+      <c r="R114" s="20"/>
       <c r="S114" s="5">
         <v>16</v>
       </c>
-      <c r="T114" s="17"/>
-      <c r="V114" s="16"/>
+      <c r="T114" s="22"/>
+      <c r="V114" s="20"/>
       <c r="W114" s="5">
         <v>32</v>
       </c>
-      <c r="X114" s="17"/>
+      <c r="X114" s="22"/>
     </row>
     <row r="115" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="16"/>
+      <c r="B115" s="20"/>
       <c r="C115" s="5">
         <v>16</v>
       </c>
-      <c r="D115" s="17"/>
-      <c r="F115" s="16"/>
+      <c r="D115" s="22"/>
+      <c r="F115" s="20"/>
       <c r="G115" s="5">
         <v>16</v>
       </c>
-      <c r="H115" s="17"/>
-      <c r="J115" s="16"/>
+      <c r="H115" s="22"/>
+      <c r="J115" s="20"/>
       <c r="K115" s="5">
         <v>16</v>
       </c>
-      <c r="L115" s="17"/>
-      <c r="N115" s="16"/>
+      <c r="L115" s="22"/>
+      <c r="N115" s="20"/>
       <c r="O115" s="5">
         <v>16</v>
       </c>
-      <c r="P115" s="17"/>
-      <c r="R115" s="16"/>
+      <c r="P115" s="22"/>
+      <c r="R115" s="20"/>
       <c r="S115" s="5">
         <v>16</v>
       </c>
-      <c r="T115" s="17"/>
-      <c r="V115" s="16"/>
+      <c r="T115" s="22"/>
+      <c r="V115" s="20"/>
       <c r="W115" s="5">
         <v>15</v>
       </c>
-      <c r="X115" s="17"/>
+      <c r="X115" s="22"/>
     </row>
     <row r="116" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="16"/>
+      <c r="B116" s="20"/>
       <c r="C116" s="5">
         <v>16</v>
       </c>
-      <c r="D116" s="17"/>
-      <c r="F116" s="16"/>
+      <c r="D116" s="22"/>
+      <c r="F116" s="20"/>
       <c r="G116" s="5">
         <v>15</v>
       </c>
-      <c r="H116" s="17"/>
-      <c r="J116" s="16"/>
+      <c r="H116" s="22"/>
+      <c r="J116" s="20"/>
       <c r="K116" s="5">
         <v>15</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="N116" s="16"/>
+      <c r="L116" s="22"/>
+      <c r="N116" s="20"/>
       <c r="O116" s="5">
         <v>15</v>
       </c>
-      <c r="P116" s="17"/>
-      <c r="R116" s="16"/>
+      <c r="P116" s="22"/>
+      <c r="R116" s="20"/>
       <c r="S116" s="5">
         <v>15</v>
       </c>
-      <c r="T116" s="17"/>
-      <c r="V116" s="16"/>
+      <c r="T116" s="22"/>
+      <c r="V116" s="20"/>
       <c r="W116" s="5">
         <v>16</v>
       </c>
-      <c r="X116" s="17"/>
+      <c r="X116" s="22"/>
     </row>
     <row r="117" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="16"/>
+      <c r="B117" s="20"/>
       <c r="C117" s="5">
         <v>15</v>
       </c>
-      <c r="D117" s="17"/>
-      <c r="F117" s="16"/>
+      <c r="D117" s="22"/>
+      <c r="F117" s="20"/>
       <c r="G117" s="5">
         <v>0</v>
       </c>
-      <c r="H117" s="17"/>
-      <c r="J117" s="16"/>
+      <c r="H117" s="22"/>
+      <c r="J117" s="20"/>
       <c r="K117" s="5">
         <v>32</v>
       </c>
-      <c r="L117" s="17"/>
-      <c r="N117" s="16"/>
+      <c r="L117" s="22"/>
+      <c r="N117" s="20"/>
       <c r="O117" s="5">
         <v>16</v>
       </c>
-      <c r="P117" s="17"/>
-      <c r="R117" s="16"/>
+      <c r="P117" s="22"/>
+      <c r="R117" s="20"/>
       <c r="S117" s="5">
         <v>16</v>
       </c>
-      <c r="T117" s="17"/>
-      <c r="V117" s="16"/>
+      <c r="T117" s="22"/>
+      <c r="V117" s="20"/>
       <c r="W117" s="5">
         <v>31</v>
       </c>
-      <c r="X117" s="17"/>
+      <c r="X117" s="22"/>
     </row>
     <row r="118" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="16"/>
+      <c r="B118" s="20"/>
       <c r="C118" s="5">
         <v>16</v>
       </c>
-      <c r="D118" s="17"/>
-      <c r="F118" s="16"/>
+      <c r="D118" s="22"/>
+      <c r="F118" s="20"/>
       <c r="G118" s="5">
         <v>16</v>
       </c>
-      <c r="H118" s="17"/>
-      <c r="J118" s="16"/>
+      <c r="H118" s="22"/>
+      <c r="J118" s="20"/>
       <c r="K118" s="5">
         <v>15</v>
       </c>
-      <c r="L118" s="17"/>
-      <c r="N118" s="16"/>
+      <c r="L118" s="22"/>
+      <c r="N118" s="20"/>
       <c r="O118" s="5">
         <v>16</v>
       </c>
-      <c r="P118" s="17"/>
-      <c r="R118" s="16"/>
+      <c r="P118" s="22"/>
+      <c r="R118" s="20"/>
       <c r="S118" s="5">
         <v>15</v>
       </c>
-      <c r="T118" s="17"/>
-      <c r="V118" s="16"/>
+      <c r="T118" s="22"/>
+      <c r="V118" s="20"/>
       <c r="W118" s="5">
         <v>16</v>
       </c>
-      <c r="X118" s="17"/>
+      <c r="X118" s="22"/>
     </row>
     <row r="119" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="16"/>
+      <c r="B119" s="20"/>
       <c r="C119" s="5">
         <v>16</v>
       </c>
-      <c r="D119" s="17"/>
-      <c r="F119" s="16"/>
+      <c r="D119" s="22"/>
+      <c r="F119" s="20"/>
       <c r="G119" s="5">
         <v>16</v>
       </c>
-      <c r="H119" s="17"/>
-      <c r="J119" s="16"/>
+      <c r="H119" s="22"/>
+      <c r="J119" s="20"/>
       <c r="K119" s="5">
         <v>0</v>
       </c>
-      <c r="L119" s="17"/>
-      <c r="N119" s="16"/>
+      <c r="L119" s="22"/>
+      <c r="N119" s="20"/>
       <c r="O119" s="5">
         <v>15</v>
       </c>
-      <c r="P119" s="17"/>
-      <c r="R119" s="16"/>
+      <c r="P119" s="22"/>
+      <c r="R119" s="20"/>
       <c r="S119" s="5">
         <v>32</v>
       </c>
-      <c r="T119" s="17"/>
-      <c r="V119" s="16"/>
+      <c r="T119" s="22"/>
+      <c r="V119" s="20"/>
       <c r="W119" s="5">
         <v>15</v>
       </c>
-      <c r="X119" s="17"/>
+      <c r="X119" s="22"/>
     </row>
     <row r="120" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="12">
@@ -5324,194 +8760,194 @@
       <c r="X126" s="14"/>
     </row>
     <row r="127" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="16">
+      <c r="B127" s="20">
         <v>6</v>
       </c>
       <c r="C127" s="5">
         <v>109</v>
       </c>
-      <c r="D127" s="17">
+      <c r="D127" s="22">
         <f>SUM(C127:C131)/5</f>
         <v>125</v>
       </c>
-      <c r="F127" s="16">
+      <c r="F127" s="20">
         <v>6</v>
       </c>
       <c r="G127" s="5">
         <v>141</v>
       </c>
-      <c r="H127" s="17">
+      <c r="H127" s="22">
         <f>SUM(G127:G131)/5</f>
         <v>131.4</v>
       </c>
-      <c r="J127" s="16">
+      <c r="J127" s="20">
         <v>6</v>
       </c>
       <c r="K127" s="5">
         <v>125</v>
       </c>
-      <c r="L127" s="17">
+      <c r="L127" s="22">
         <f>SUM(K127:K131)/5</f>
         <v>125</v>
       </c>
-      <c r="N127" s="16">
+      <c r="N127" s="20">
         <v>6</v>
       </c>
       <c r="O127" s="5">
         <v>125</v>
       </c>
-      <c r="P127" s="17">
+      <c r="P127" s="22">
         <f>SUM(O127:O131)/5</f>
         <v>134.4</v>
       </c>
-      <c r="R127" s="16">
+      <c r="R127" s="20">
         <v>6</v>
       </c>
       <c r="S127" s="5">
         <v>110</v>
       </c>
-      <c r="T127" s="17">
+      <c r="T127" s="22">
         <f>SUM(S127:S131)/5</f>
         <v>122</v>
       </c>
-      <c r="V127" s="16">
+      <c r="V127" s="20">
         <v>6</v>
       </c>
       <c r="W127" s="5">
         <v>125</v>
       </c>
-      <c r="X127" s="17">
+      <c r="X127" s="22">
         <f>SUM(W127:W131)/5</f>
         <v>122</v>
       </c>
     </row>
     <row r="128" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="16"/>
+      <c r="B128" s="20"/>
       <c r="C128" s="5">
         <v>110</v>
       </c>
-      <c r="D128" s="17"/>
-      <c r="F128" s="16"/>
+      <c r="D128" s="22"/>
+      <c r="F128" s="20"/>
       <c r="G128" s="5">
         <v>156</v>
       </c>
-      <c r="H128" s="17"/>
-      <c r="J128" s="16"/>
+      <c r="H128" s="22"/>
+      <c r="J128" s="20"/>
       <c r="K128" s="5">
         <v>109</v>
       </c>
-      <c r="L128" s="17"/>
-      <c r="N128" s="16"/>
+      <c r="L128" s="22"/>
+      <c r="N128" s="20"/>
       <c r="O128" s="5">
         <v>125</v>
       </c>
-      <c r="P128" s="17"/>
-      <c r="R128" s="16"/>
+      <c r="P128" s="22"/>
+      <c r="R128" s="20"/>
       <c r="S128" s="5">
         <v>125</v>
       </c>
-      <c r="T128" s="17"/>
-      <c r="V128" s="16"/>
+      <c r="T128" s="22"/>
+      <c r="V128" s="20"/>
       <c r="W128" s="5">
         <v>110</v>
       </c>
-      <c r="X128" s="17"/>
+      <c r="X128" s="22"/>
     </row>
     <row r="129" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="16"/>
+      <c r="B129" s="20"/>
       <c r="C129" s="5">
         <v>109</v>
       </c>
-      <c r="D129" s="17"/>
-      <c r="F129" s="16"/>
+      <c r="D129" s="22"/>
+      <c r="F129" s="20"/>
       <c r="G129" s="5">
         <v>125</v>
       </c>
-      <c r="H129" s="17"/>
-      <c r="J129" s="16"/>
+      <c r="H129" s="22"/>
+      <c r="J129" s="20"/>
       <c r="K129" s="5">
         <v>125</v>
       </c>
-      <c r="L129" s="17"/>
-      <c r="N129" s="16"/>
+      <c r="L129" s="22"/>
+      <c r="N129" s="20"/>
       <c r="O129" s="5">
         <v>125</v>
       </c>
-      <c r="P129" s="17"/>
-      <c r="R129" s="16"/>
+      <c r="P129" s="22"/>
+      <c r="R129" s="20"/>
       <c r="S129" s="5">
         <v>125</v>
       </c>
-      <c r="T129" s="17"/>
-      <c r="V129" s="16"/>
+      <c r="T129" s="22"/>
+      <c r="V129" s="20"/>
       <c r="W129" s="5">
         <v>125</v>
       </c>
-      <c r="X129" s="17"/>
+      <c r="X129" s="22"/>
     </row>
     <row r="130" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="16"/>
+      <c r="B130" s="20"/>
       <c r="C130" s="5">
         <v>141</v>
       </c>
-      <c r="D130" s="17"/>
-      <c r="F130" s="16"/>
+      <c r="D130" s="22"/>
+      <c r="F130" s="20"/>
       <c r="G130" s="5">
         <v>110</v>
       </c>
-      <c r="H130" s="17"/>
-      <c r="J130" s="16"/>
+      <c r="H130" s="22"/>
+      <c r="J130" s="20"/>
       <c r="K130" s="5">
         <v>125</v>
       </c>
-      <c r="L130" s="17"/>
-      <c r="N130" s="16"/>
+      <c r="L130" s="22"/>
+      <c r="N130" s="20"/>
       <c r="O130" s="5">
         <v>125</v>
       </c>
-      <c r="P130" s="17"/>
-      <c r="R130" s="16"/>
+      <c r="P130" s="22"/>
+      <c r="R130" s="20"/>
       <c r="S130" s="5">
         <v>125</v>
       </c>
-      <c r="T130" s="17"/>
-      <c r="V130" s="16"/>
+      <c r="T130" s="22"/>
+      <c r="V130" s="20"/>
       <c r="W130" s="5">
         <v>125</v>
       </c>
-      <c r="X130" s="17"/>
+      <c r="X130" s="22"/>
     </row>
     <row r="131" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="16"/>
+      <c r="B131" s="20"/>
       <c r="C131" s="5">
         <v>156</v>
       </c>
-      <c r="D131" s="17"/>
-      <c r="F131" s="16"/>
+      <c r="D131" s="22"/>
+      <c r="F131" s="20"/>
       <c r="G131" s="5">
         <v>125</v>
       </c>
-      <c r="H131" s="17"/>
-      <c r="J131" s="16"/>
+      <c r="H131" s="22"/>
+      <c r="J131" s="20"/>
       <c r="K131" s="5">
         <v>141</v>
       </c>
-      <c r="L131" s="17"/>
-      <c r="N131" s="16"/>
+      <c r="L131" s="22"/>
+      <c r="N131" s="20"/>
       <c r="O131" s="5">
         <v>172</v>
       </c>
-      <c r="P131" s="17"/>
-      <c r="R131" s="16"/>
+      <c r="P131" s="22"/>
+      <c r="R131" s="20"/>
       <c r="S131" s="5">
         <v>125</v>
       </c>
-      <c r="T131" s="17"/>
-      <c r="V131" s="16"/>
+      <c r="T131" s="22"/>
+      <c r="V131" s="20"/>
       <c r="W131" s="5">
         <v>125</v>
       </c>
-      <c r="X131" s="17"/>
+      <c r="X131" s="22"/>
     </row>
     <row r="132" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="12">
@@ -5673,6 +9109,260 @@
     </row>
   </sheetData>
   <mergeCells count="270">
+    <mergeCell ref="N132:N135"/>
+    <mergeCell ref="P132:P135"/>
+    <mergeCell ref="R132:R135"/>
+    <mergeCell ref="T132:T135"/>
+    <mergeCell ref="V132:V135"/>
+    <mergeCell ref="X132:X135"/>
+    <mergeCell ref="N127:N131"/>
+    <mergeCell ref="P127:P131"/>
+    <mergeCell ref="R127:R131"/>
+    <mergeCell ref="T127:T131"/>
+    <mergeCell ref="V127:V131"/>
+    <mergeCell ref="X127:X131"/>
+    <mergeCell ref="N120:N126"/>
+    <mergeCell ref="P120:P126"/>
+    <mergeCell ref="R120:R126"/>
+    <mergeCell ref="T120:T126"/>
+    <mergeCell ref="V120:V126"/>
+    <mergeCell ref="X120:X126"/>
+    <mergeCell ref="N110:P110"/>
+    <mergeCell ref="R110:T110"/>
+    <mergeCell ref="V110:X110"/>
+    <mergeCell ref="N113:N119"/>
+    <mergeCell ref="P113:P119"/>
+    <mergeCell ref="R113:R119"/>
+    <mergeCell ref="T113:T119"/>
+    <mergeCell ref="V113:V119"/>
+    <mergeCell ref="X113:X119"/>
+    <mergeCell ref="N105:N108"/>
+    <mergeCell ref="P105:P108"/>
+    <mergeCell ref="R105:R108"/>
+    <mergeCell ref="T105:T108"/>
+    <mergeCell ref="V105:V108"/>
+    <mergeCell ref="X105:X108"/>
+    <mergeCell ref="N100:N104"/>
+    <mergeCell ref="P100:P104"/>
+    <mergeCell ref="R100:R104"/>
+    <mergeCell ref="T100:T104"/>
+    <mergeCell ref="V100:V104"/>
+    <mergeCell ref="X100:X104"/>
+    <mergeCell ref="N93:N99"/>
+    <mergeCell ref="P93:P99"/>
+    <mergeCell ref="R93:R99"/>
+    <mergeCell ref="T93:T99"/>
+    <mergeCell ref="V93:V99"/>
+    <mergeCell ref="X93:X99"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="R83:T83"/>
+    <mergeCell ref="V83:X83"/>
+    <mergeCell ref="N86:N92"/>
+    <mergeCell ref="P86:P92"/>
+    <mergeCell ref="R86:R92"/>
+    <mergeCell ref="T86:T92"/>
+    <mergeCell ref="V86:V92"/>
+    <mergeCell ref="X86:X92"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="P78:P81"/>
+    <mergeCell ref="R78:R81"/>
+    <mergeCell ref="T78:T81"/>
+    <mergeCell ref="V78:V81"/>
+    <mergeCell ref="X78:X81"/>
+    <mergeCell ref="N73:N77"/>
+    <mergeCell ref="P73:P77"/>
+    <mergeCell ref="R73:R77"/>
+    <mergeCell ref="T73:T77"/>
+    <mergeCell ref="V73:V77"/>
+    <mergeCell ref="X73:X77"/>
+    <mergeCell ref="N66:N72"/>
+    <mergeCell ref="P66:P72"/>
+    <mergeCell ref="R66:R72"/>
+    <mergeCell ref="T66:T72"/>
+    <mergeCell ref="V66:V72"/>
+    <mergeCell ref="X66:X72"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="R56:T56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="N59:N65"/>
+    <mergeCell ref="P59:P65"/>
+    <mergeCell ref="R59:R65"/>
+    <mergeCell ref="T59:T65"/>
+    <mergeCell ref="V59:V65"/>
+    <mergeCell ref="X59:X65"/>
+    <mergeCell ref="N51:N54"/>
+    <mergeCell ref="P51:P54"/>
+    <mergeCell ref="R51:R54"/>
+    <mergeCell ref="T51:T54"/>
+    <mergeCell ref="V51:V54"/>
+    <mergeCell ref="X51:X54"/>
+    <mergeCell ref="N46:N50"/>
+    <mergeCell ref="P46:P50"/>
+    <mergeCell ref="R46:R50"/>
+    <mergeCell ref="T46:T50"/>
+    <mergeCell ref="V46:V50"/>
+    <mergeCell ref="X46:X50"/>
+    <mergeCell ref="N39:N45"/>
+    <mergeCell ref="P39:P45"/>
+    <mergeCell ref="R39:R45"/>
+    <mergeCell ref="T39:T45"/>
+    <mergeCell ref="V39:V45"/>
+    <mergeCell ref="X39:X45"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="N32:N38"/>
+    <mergeCell ref="P32:P38"/>
+    <mergeCell ref="R32:R38"/>
+    <mergeCell ref="T32:T38"/>
+    <mergeCell ref="V32:V38"/>
+    <mergeCell ref="X32:X38"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="T24:T27"/>
+    <mergeCell ref="V24:V27"/>
+    <mergeCell ref="X24:X27"/>
+    <mergeCell ref="N19:N23"/>
+    <mergeCell ref="P19:P23"/>
+    <mergeCell ref="R19:R23"/>
+    <mergeCell ref="T19:T23"/>
+    <mergeCell ref="V19:V23"/>
+    <mergeCell ref="X19:X23"/>
+    <mergeCell ref="N12:N18"/>
+    <mergeCell ref="P12:P18"/>
+    <mergeCell ref="R12:R18"/>
+    <mergeCell ref="T12:T18"/>
+    <mergeCell ref="V12:V18"/>
+    <mergeCell ref="X12:X18"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="N5:N11"/>
+    <mergeCell ref="P5:P11"/>
+    <mergeCell ref="R5:R11"/>
+    <mergeCell ref="T5:T11"/>
+    <mergeCell ref="V5:V11"/>
+    <mergeCell ref="X5:X11"/>
+    <mergeCell ref="B132:B135"/>
+    <mergeCell ref="D132:D135"/>
+    <mergeCell ref="F132:F135"/>
+    <mergeCell ref="H132:H135"/>
+    <mergeCell ref="J132:J135"/>
+    <mergeCell ref="L132:L135"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="D127:D131"/>
+    <mergeCell ref="F127:F131"/>
+    <mergeCell ref="H127:H131"/>
+    <mergeCell ref="J127:J131"/>
+    <mergeCell ref="L127:L131"/>
+    <mergeCell ref="B120:B126"/>
+    <mergeCell ref="D120:D126"/>
+    <mergeCell ref="F120:F126"/>
+    <mergeCell ref="H120:H126"/>
+    <mergeCell ref="J120:J126"/>
+    <mergeCell ref="L120:L126"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="J110:L110"/>
+    <mergeCell ref="B113:B119"/>
+    <mergeCell ref="D113:D119"/>
+    <mergeCell ref="F113:F119"/>
+    <mergeCell ref="H113:H119"/>
+    <mergeCell ref="J113:J119"/>
+    <mergeCell ref="L113:L119"/>
+    <mergeCell ref="B105:B108"/>
+    <mergeCell ref="D105:D108"/>
+    <mergeCell ref="F105:F108"/>
+    <mergeCell ref="H105:H108"/>
+    <mergeCell ref="J105:J108"/>
+    <mergeCell ref="L105:L108"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="D100:D104"/>
+    <mergeCell ref="F100:F104"/>
+    <mergeCell ref="H100:H104"/>
+    <mergeCell ref="J100:J104"/>
+    <mergeCell ref="L100:L104"/>
+    <mergeCell ref="B93:B99"/>
+    <mergeCell ref="D93:D99"/>
+    <mergeCell ref="F93:F99"/>
+    <mergeCell ref="H93:H99"/>
+    <mergeCell ref="J93:J99"/>
+    <mergeCell ref="L93:L99"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="J83:L83"/>
+    <mergeCell ref="B86:B92"/>
+    <mergeCell ref="D86:D92"/>
+    <mergeCell ref="F86:F92"/>
+    <mergeCell ref="H86:H92"/>
+    <mergeCell ref="J86:J92"/>
+    <mergeCell ref="L86:L92"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="J78:J81"/>
+    <mergeCell ref="L78:L81"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="D73:D77"/>
+    <mergeCell ref="F73:F77"/>
+    <mergeCell ref="H73:H77"/>
+    <mergeCell ref="J73:J77"/>
+    <mergeCell ref="L73:L77"/>
+    <mergeCell ref="B66:B72"/>
+    <mergeCell ref="D66:D72"/>
+    <mergeCell ref="F66:F72"/>
+    <mergeCell ref="H66:H72"/>
+    <mergeCell ref="J66:J72"/>
+    <mergeCell ref="L66:L72"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="D59:D65"/>
+    <mergeCell ref="F59:F65"/>
+    <mergeCell ref="H59:H65"/>
+    <mergeCell ref="J59:J65"/>
+    <mergeCell ref="L59:L65"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="H51:H54"/>
+    <mergeCell ref="J51:J54"/>
+    <mergeCell ref="L51:L54"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="F46:F50"/>
+    <mergeCell ref="H46:H50"/>
+    <mergeCell ref="J46:J50"/>
+    <mergeCell ref="L46:L50"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="D39:D45"/>
+    <mergeCell ref="F39:F45"/>
+    <mergeCell ref="H39:H45"/>
+    <mergeCell ref="J39:J45"/>
+    <mergeCell ref="L39:L45"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="D32:D38"/>
+    <mergeCell ref="F32:F38"/>
+    <mergeCell ref="H32:H38"/>
+    <mergeCell ref="J32:J38"/>
+    <mergeCell ref="L32:L38"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J5:J11"/>
+    <mergeCell ref="L5:L11"/>
+    <mergeCell ref="J12:J18"/>
+    <mergeCell ref="L12:L18"/>
+    <mergeCell ref="J19:J23"/>
+    <mergeCell ref="L19:L23"/>
+    <mergeCell ref="J24:J27"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="D24:D27"/>
     <mergeCell ref="B2:D2"/>
@@ -5689,262 +9379,624 @@
     <mergeCell ref="D12:D18"/>
     <mergeCell ref="B19:B23"/>
     <mergeCell ref="D19:D23"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J5:J11"/>
-    <mergeCell ref="L5:L11"/>
-    <mergeCell ref="J12:J18"/>
-    <mergeCell ref="L12:L18"/>
-    <mergeCell ref="J19:J23"/>
-    <mergeCell ref="L19:L23"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="D39:D45"/>
-    <mergeCell ref="F39:F45"/>
-    <mergeCell ref="H39:H45"/>
-    <mergeCell ref="J39:J45"/>
-    <mergeCell ref="L39:L45"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="D32:D38"/>
-    <mergeCell ref="F32:F38"/>
-    <mergeCell ref="H32:H38"/>
-    <mergeCell ref="J32:J38"/>
-    <mergeCell ref="L32:L38"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="F51:F54"/>
-    <mergeCell ref="H51:H54"/>
-    <mergeCell ref="J51:J54"/>
-    <mergeCell ref="L51:L54"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="D46:D50"/>
-    <mergeCell ref="F46:F50"/>
-    <mergeCell ref="H46:H50"/>
-    <mergeCell ref="J46:J50"/>
-    <mergeCell ref="L46:L50"/>
-    <mergeCell ref="B66:B72"/>
-    <mergeCell ref="D66:D72"/>
-    <mergeCell ref="F66:F72"/>
-    <mergeCell ref="H66:H72"/>
-    <mergeCell ref="J66:J72"/>
-    <mergeCell ref="L66:L72"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="B59:B65"/>
-    <mergeCell ref="D59:D65"/>
-    <mergeCell ref="F59:F65"/>
-    <mergeCell ref="H59:H65"/>
-    <mergeCell ref="J59:J65"/>
-    <mergeCell ref="L59:L65"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="J78:J81"/>
-    <mergeCell ref="L78:L81"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="D73:D77"/>
-    <mergeCell ref="F73:F77"/>
-    <mergeCell ref="H73:H77"/>
-    <mergeCell ref="J73:J77"/>
-    <mergeCell ref="L73:L77"/>
-    <mergeCell ref="B93:B99"/>
-    <mergeCell ref="D93:D99"/>
-    <mergeCell ref="F93:F99"/>
-    <mergeCell ref="H93:H99"/>
-    <mergeCell ref="J93:J99"/>
-    <mergeCell ref="L93:L99"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="J83:L83"/>
-    <mergeCell ref="B86:B92"/>
-    <mergeCell ref="D86:D92"/>
-    <mergeCell ref="F86:F92"/>
-    <mergeCell ref="H86:H92"/>
-    <mergeCell ref="J86:J92"/>
-    <mergeCell ref="L86:L92"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="D105:D108"/>
-    <mergeCell ref="F105:F108"/>
-    <mergeCell ref="H105:H108"/>
-    <mergeCell ref="J105:J108"/>
-    <mergeCell ref="L105:L108"/>
-    <mergeCell ref="B100:B104"/>
-    <mergeCell ref="D100:D104"/>
-    <mergeCell ref="F100:F104"/>
-    <mergeCell ref="H100:H104"/>
-    <mergeCell ref="J100:J104"/>
-    <mergeCell ref="L100:L104"/>
-    <mergeCell ref="B120:B126"/>
-    <mergeCell ref="D120:D126"/>
-    <mergeCell ref="F120:F126"/>
-    <mergeCell ref="H120:H126"/>
-    <mergeCell ref="J120:J126"/>
-    <mergeCell ref="L120:L126"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="F110:H110"/>
-    <mergeCell ref="J110:L110"/>
-    <mergeCell ref="B113:B119"/>
-    <mergeCell ref="D113:D119"/>
-    <mergeCell ref="F113:F119"/>
-    <mergeCell ref="H113:H119"/>
-    <mergeCell ref="J113:J119"/>
-    <mergeCell ref="L113:L119"/>
-    <mergeCell ref="B132:B135"/>
-    <mergeCell ref="D132:D135"/>
-    <mergeCell ref="F132:F135"/>
-    <mergeCell ref="H132:H135"/>
-    <mergeCell ref="J132:J135"/>
-    <mergeCell ref="L132:L135"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="D127:D131"/>
-    <mergeCell ref="F127:F131"/>
-    <mergeCell ref="H127:H131"/>
-    <mergeCell ref="J127:J131"/>
-    <mergeCell ref="L127:L131"/>
-    <mergeCell ref="N12:N18"/>
-    <mergeCell ref="P12:P18"/>
-    <mergeCell ref="R12:R18"/>
-    <mergeCell ref="T12:T18"/>
-    <mergeCell ref="V12:V18"/>
-    <mergeCell ref="X12:X18"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="N5:N11"/>
-    <mergeCell ref="P5:P11"/>
-    <mergeCell ref="R5:R11"/>
-    <mergeCell ref="T5:T11"/>
-    <mergeCell ref="V5:V11"/>
-    <mergeCell ref="X5:X11"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="T24:T27"/>
-    <mergeCell ref="V24:V27"/>
-    <mergeCell ref="X24:X27"/>
-    <mergeCell ref="N19:N23"/>
-    <mergeCell ref="P19:P23"/>
-    <mergeCell ref="R19:R23"/>
-    <mergeCell ref="T19:T23"/>
-    <mergeCell ref="V19:V23"/>
-    <mergeCell ref="X19:X23"/>
-    <mergeCell ref="N39:N45"/>
-    <mergeCell ref="P39:P45"/>
-    <mergeCell ref="R39:R45"/>
-    <mergeCell ref="T39:T45"/>
-    <mergeCell ref="V39:V45"/>
-    <mergeCell ref="X39:X45"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="N32:N38"/>
-    <mergeCell ref="P32:P38"/>
-    <mergeCell ref="R32:R38"/>
-    <mergeCell ref="T32:T38"/>
-    <mergeCell ref="V32:V38"/>
-    <mergeCell ref="X32:X38"/>
-    <mergeCell ref="N51:N54"/>
-    <mergeCell ref="P51:P54"/>
-    <mergeCell ref="R51:R54"/>
-    <mergeCell ref="T51:T54"/>
-    <mergeCell ref="V51:V54"/>
-    <mergeCell ref="X51:X54"/>
-    <mergeCell ref="N46:N50"/>
-    <mergeCell ref="P46:P50"/>
-    <mergeCell ref="R46:R50"/>
-    <mergeCell ref="T46:T50"/>
-    <mergeCell ref="V46:V50"/>
-    <mergeCell ref="X46:X50"/>
-    <mergeCell ref="N66:N72"/>
-    <mergeCell ref="P66:P72"/>
-    <mergeCell ref="R66:R72"/>
-    <mergeCell ref="T66:T72"/>
-    <mergeCell ref="V66:V72"/>
-    <mergeCell ref="X66:X72"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="R56:T56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="N59:N65"/>
-    <mergeCell ref="P59:P65"/>
-    <mergeCell ref="R59:R65"/>
-    <mergeCell ref="T59:T65"/>
-    <mergeCell ref="V59:V65"/>
-    <mergeCell ref="X59:X65"/>
-    <mergeCell ref="N78:N81"/>
-    <mergeCell ref="P78:P81"/>
-    <mergeCell ref="R78:R81"/>
-    <mergeCell ref="T78:T81"/>
-    <mergeCell ref="V78:V81"/>
-    <mergeCell ref="X78:X81"/>
-    <mergeCell ref="N73:N77"/>
-    <mergeCell ref="P73:P77"/>
-    <mergeCell ref="R73:R77"/>
-    <mergeCell ref="T73:T77"/>
-    <mergeCell ref="V73:V77"/>
-    <mergeCell ref="X73:X77"/>
-    <mergeCell ref="N93:N99"/>
-    <mergeCell ref="P93:P99"/>
-    <mergeCell ref="R93:R99"/>
-    <mergeCell ref="T93:T99"/>
-    <mergeCell ref="V93:V99"/>
-    <mergeCell ref="X93:X99"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="R83:T83"/>
-    <mergeCell ref="V83:X83"/>
-    <mergeCell ref="N86:N92"/>
-    <mergeCell ref="P86:P92"/>
-    <mergeCell ref="R86:R92"/>
-    <mergeCell ref="T86:T92"/>
-    <mergeCell ref="V86:V92"/>
-    <mergeCell ref="X86:X92"/>
-    <mergeCell ref="N105:N108"/>
-    <mergeCell ref="P105:P108"/>
-    <mergeCell ref="R105:R108"/>
-    <mergeCell ref="T105:T108"/>
-    <mergeCell ref="V105:V108"/>
-    <mergeCell ref="X105:X108"/>
-    <mergeCell ref="N100:N104"/>
-    <mergeCell ref="P100:P104"/>
-    <mergeCell ref="R100:R104"/>
-    <mergeCell ref="T100:T104"/>
-    <mergeCell ref="V100:V104"/>
-    <mergeCell ref="X100:X104"/>
-    <mergeCell ref="N120:N126"/>
-    <mergeCell ref="P120:P126"/>
-    <mergeCell ref="R120:R126"/>
-    <mergeCell ref="T120:T126"/>
-    <mergeCell ref="V120:V126"/>
-    <mergeCell ref="X120:X126"/>
-    <mergeCell ref="N110:P110"/>
-    <mergeCell ref="R110:T110"/>
-    <mergeCell ref="V110:X110"/>
-    <mergeCell ref="N113:N119"/>
-    <mergeCell ref="P113:P119"/>
-    <mergeCell ref="R113:R119"/>
-    <mergeCell ref="T113:T119"/>
-    <mergeCell ref="V113:V119"/>
-    <mergeCell ref="X113:X119"/>
-    <mergeCell ref="N132:N135"/>
-    <mergeCell ref="P132:P135"/>
-    <mergeCell ref="R132:R135"/>
-    <mergeCell ref="T132:T135"/>
-    <mergeCell ref="V132:V135"/>
-    <mergeCell ref="X132:X135"/>
-    <mergeCell ref="N127:N131"/>
-    <mergeCell ref="P127:P131"/>
-    <mergeCell ref="R127:R131"/>
-    <mergeCell ref="T127:T131"/>
-    <mergeCell ref="V127:V131"/>
-    <mergeCell ref="X127:X131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF0B77F-6DCE-4264-AB89-6BB57A1E05F2}">
+  <dimension ref="B2:AF6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="23" customWidth="1"/>
+    <col min="3" max="16384" width="22.7109375" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD2" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE2" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF2" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="28">
+        <v>4</v>
+      </c>
+      <c r="C3" s="25">
+        <f>+'1'!$D5</f>
+        <v>13.428571428571429</v>
+      </c>
+      <c r="D3" s="26">
+        <f>+'1'!$H5</f>
+        <v>20.142857142857142</v>
+      </c>
+      <c r="E3" s="26">
+        <f>+'1'!$L5</f>
+        <v>13.428571428571429</v>
+      </c>
+      <c r="F3" s="26">
+        <f>+'1'!$P5</f>
+        <v>17.714285714285715</v>
+      </c>
+      <c r="G3" s="26">
+        <f>+'1'!$T5</f>
+        <v>17.857142857142858</v>
+      </c>
+      <c r="H3" s="27">
+        <f>+'1'!$X5</f>
+        <v>17.714285714285715</v>
+      </c>
+      <c r="I3" s="25">
+        <f>+'1'!$D32</f>
+        <v>13.428571428571429</v>
+      </c>
+      <c r="J3" s="26">
+        <f>+'1'!$H32</f>
+        <v>26.714285714285715</v>
+      </c>
+      <c r="K3" s="26">
+        <f>+'1'!$L32</f>
+        <v>20</v>
+      </c>
+      <c r="L3" s="26">
+        <f>+'1'!$P32</f>
+        <v>18</v>
+      </c>
+      <c r="M3" s="26">
+        <f>+'1'!$T32</f>
+        <v>15.714285714285714</v>
+      </c>
+      <c r="N3" s="27">
+        <f>+'1'!$X32</f>
+        <v>15.714285714285714</v>
+      </c>
+      <c r="O3" s="25">
+        <f>+'1'!$D59</f>
+        <v>11.142857142857142</v>
+      </c>
+      <c r="P3" s="26">
+        <f>+'1'!$H59</f>
+        <v>13.285714285714286</v>
+      </c>
+      <c r="Q3" s="26">
+        <f>+'1'!$L59</f>
+        <v>11.142857142857142</v>
+      </c>
+      <c r="R3" s="26">
+        <f>+'1'!$P59</f>
+        <v>9.7142857142857135</v>
+      </c>
+      <c r="S3" s="26">
+        <f>+'1'!$T59</f>
+        <v>15.571428571428571</v>
+      </c>
+      <c r="T3" s="27">
+        <f>+'1'!$X59</f>
+        <v>15.571428571428571</v>
+      </c>
+      <c r="U3" s="25">
+        <f>+'1'!$D86</f>
+        <v>15.714285714285714</v>
+      </c>
+      <c r="V3" s="26">
+        <f>+'1'!$H86</f>
+        <v>15.571428571428571</v>
+      </c>
+      <c r="W3" s="26">
+        <f>+'1'!$L86</f>
+        <v>13.428571428571429</v>
+      </c>
+      <c r="X3" s="26">
+        <f>+'1'!$P86</f>
+        <v>17.857142857142858</v>
+      </c>
+      <c r="Y3" s="26">
+        <f>+'1'!$T86</f>
+        <v>15.714285714285714</v>
+      </c>
+      <c r="Z3" s="27">
+        <f>+'1'!$X86</f>
+        <v>13.428571428571429</v>
+      </c>
+      <c r="AA3" s="25">
+        <f>+'1'!$D113</f>
+        <v>13.428571428571429</v>
+      </c>
+      <c r="AB3" s="26">
+        <f>+'1'!$H113</f>
+        <v>13.428571428571429</v>
+      </c>
+      <c r="AC3" s="26">
+        <f>+'1'!$L113</f>
+        <v>13.285714285714286</v>
+      </c>
+      <c r="AD3" s="26">
+        <f>+'1'!$P113</f>
+        <v>13.428571428571429</v>
+      </c>
+      <c r="AE3" s="26">
+        <f>+'1'!$T113</f>
+        <v>17.857142857142858</v>
+      </c>
+      <c r="AF3" s="27">
+        <f>+'1'!$X113</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="28">
+        <v>5</v>
+      </c>
+      <c r="C4" s="28">
+        <f>+'1'!$D12</f>
+        <v>44.571428571428569</v>
+      </c>
+      <c r="D4" s="29">
+        <f>+'1'!$H12</f>
+        <v>53.571428571428569</v>
+      </c>
+      <c r="E4" s="29">
+        <f>+'1'!$L12</f>
+        <v>46.857142857142854</v>
+      </c>
+      <c r="F4" s="29">
+        <f>+'1'!$P12</f>
+        <v>51.428571428571431</v>
+      </c>
+      <c r="G4" s="29">
+        <f>+'1'!$T12</f>
+        <v>53.571428571428569</v>
+      </c>
+      <c r="H4" s="30">
+        <f>+'1'!$X12</f>
+        <v>47</v>
+      </c>
+      <c r="I4" s="28">
+        <f>+'1'!$D39</f>
+        <v>60.142857142857146</v>
+      </c>
+      <c r="J4" s="29">
+        <f>+'1'!$H39</f>
+        <v>46.857142857142854</v>
+      </c>
+      <c r="K4" s="29">
+        <f>+'1'!$L39</f>
+        <v>58</v>
+      </c>
+      <c r="L4" s="29">
+        <f>+'1'!$P39</f>
+        <v>49.142857142857146</v>
+      </c>
+      <c r="M4" s="29">
+        <f>+'1'!$T39</f>
+        <v>49.142857142857146</v>
+      </c>
+      <c r="N4" s="30">
+        <f>+'1'!$X39</f>
+        <v>44.571428571428569</v>
+      </c>
+      <c r="O4" s="28">
+        <f>+'1'!$D66</f>
+        <v>51.428571428571431</v>
+      </c>
+      <c r="P4" s="29">
+        <f>+'1'!$H66</f>
+        <v>53.571428571428569</v>
+      </c>
+      <c r="Q4" s="29">
+        <f>+'1'!$L66</f>
+        <v>44.571428571428569</v>
+      </c>
+      <c r="R4" s="29">
+        <f>+'1'!$P66</f>
+        <v>46.857142857142854</v>
+      </c>
+      <c r="S4" s="29">
+        <f>+'1'!$T66</f>
+        <v>58.142857142857146</v>
+      </c>
+      <c r="T4" s="30">
+        <f>+'1'!$X66</f>
+        <v>49</v>
+      </c>
+      <c r="U4" s="28">
+        <f>+'1'!$D93</f>
+        <v>44.571428571428569</v>
+      </c>
+      <c r="V4" s="29">
+        <f>+'1'!$H93</f>
+        <v>49.142857142857146</v>
+      </c>
+      <c r="W4" s="29">
+        <f>+'1'!$L93</f>
+        <v>44.714285714285715</v>
+      </c>
+      <c r="X4" s="29">
+        <f>+'1'!$P93</f>
+        <v>44.571428571428569</v>
+      </c>
+      <c r="Y4" s="29">
+        <f>+'1'!$T93</f>
+        <v>46.857142857142854</v>
+      </c>
+      <c r="Z4" s="30">
+        <f>+'1'!$X93</f>
+        <v>46.857142857142854</v>
+      </c>
+      <c r="AA4" s="28">
+        <f>+'1'!$D120</f>
+        <v>44.571428571428569</v>
+      </c>
+      <c r="AB4" s="29">
+        <f>+'1'!$H120</f>
+        <v>49</v>
+      </c>
+      <c r="AC4" s="29">
+        <f>+'1'!$L120</f>
+        <v>47</v>
+      </c>
+      <c r="AD4" s="29">
+        <f>+'1'!$P120</f>
+        <v>44.714285714285715</v>
+      </c>
+      <c r="AE4" s="29">
+        <f>+'1'!$T120</f>
+        <v>44.571428571428569</v>
+      </c>
+      <c r="AF4" s="30">
+        <f>+'1'!$X120</f>
+        <v>42.428571428571431</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="28">
+        <v>6</v>
+      </c>
+      <c r="C5" s="28">
+        <f>+'1'!$D19</f>
+        <v>131.4</v>
+      </c>
+      <c r="D5" s="29">
+        <f>+'1'!$H19</f>
+        <v>128</v>
+      </c>
+      <c r="E5" s="29">
+        <f>+'1'!$L19</f>
+        <v>131.19999999999999</v>
+      </c>
+      <c r="F5" s="29">
+        <f>+'1'!$P19</f>
+        <v>140.6</v>
+      </c>
+      <c r="G5" s="29">
+        <f>+'1'!$T19</f>
+        <v>128.19999999999999</v>
+      </c>
+      <c r="H5" s="30">
+        <f>+'1'!$X19</f>
+        <v>150</v>
+      </c>
+      <c r="I5" s="28">
+        <f>+'1'!$D46</f>
+        <v>143.80000000000001</v>
+      </c>
+      <c r="J5" s="29">
+        <f>+'1'!$H46</f>
+        <v>131.19999999999999</v>
+      </c>
+      <c r="K5" s="29">
+        <f>+'1'!$L46</f>
+        <v>122</v>
+      </c>
+      <c r="L5" s="29">
+        <f>+'1'!$P46</f>
+        <v>128</v>
+      </c>
+      <c r="M5" s="29">
+        <f>+'1'!$T46</f>
+        <v>128</v>
+      </c>
+      <c r="N5" s="30">
+        <f>+'1'!$X46</f>
+        <v>134.4</v>
+      </c>
+      <c r="O5" s="28">
+        <f>+'1'!$D73</f>
+        <v>134.4</v>
+      </c>
+      <c r="P5" s="29">
+        <f>+'1'!$H73</f>
+        <v>131.4</v>
+      </c>
+      <c r="Q5" s="29">
+        <f>+'1'!$L73</f>
+        <v>131.4</v>
+      </c>
+      <c r="R5" s="29">
+        <f>+'1'!$P73</f>
+        <v>134.4</v>
+      </c>
+      <c r="S5" s="29">
+        <f>+'1'!$T73</f>
+        <v>121.8</v>
+      </c>
+      <c r="T5" s="30">
+        <f>+'1'!$X73</f>
+        <v>125</v>
+      </c>
+      <c r="U5" s="28">
+        <f>+'1'!$D100</f>
+        <v>118.8</v>
+      </c>
+      <c r="V5" s="29">
+        <f>+'1'!$H100</f>
+        <v>137.4</v>
+      </c>
+      <c r="W5" s="29">
+        <f>+'1'!$L100</f>
+        <v>131.19999999999999</v>
+      </c>
+      <c r="X5" s="29">
+        <f>+'1'!$P100</f>
+        <v>131.4</v>
+      </c>
+      <c r="Y5" s="29">
+        <f>+'1'!$T100</f>
+        <v>143.80000000000001</v>
+      </c>
+      <c r="Z5" s="30">
+        <f>+'1'!$X100</f>
+        <v>125</v>
+      </c>
+      <c r="AA5" s="28">
+        <f>+'1'!$D127</f>
+        <v>125</v>
+      </c>
+      <c r="AB5" s="29">
+        <f>+'1'!$H127</f>
+        <v>131.4</v>
+      </c>
+      <c r="AC5" s="29">
+        <f>+'1'!$L127</f>
+        <v>125</v>
+      </c>
+      <c r="AD5" s="29">
+        <f>+'1'!$P127</f>
+        <v>134.4</v>
+      </c>
+      <c r="AE5" s="29">
+        <f>+'1'!$T127</f>
+        <v>122</v>
+      </c>
+      <c r="AF5" s="30">
+        <f>+'1'!$X127</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="31">
+        <v>7</v>
+      </c>
+      <c r="C6" s="31">
+        <f>+'1'!$D24</f>
+        <v>296.75</v>
+      </c>
+      <c r="D6" s="32">
+        <f>+'1'!$H24</f>
+        <v>304.75</v>
+      </c>
+      <c r="E6" s="32">
+        <f>+'1'!$L24</f>
+        <v>347.75</v>
+      </c>
+      <c r="F6" s="32">
+        <f>+'1'!$P24</f>
+        <v>359.25</v>
+      </c>
+      <c r="G6" s="32">
+        <f>+'1'!$T24</f>
+        <v>343.75</v>
+      </c>
+      <c r="H6" s="33">
+        <f>+'1'!$X24</f>
+        <v>320.25</v>
+      </c>
+      <c r="I6" s="31">
+        <f>+'1'!$D51</f>
+        <v>336</v>
+      </c>
+      <c r="J6" s="32">
+        <f>+'1'!$H51</f>
+        <v>301</v>
+      </c>
+      <c r="K6" s="32">
+        <f>+'1'!$L51</f>
+        <v>277.25</v>
+      </c>
+      <c r="L6" s="32">
+        <f>+'1'!$P51</f>
+        <v>289</v>
+      </c>
+      <c r="M6" s="32">
+        <f>+'1'!$T51</f>
+        <v>308.5</v>
+      </c>
+      <c r="N6" s="33">
+        <f>+'1'!$X51</f>
+        <v>308.5</v>
+      </c>
+      <c r="O6" s="31">
+        <f>+'1'!$D78</f>
+        <v>308.5</v>
+      </c>
+      <c r="P6" s="32">
+        <f>+'1'!$H78</f>
+        <v>308.5</v>
+      </c>
+      <c r="Q6" s="32">
+        <f>+'1'!$L78</f>
+        <v>296.75</v>
+      </c>
+      <c r="R6" s="32">
+        <f>+'1'!$P78</f>
+        <v>285</v>
+      </c>
+      <c r="S6" s="32">
+        <f>+'1'!$T78</f>
+        <v>285.25</v>
+      </c>
+      <c r="T6" s="33">
+        <f>+'1'!$X78</f>
+        <v>293</v>
+      </c>
+      <c r="U6" s="31">
+        <f>+'1'!$D105</f>
+        <v>281.25</v>
+      </c>
+      <c r="V6" s="32">
+        <f>+'1'!$H105</f>
+        <v>300.75</v>
+      </c>
+      <c r="W6" s="32">
+        <f>+'1'!$L105</f>
+        <v>312.5</v>
+      </c>
+      <c r="X6" s="32">
+        <f>+'1'!$P105</f>
+        <v>300.5</v>
+      </c>
+      <c r="Y6" s="32">
+        <f>+'1'!$T105</f>
+        <v>304.5</v>
+      </c>
+      <c r="Z6" s="33">
+        <f>+'1'!$X105</f>
+        <v>312.5</v>
+      </c>
+      <c r="AA6" s="31">
+        <f>+'1'!$D132</f>
+        <v>300.75</v>
+      </c>
+      <c r="AB6" s="32">
+        <f>+'1'!$H132</f>
+        <v>304.5</v>
+      </c>
+      <c r="AC6" s="32">
+        <f>+'1'!$L132</f>
+        <v>304.5</v>
+      </c>
+      <c r="AD6" s="32">
+        <f>+'1'!$P132</f>
+        <v>300.75</v>
+      </c>
+      <c r="AE6" s="32">
+        <f>+'1'!$T132</f>
+        <v>300.75</v>
+      </c>
+      <c r="AF6" s="33">
+        <f>+'1'!$X132</f>
+        <v>289</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/plog-proj2/docs/statistics.xlsx
+++ b/plog-proj2/docs/statistics.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\plog_talpa_2\plog-proj2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7FA75D-DC47-4D79-AD64-0E2F6181299B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA873E69-D563-4F09-9BF8-C4B2DAB120DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="2" r:id="rId2"/>
+    <sheet name="3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3'!$B$2:$AF$6</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="48">
   <si>
     <t>Options</t>
   </si>
@@ -168,6 +172,18 @@
   <si>
     <t>max, down, bisect</t>
   </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
 </sst>
 </file>
 
@@ -194,7 +210,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +232,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -448,6 +470,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -460,63 +488,165 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3225,6 +3355,2649 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Experiment Results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>leftmost, down, step</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>359.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4BCD-40D9-A429-83AFF4992232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>leftmost, up, bisect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$10:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>347.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4BCD-40D9-A429-83AFF4992232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>leftmost, down, enum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$11:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17.857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>343.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4BCD-40D9-A429-83AFF4992232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ff, up, step</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$12:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>143.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4BCD-40D9-A429-83AFF4992232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>leftmost, down, bisect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$13:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>320.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4BCD-40D9-A429-83AFF4992232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min, up, bisect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$14:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>312.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4BCD-40D9-A429-83AFF4992232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min, down, bisect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$15:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>312.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4BCD-40D9-A429-83AFF4992232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ff, down, enum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$16:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>308.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4BCD-40D9-A429-83AFF4992232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ff, down, bisect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$17:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>308.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-4BCD-40D9-A429-83AFF4992232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ffc, up, step</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$18:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>308.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-4BCD-40D9-A429-83AFF4992232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ffc, up, enum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$19:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>308.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-4BCD-40D9-A429-83AFF4992232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>leftmost, up, enum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$20:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20.142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>304.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-4BCD-40D9-A429-83AFF4992232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min, down, enum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$21:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>143.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>304.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-4BCD-40D9-A429-83AFF4992232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max, up, enum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$22:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>304.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-4BCD-40D9-A429-83AFF4992232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max, up, bisect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$23:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>304.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-4BCD-40D9-A429-83AFF4992232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ff, up, enum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$24:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>26.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-4BCD-40D9-A429-83AFF4992232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min, up, enum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>137.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-4BCD-40D9-A429-83AFF4992232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max, up, step</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$26:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-4BCD-40D9-A429-83AFF4992232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max, down, step</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$27:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-4BCD-40D9-A429-83AFF4992232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max, down, enum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$28:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17.857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-4BCD-40D9-A429-83AFF4992232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min, down, step</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$29:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17.857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-4BCD-40D9-A429-83AFF4992232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>leftmost, up, step</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$30:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>296.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-4BCD-40D9-A429-83AFF4992232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ffc, up, bisect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$31:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>296.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-4BCD-40D9-A429-83AFF4992232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="23"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ffc, down, bisect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$32:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>293</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-4BCD-40D9-A429-83AFF4992232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="24"/>
+          <c:order val="24"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ff, down, step</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$33:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-4BCD-40D9-A429-83AFF4992232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="25"/>
+          <c:order val="25"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max, down, bisect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$34:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-4BCD-40D9-A429-83AFF4992232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="26"/>
+          <c:order val="26"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ffc, down, enum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$35:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>285.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-4BCD-40D9-A429-83AFF4992232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="27"/>
+          <c:order val="27"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ffc, down, step</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$36:$F$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.7142857142857135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-4BCD-40D9-A429-83AFF4992232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="28"/>
+          <c:order val="28"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min, up, step</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$37:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>281.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001C-4BCD-40D9-A429-83AFF4992232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="29"/>
+          <c:order val="29"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ff, up, bisect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$C$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$C$38:$F$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>277.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001D-4BCD-40D9-A429-83AFF4992232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="703868344"/>
+        <c:axId val="703867688"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="703868344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Dimensions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="703867688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="703867688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Exedcution Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="703868344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.87662631205364405"/>
+          <c:y val="6.5212335771277594E-2"/>
+          <c:w val="0.11707860623916949"/>
+          <c:h val="0.88547040933037924"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3265,7 +6038,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3822,6 +7151,64 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>598488</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E8EB6E-EAC1-4A61-A314-DB26D4A7E000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3E125D5-6CEC-4EF3-9EA4-2B4EE051F1BF}" name="Tabela2" displayName="Tabela2" ref="B8:F38" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="7" tableBorderDxfId="8">
+  <autoFilter ref="B8:F38" xr:uid="{2E59528C-7DFE-4F57-ADD6-1904EDD4863C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:F38">
+    <sortCondition descending="1" ref="F8:F38"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{CF001584-5DA3-4CBC-B261-810BA90C7419}" name="Dimensions" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{1BFFD3A7-5E64-4E43-ADA6-3A0F5F76B950}" name="4" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{56F7C77F-83B1-454F-9C1F-A327827F52C3}" name="5" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{70B36CAF-3323-4C36-9C2E-A198CFD9C4A5}" name="6" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{8F6FB855-92A8-429A-9C82-05B225497ACA}" name="7" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4108,36 +7495,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="F2" s="16" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="F2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="J2" s="16" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="J2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="18"/>
-      <c r="N2" s="16" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
+      <c r="N2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="18"/>
-      <c r="R2" s="16" t="s">
+      <c r="O2" s="19"/>
+      <c r="P2" s="20"/>
+      <c r="R2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="17"/>
-      <c r="T2" s="18"/>
-      <c r="V2" s="16" t="s">
+      <c r="S2" s="19"/>
+      <c r="T2" s="20"/>
+      <c r="V2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="17"/>
-      <c r="X2" s="18"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -4252,258 +7639,258 @@
       </c>
     </row>
     <row r="5" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="19">
+      <c r="B5" s="21">
         <v>4</v>
       </c>
       <c r="C5" s="6">
         <v>16</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="22">
         <f>SUM(C5:C11)/7</f>
         <v>13.428571428571429</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="21">
         <v>4</v>
       </c>
       <c r="G5" s="6">
         <v>16</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="22">
         <f>SUM(G5:G11)/7</f>
         <v>20.142857142857142</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="21">
         <v>4</v>
       </c>
       <c r="K5" s="6">
         <v>0</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="22">
         <f>SUM(K5:K11)/7</f>
         <v>13.428571428571429</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="21">
         <v>4</v>
       </c>
       <c r="O5" s="6">
         <v>15</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="22">
         <f>SUM(O5:O11)/7</f>
         <v>17.714285714285715</v>
       </c>
-      <c r="R5" s="19">
+      <c r="R5" s="21">
         <v>4</v>
       </c>
       <c r="S5" s="6">
         <v>16</v>
       </c>
-      <c r="T5" s="21">
+      <c r="T5" s="22">
         <f>SUM(S5:S11)/7</f>
         <v>17.857142857142858</v>
       </c>
-      <c r="V5" s="19">
+      <c r="V5" s="21">
         <v>4</v>
       </c>
       <c r="W5" s="6">
         <v>15</v>
       </c>
-      <c r="X5" s="21">
+      <c r="X5" s="22">
         <f>SUM(W5:W11)/7</f>
         <v>17.714285714285715</v>
       </c>
     </row>
     <row r="6" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="5">
         <v>15</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="F6" s="20"/>
+      <c r="D6" s="17"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="5">
         <v>15</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="J6" s="20"/>
+      <c r="H6" s="17"/>
+      <c r="J6" s="16"/>
       <c r="K6" s="5">
         <v>15</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="N6" s="20"/>
+      <c r="L6" s="17"/>
+      <c r="N6" s="16"/>
       <c r="O6" s="5">
         <v>15</v>
       </c>
-      <c r="P6" s="22"/>
-      <c r="R6" s="20"/>
+      <c r="P6" s="17"/>
+      <c r="R6" s="16"/>
       <c r="S6" s="5">
         <v>15</v>
       </c>
-      <c r="T6" s="22"/>
-      <c r="V6" s="20"/>
+      <c r="T6" s="17"/>
+      <c r="V6" s="16"/>
       <c r="W6" s="5">
         <v>16</v>
       </c>
-      <c r="X6" s="22"/>
+      <c r="X6" s="17"/>
     </row>
     <row r="7" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="5">
         <v>16</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="F7" s="20"/>
+      <c r="D7" s="17"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="5">
         <v>16</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="J7" s="20"/>
+      <c r="H7" s="17"/>
+      <c r="J7" s="16"/>
       <c r="K7" s="5">
         <v>16</v>
       </c>
-      <c r="L7" s="22"/>
-      <c r="N7" s="20"/>
+      <c r="L7" s="17"/>
+      <c r="N7" s="16"/>
       <c r="O7" s="5">
         <v>16</v>
       </c>
-      <c r="P7" s="22"/>
-      <c r="R7" s="20"/>
+      <c r="P7" s="17"/>
+      <c r="R7" s="16"/>
       <c r="S7" s="5">
         <v>16</v>
       </c>
-      <c r="T7" s="22"/>
-      <c r="V7" s="20"/>
+      <c r="T7" s="17"/>
+      <c r="V7" s="16"/>
       <c r="W7" s="5">
         <v>16</v>
       </c>
-      <c r="X7" s="22"/>
+      <c r="X7" s="17"/>
     </row>
     <row r="8" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="5">
         <v>16</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="F8" s="20"/>
+      <c r="D8" s="17"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="5">
         <v>16</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="J8" s="20"/>
+      <c r="H8" s="17"/>
+      <c r="J8" s="16"/>
       <c r="K8" s="5">
         <v>16</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="N8" s="20"/>
+      <c r="L8" s="17"/>
+      <c r="N8" s="16"/>
       <c r="O8" s="5">
         <v>16</v>
       </c>
-      <c r="P8" s="22"/>
-      <c r="R8" s="20"/>
+      <c r="P8" s="17"/>
+      <c r="R8" s="16"/>
       <c r="S8" s="5">
         <v>16</v>
       </c>
-      <c r="T8" s="22"/>
-      <c r="V8" s="20"/>
+      <c r="T8" s="17"/>
+      <c r="V8" s="16"/>
       <c r="W8" s="5">
         <v>15</v>
       </c>
-      <c r="X8" s="22"/>
+      <c r="X8" s="17"/>
     </row>
     <row r="9" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="20"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="5">
         <v>15</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="F9" s="20"/>
+      <c r="D9" s="17"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="5">
         <v>15</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="J9" s="20"/>
+      <c r="H9" s="17"/>
+      <c r="J9" s="16"/>
       <c r="K9" s="5">
         <v>15</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="N9" s="20"/>
+      <c r="L9" s="17"/>
+      <c r="N9" s="16"/>
       <c r="O9" s="5">
         <v>15</v>
       </c>
-      <c r="P9" s="22"/>
-      <c r="R9" s="20"/>
+      <c r="P9" s="17"/>
+      <c r="R9" s="16"/>
       <c r="S9" s="5">
         <v>31</v>
       </c>
-      <c r="T9" s="22"/>
-      <c r="V9" s="20"/>
+      <c r="T9" s="17"/>
+      <c r="V9" s="16"/>
       <c r="W9" s="5">
         <v>32</v>
       </c>
-      <c r="X9" s="22"/>
+      <c r="X9" s="17"/>
     </row>
     <row r="10" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="20"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="5">
         <v>16</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="F10" s="20"/>
+      <c r="D10" s="17"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="5">
         <v>32</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="J10" s="20"/>
+      <c r="H10" s="17"/>
+      <c r="J10" s="16"/>
       <c r="K10" s="5">
         <v>16</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="N10" s="20"/>
+      <c r="L10" s="17"/>
+      <c r="N10" s="16"/>
       <c r="O10" s="5">
         <v>32</v>
       </c>
-      <c r="P10" s="22"/>
-      <c r="R10" s="20"/>
+      <c r="P10" s="17"/>
+      <c r="R10" s="16"/>
       <c r="S10" s="5">
         <v>16</v>
       </c>
-      <c r="T10" s="22"/>
-      <c r="V10" s="20"/>
+      <c r="T10" s="17"/>
+      <c r="V10" s="16"/>
       <c r="W10" s="5">
         <v>15</v>
       </c>
-      <c r="X10" s="22"/>
+      <c r="X10" s="17"/>
     </row>
     <row r="11" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="20"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="5">
         <v>0</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="F11" s="20"/>
+      <c r="D11" s="17"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="5">
         <v>31</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="J11" s="20"/>
+      <c r="H11" s="17"/>
+      <c r="J11" s="16"/>
       <c r="K11" s="5">
         <v>16</v>
       </c>
-      <c r="L11" s="22"/>
-      <c r="N11" s="20"/>
+      <c r="L11" s="17"/>
+      <c r="N11" s="16"/>
       <c r="O11" s="5">
         <v>15</v>
       </c>
-      <c r="P11" s="22"/>
-      <c r="R11" s="20"/>
+      <c r="P11" s="17"/>
+      <c r="R11" s="16"/>
       <c r="S11" s="5">
         <v>15</v>
       </c>
-      <c r="T11" s="22"/>
-      <c r="V11" s="20"/>
+      <c r="T11" s="17"/>
+      <c r="V11" s="16"/>
       <c r="W11" s="5">
         <v>15</v>
       </c>
-      <c r="X11" s="22"/>
+      <c r="X11" s="17"/>
     </row>
     <row r="12" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
@@ -4760,194 +8147,194 @@
       <c r="X18" s="14"/>
     </row>
     <row r="19" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="20">
+      <c r="B19" s="16">
         <v>6</v>
       </c>
       <c r="C19" s="5">
         <v>110</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="17">
         <f>SUM(C19:C23)/5</f>
         <v>131.4</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="16">
         <v>6</v>
       </c>
       <c r="G19" s="5">
         <v>140</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="17">
         <f>SUM(G19:G23)/5</f>
         <v>128</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="16">
         <v>6</v>
       </c>
       <c r="K19" s="5">
         <v>125</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L19" s="17">
         <f>SUM(K19:K23)/5</f>
         <v>131.19999999999999</v>
       </c>
-      <c r="N19" s="20">
+      <c r="N19" s="16">
         <v>6</v>
       </c>
       <c r="O19" s="5">
         <v>156</v>
       </c>
-      <c r="P19" s="22">
+      <c r="P19" s="17">
         <f>SUM(O19:O23)/5</f>
         <v>140.6</v>
       </c>
-      <c r="R19" s="20">
+      <c r="R19" s="16">
         <v>6</v>
       </c>
       <c r="S19" s="5">
         <v>141</v>
       </c>
-      <c r="T19" s="22">
+      <c r="T19" s="17">
         <f>SUM(S19:S23)/5</f>
         <v>128.19999999999999</v>
       </c>
-      <c r="V19" s="20">
+      <c r="V19" s="16">
         <v>6</v>
       </c>
       <c r="W19" s="5">
         <v>125</v>
       </c>
-      <c r="X19" s="22">
+      <c r="X19" s="17">
         <f>SUM(W19:W23)/5</f>
         <v>150</v>
       </c>
     </row>
     <row r="20" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="20"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="5">
         <v>125</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="F20" s="20"/>
+      <c r="D20" s="17"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="5">
         <v>110</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="17"/>
+      <c r="J20" s="16"/>
       <c r="K20" s="5">
         <v>125</v>
       </c>
-      <c r="L20" s="22"/>
-      <c r="N20" s="20"/>
+      <c r="L20" s="17"/>
+      <c r="N20" s="16"/>
       <c r="O20" s="5">
         <v>125</v>
       </c>
-      <c r="P20" s="22"/>
-      <c r="R20" s="20"/>
+      <c r="P20" s="17"/>
+      <c r="R20" s="16"/>
       <c r="S20" s="5">
         <v>125</v>
       </c>
-      <c r="T20" s="22"/>
-      <c r="V20" s="20"/>
+      <c r="T20" s="17"/>
+      <c r="V20" s="16"/>
       <c r="W20" s="5">
         <v>125</v>
       </c>
-      <c r="X20" s="22"/>
+      <c r="X20" s="17"/>
     </row>
     <row r="21" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="20"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="5">
         <v>140</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="F21" s="20"/>
+      <c r="D21" s="17"/>
+      <c r="F21" s="16"/>
       <c r="G21" s="5">
         <v>125</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="17"/>
+      <c r="J21" s="16"/>
       <c r="K21" s="5">
         <v>125</v>
       </c>
-      <c r="L21" s="22"/>
-      <c r="N21" s="20"/>
+      <c r="L21" s="17"/>
+      <c r="N21" s="16"/>
       <c r="O21" s="5">
         <v>125</v>
       </c>
-      <c r="P21" s="22"/>
-      <c r="R21" s="20"/>
+      <c r="P21" s="17"/>
+      <c r="R21" s="16"/>
       <c r="S21" s="5">
         <v>125</v>
       </c>
-      <c r="T21" s="22"/>
-      <c r="V21" s="20"/>
+      <c r="T21" s="17"/>
+      <c r="V21" s="16"/>
       <c r="W21" s="5">
         <v>140</v>
       </c>
-      <c r="X21" s="22"/>
+      <c r="X21" s="17"/>
     </row>
     <row r="22" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="20"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="5">
         <v>141</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="F22" s="20"/>
+      <c r="D22" s="17"/>
+      <c r="F22" s="16"/>
       <c r="G22" s="5">
         <v>140</v>
       </c>
-      <c r="H22" s="22"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="17"/>
+      <c r="J22" s="16"/>
       <c r="K22" s="5">
         <v>125</v>
       </c>
-      <c r="L22" s="22"/>
-      <c r="N22" s="20"/>
+      <c r="L22" s="17"/>
+      <c r="N22" s="16"/>
       <c r="O22" s="5">
         <v>140</v>
       </c>
-      <c r="P22" s="22"/>
-      <c r="R22" s="20"/>
+      <c r="P22" s="17"/>
+      <c r="R22" s="16"/>
       <c r="S22" s="5">
         <v>109</v>
       </c>
-      <c r="T22" s="22"/>
-      <c r="V22" s="20"/>
+      <c r="T22" s="17"/>
+      <c r="V22" s="16"/>
       <c r="W22" s="5">
         <v>156</v>
       </c>
-      <c r="X22" s="22"/>
+      <c r="X22" s="17"/>
     </row>
     <row r="23" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="20"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="5">
         <v>141</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="F23" s="20"/>
+      <c r="D23" s="17"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="5">
         <v>125</v>
       </c>
-      <c r="H23" s="22"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="17"/>
+      <c r="J23" s="16"/>
       <c r="K23" s="5">
         <v>156</v>
       </c>
-      <c r="L23" s="22"/>
-      <c r="N23" s="20"/>
+      <c r="L23" s="17"/>
+      <c r="N23" s="16"/>
       <c r="O23" s="5">
         <v>157</v>
       </c>
-      <c r="P23" s="22"/>
-      <c r="R23" s="20"/>
+      <c r="P23" s="17"/>
+      <c r="R23" s="16"/>
       <c r="S23" s="5">
         <v>141</v>
       </c>
-      <c r="T23" s="22"/>
-      <c r="V23" s="20"/>
+      <c r="T23" s="17"/>
+      <c r="V23" s="16"/>
       <c r="W23" s="5">
         <v>204</v>
       </c>
-      <c r="X23" s="22"/>
+      <c r="X23" s="17"/>
     </row>
     <row r="24" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
@@ -5108,36 +8495,36 @@
       <c r="X27" s="15"/>
     </row>
     <row r="29" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
-      <c r="F29" s="16" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="F29" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
-      <c r="J29" s="16" t="s">
+      <c r="G29" s="19"/>
+      <c r="H29" s="20"/>
+      <c r="J29" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="K29" s="17"/>
-      <c r="L29" s="18"/>
-      <c r="N29" s="16" t="s">
+      <c r="K29" s="19"/>
+      <c r="L29" s="20"/>
+      <c r="N29" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="18"/>
-      <c r="R29" s="16" t="s">
+      <c r="O29" s="19"/>
+      <c r="P29" s="20"/>
+      <c r="R29" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="S29" s="17"/>
-      <c r="T29" s="18"/>
-      <c r="V29" s="16" t="s">
+      <c r="S29" s="19"/>
+      <c r="T29" s="20"/>
+      <c r="V29" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="W29" s="17"/>
-      <c r="X29" s="18"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="20"/>
     </row>
     <row r="30" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
@@ -5252,258 +8639,258 @@
       </c>
     </row>
     <row r="32" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="19">
+      <c r="B32" s="21">
         <v>4</v>
       </c>
       <c r="C32" s="6">
         <v>15</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="22">
         <f>SUM(C32:C38)/7</f>
         <v>13.428571428571429</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="21">
         <v>4</v>
       </c>
       <c r="G32" s="6">
         <v>31</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="22">
         <f>SUM(G32:G38)/7</f>
         <v>26.714285714285715</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J32" s="21">
         <v>4</v>
       </c>
       <c r="K32" s="6">
         <v>15</v>
       </c>
-      <c r="L32" s="21">
+      <c r="L32" s="22">
         <f>SUM(K32:K38)/7</f>
         <v>20</v>
       </c>
-      <c r="N32" s="19">
+      <c r="N32" s="21">
         <v>4</v>
       </c>
       <c r="O32" s="6">
         <v>16</v>
       </c>
-      <c r="P32" s="21">
+      <c r="P32" s="22">
         <f>SUM(O32:O38)/7</f>
         <v>18</v>
       </c>
-      <c r="R32" s="19">
+      <c r="R32" s="21">
         <v>4</v>
       </c>
       <c r="S32" s="6">
         <v>16</v>
       </c>
-      <c r="T32" s="21">
+      <c r="T32" s="22">
         <f>SUM(S32:S38)/7</f>
         <v>15.714285714285714</v>
       </c>
-      <c r="V32" s="19">
+      <c r="V32" s="21">
         <v>4</v>
       </c>
       <c r="W32" s="6">
         <v>16</v>
       </c>
-      <c r="X32" s="21">
+      <c r="X32" s="22">
         <f>SUM(W32:W38)/7</f>
         <v>15.714285714285714</v>
       </c>
     </row>
     <row r="33" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="20"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="5">
         <v>16</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="F33" s="20"/>
+      <c r="D33" s="17"/>
+      <c r="F33" s="16"/>
       <c r="G33" s="5">
         <v>31</v>
       </c>
-      <c r="H33" s="22"/>
-      <c r="J33" s="20"/>
+      <c r="H33" s="17"/>
+      <c r="J33" s="16"/>
       <c r="K33" s="5">
         <v>0</v>
       </c>
-      <c r="L33" s="22"/>
-      <c r="N33" s="20"/>
+      <c r="L33" s="17"/>
+      <c r="N33" s="16"/>
       <c r="O33" s="5">
         <v>32</v>
       </c>
-      <c r="P33" s="22"/>
-      <c r="R33" s="20"/>
+      <c r="P33" s="17"/>
+      <c r="R33" s="16"/>
       <c r="S33" s="5">
         <v>16</v>
       </c>
-      <c r="T33" s="22"/>
-      <c r="V33" s="20"/>
+      <c r="T33" s="17"/>
+      <c r="V33" s="16"/>
       <c r="W33" s="5">
         <v>15</v>
       </c>
-      <c r="X33" s="22"/>
+      <c r="X33" s="17"/>
     </row>
     <row r="34" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="20"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="5">
         <v>16</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="F34" s="20"/>
+      <c r="D34" s="17"/>
+      <c r="F34" s="16"/>
       <c r="G34" s="5">
         <v>16</v>
       </c>
-      <c r="H34" s="22"/>
-      <c r="J34" s="20"/>
+      <c r="H34" s="17"/>
+      <c r="J34" s="16"/>
       <c r="K34" s="5">
         <v>16</v>
       </c>
-      <c r="L34" s="22"/>
-      <c r="N34" s="20"/>
+      <c r="L34" s="17"/>
+      <c r="N34" s="16"/>
       <c r="O34" s="5">
         <v>15</v>
       </c>
-      <c r="P34" s="22"/>
-      <c r="R34" s="20"/>
+      <c r="P34" s="17"/>
+      <c r="R34" s="16"/>
       <c r="S34" s="5">
         <v>15</v>
       </c>
-      <c r="T34" s="22"/>
-      <c r="V34" s="20"/>
+      <c r="T34" s="17"/>
+      <c r="V34" s="16"/>
       <c r="W34" s="5">
         <v>16</v>
       </c>
-      <c r="X34" s="22"/>
+      <c r="X34" s="17"/>
     </row>
     <row r="35" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="20"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="5">
         <v>15</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="F35" s="20"/>
+      <c r="D35" s="17"/>
+      <c r="F35" s="16"/>
       <c r="G35" s="5">
         <v>16</v>
       </c>
-      <c r="H35" s="22"/>
-      <c r="J35" s="20"/>
+      <c r="H35" s="17"/>
+      <c r="J35" s="16"/>
       <c r="K35" s="5">
         <v>15</v>
       </c>
-      <c r="L35" s="22"/>
-      <c r="N35" s="20"/>
+      <c r="L35" s="17"/>
+      <c r="N35" s="16"/>
       <c r="O35" s="5">
         <v>16</v>
       </c>
-      <c r="P35" s="22"/>
-      <c r="R35" s="20"/>
+      <c r="P35" s="17"/>
+      <c r="R35" s="16"/>
       <c r="S35" s="5">
         <v>16</v>
       </c>
-      <c r="T35" s="22"/>
-      <c r="V35" s="20"/>
+      <c r="T35" s="17"/>
+      <c r="V35" s="16"/>
       <c r="W35" s="5">
         <v>16</v>
       </c>
-      <c r="X35" s="22"/>
+      <c r="X35" s="17"/>
     </row>
     <row r="36" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="20"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="5">
         <v>16</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="F36" s="20"/>
+      <c r="D36" s="17"/>
+      <c r="F36" s="16"/>
       <c r="G36" s="5">
         <v>31</v>
       </c>
-      <c r="H36" s="22"/>
-      <c r="J36" s="20"/>
+      <c r="H36" s="17"/>
+      <c r="J36" s="16"/>
       <c r="K36" s="5">
         <v>32</v>
       </c>
-      <c r="L36" s="22"/>
-      <c r="N36" s="20"/>
+      <c r="L36" s="17"/>
+      <c r="N36" s="16"/>
       <c r="O36" s="5">
         <v>16</v>
       </c>
-      <c r="P36" s="22"/>
-      <c r="R36" s="20"/>
+      <c r="P36" s="17"/>
+      <c r="R36" s="16"/>
       <c r="S36" s="5">
         <v>16</v>
       </c>
-      <c r="T36" s="22"/>
-      <c r="V36" s="20"/>
+      <c r="T36" s="17"/>
+      <c r="V36" s="16"/>
       <c r="W36" s="5">
         <v>15</v>
       </c>
-      <c r="X36" s="22"/>
+      <c r="X36" s="17"/>
     </row>
     <row r="37" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="20"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="5">
         <v>0</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="F37" s="20"/>
+      <c r="D37" s="17"/>
+      <c r="F37" s="16"/>
       <c r="G37" s="5">
         <v>31</v>
       </c>
-      <c r="H37" s="22"/>
-      <c r="J37" s="20"/>
+      <c r="H37" s="17"/>
+      <c r="J37" s="16"/>
       <c r="K37" s="5">
         <v>31</v>
       </c>
-      <c r="L37" s="22"/>
-      <c r="N37" s="20"/>
+      <c r="L37" s="17"/>
+      <c r="N37" s="16"/>
       <c r="O37" s="5">
         <v>15</v>
       </c>
-      <c r="P37" s="22"/>
-      <c r="R37" s="20"/>
+      <c r="P37" s="17"/>
+      <c r="R37" s="16"/>
       <c r="S37" s="5">
         <v>15</v>
       </c>
-      <c r="T37" s="22"/>
-      <c r="V37" s="20"/>
+      <c r="T37" s="17"/>
+      <c r="V37" s="16"/>
       <c r="W37" s="5">
         <v>16</v>
       </c>
-      <c r="X37" s="22"/>
+      <c r="X37" s="17"/>
     </row>
     <row r="38" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="20"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="5">
         <v>16</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="F38" s="20"/>
+      <c r="D38" s="17"/>
+      <c r="F38" s="16"/>
       <c r="G38" s="5">
         <v>31</v>
       </c>
-      <c r="H38" s="22"/>
-      <c r="J38" s="20"/>
+      <c r="H38" s="17"/>
+      <c r="J38" s="16"/>
       <c r="K38" s="5">
         <v>31</v>
       </c>
-      <c r="L38" s="22"/>
-      <c r="N38" s="20"/>
+      <c r="L38" s="17"/>
+      <c r="N38" s="16"/>
       <c r="O38" s="5">
         <v>16</v>
       </c>
-      <c r="P38" s="22"/>
-      <c r="R38" s="20"/>
+      <c r="P38" s="17"/>
+      <c r="R38" s="16"/>
       <c r="S38" s="5">
         <v>16</v>
       </c>
-      <c r="T38" s="22"/>
-      <c r="V38" s="20"/>
+      <c r="T38" s="17"/>
+      <c r="V38" s="16"/>
       <c r="W38" s="5">
         <v>16</v>
       </c>
-      <c r="X38" s="22"/>
+      <c r="X38" s="17"/>
     </row>
     <row r="39" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="12">
@@ -5760,194 +9147,194 @@
       <c r="X45" s="14"/>
     </row>
     <row r="46" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="20">
+      <c r="B46" s="16">
         <v>6</v>
       </c>
       <c r="C46" s="5">
         <v>157</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="17">
         <f>SUM(C46:C50)/5</f>
         <v>143.80000000000001</v>
       </c>
-      <c r="F46" s="20">
+      <c r="F46" s="16">
         <v>6</v>
       </c>
       <c r="G46" s="5">
         <v>141</v>
       </c>
-      <c r="H46" s="22">
+      <c r="H46" s="17">
         <f>SUM(G46:G50)/5</f>
         <v>131.19999999999999</v>
       </c>
-      <c r="J46" s="20">
+      <c r="J46" s="16">
         <v>6</v>
       </c>
       <c r="K46" s="5">
         <v>125</v>
       </c>
-      <c r="L46" s="22">
+      <c r="L46" s="17">
         <f>SUM(K46:K50)/5</f>
         <v>122</v>
       </c>
-      <c r="N46" s="20">
+      <c r="N46" s="16">
         <v>6</v>
       </c>
       <c r="O46" s="5">
         <v>125</v>
       </c>
-      <c r="P46" s="22">
+      <c r="P46" s="17">
         <f>SUM(O46:O50)/5</f>
         <v>128</v>
       </c>
-      <c r="R46" s="20">
+      <c r="R46" s="16">
         <v>6</v>
       </c>
       <c r="S46" s="5">
         <v>109</v>
       </c>
-      <c r="T46" s="22">
+      <c r="T46" s="17">
         <f>SUM(S46:S50)/5</f>
         <v>128</v>
       </c>
-      <c r="V46" s="20">
+      <c r="V46" s="16">
         <v>6</v>
       </c>
       <c r="W46" s="5">
         <v>156</v>
       </c>
-      <c r="X46" s="22">
+      <c r="X46" s="17">
         <f>SUM(W46:W50)/5</f>
         <v>134.4</v>
       </c>
     </row>
     <row r="47" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="20"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="5">
         <v>125</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="F47" s="20"/>
+      <c r="D47" s="17"/>
+      <c r="F47" s="16"/>
       <c r="G47" s="5">
         <v>125</v>
       </c>
-      <c r="H47" s="22"/>
-      <c r="J47" s="20"/>
+      <c r="H47" s="17"/>
+      <c r="J47" s="16"/>
       <c r="K47" s="5">
         <v>125</v>
       </c>
-      <c r="L47" s="22"/>
-      <c r="N47" s="20"/>
+      <c r="L47" s="17"/>
+      <c r="N47" s="16"/>
       <c r="O47" s="5">
         <v>125</v>
       </c>
-      <c r="P47" s="22"/>
-      <c r="R47" s="20"/>
+      <c r="P47" s="17"/>
+      <c r="R47" s="16"/>
       <c r="S47" s="5">
         <v>125</v>
       </c>
-      <c r="T47" s="22"/>
-      <c r="V47" s="20"/>
+      <c r="T47" s="17"/>
+      <c r="V47" s="16"/>
       <c r="W47" s="5">
         <v>125</v>
       </c>
-      <c r="X47" s="22"/>
+      <c r="X47" s="17"/>
     </row>
     <row r="48" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="20"/>
+      <c r="B48" s="16"/>
       <c r="C48" s="5">
         <v>125</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="F48" s="20"/>
+      <c r="D48" s="17"/>
+      <c r="F48" s="16"/>
       <c r="G48" s="5">
         <v>140</v>
       </c>
-      <c r="H48" s="22"/>
-      <c r="J48" s="20"/>
+      <c r="H48" s="17"/>
+      <c r="J48" s="16"/>
       <c r="K48" s="5">
         <v>125</v>
       </c>
-      <c r="L48" s="22"/>
-      <c r="N48" s="20"/>
+      <c r="L48" s="17"/>
+      <c r="N48" s="16"/>
       <c r="O48" s="5">
         <v>125</v>
       </c>
-      <c r="P48" s="22"/>
-      <c r="R48" s="20"/>
+      <c r="P48" s="17"/>
+      <c r="R48" s="16"/>
       <c r="S48" s="5">
         <v>125</v>
       </c>
-      <c r="T48" s="22"/>
-      <c r="V48" s="20"/>
+      <c r="T48" s="17"/>
+      <c r="V48" s="16"/>
       <c r="W48" s="5">
         <v>125</v>
       </c>
-      <c r="X48" s="22"/>
+      <c r="X48" s="17"/>
     </row>
     <row r="49" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="20"/>
+      <c r="B49" s="16"/>
       <c r="C49" s="5">
         <v>172</v>
       </c>
-      <c r="D49" s="22"/>
-      <c r="F49" s="20"/>
+      <c r="D49" s="17"/>
+      <c r="F49" s="16"/>
       <c r="G49" s="5">
         <v>125</v>
       </c>
-      <c r="H49" s="22"/>
-      <c r="J49" s="20"/>
+      <c r="H49" s="17"/>
+      <c r="J49" s="16"/>
       <c r="K49" s="5">
         <v>110</v>
       </c>
-      <c r="L49" s="22"/>
-      <c r="N49" s="20"/>
+      <c r="L49" s="17"/>
+      <c r="N49" s="16"/>
       <c r="O49" s="5">
         <v>125</v>
       </c>
-      <c r="P49" s="22"/>
-      <c r="R49" s="20"/>
+      <c r="P49" s="17"/>
+      <c r="R49" s="16"/>
       <c r="S49" s="5">
         <v>125</v>
       </c>
-      <c r="T49" s="22"/>
-      <c r="V49" s="20"/>
+      <c r="T49" s="17"/>
+      <c r="V49" s="16"/>
       <c r="W49" s="5">
         <v>125</v>
       </c>
-      <c r="X49" s="22"/>
+      <c r="X49" s="17"/>
     </row>
     <row r="50" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="20"/>
+      <c r="B50" s="16"/>
       <c r="C50" s="5">
         <v>140</v>
       </c>
-      <c r="D50" s="22"/>
-      <c r="F50" s="20"/>
+      <c r="D50" s="17"/>
+      <c r="F50" s="16"/>
       <c r="G50" s="5">
         <v>125</v>
       </c>
-      <c r="H50" s="22"/>
-      <c r="J50" s="20"/>
+      <c r="H50" s="17"/>
+      <c r="J50" s="16"/>
       <c r="K50" s="5">
         <v>125</v>
       </c>
-      <c r="L50" s="22"/>
-      <c r="N50" s="20"/>
+      <c r="L50" s="17"/>
+      <c r="N50" s="16"/>
       <c r="O50" s="5">
         <v>140</v>
       </c>
-      <c r="P50" s="22"/>
-      <c r="R50" s="20"/>
+      <c r="P50" s="17"/>
+      <c r="R50" s="16"/>
       <c r="S50" s="5">
         <v>156</v>
       </c>
-      <c r="T50" s="22"/>
-      <c r="V50" s="20"/>
+      <c r="T50" s="17"/>
+      <c r="V50" s="16"/>
       <c r="W50" s="5">
         <v>141</v>
       </c>
-      <c r="X50" s="22"/>
+      <c r="X50" s="17"/>
     </row>
     <row r="51" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="12">
@@ -6108,36 +9495,36 @@
       <c r="X54" s="15"/>
     </row>
     <row r="56" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="18"/>
-      <c r="F56" s="16" t="s">
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="F56" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G56" s="17"/>
-      <c r="H56" s="18"/>
-      <c r="J56" s="16" t="s">
+      <c r="G56" s="19"/>
+      <c r="H56" s="20"/>
+      <c r="J56" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="K56" s="17"/>
-      <c r="L56" s="18"/>
-      <c r="N56" s="16" t="s">
+      <c r="K56" s="19"/>
+      <c r="L56" s="20"/>
+      <c r="N56" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="O56" s="17"/>
-      <c r="P56" s="18"/>
-      <c r="R56" s="16" t="s">
+      <c r="O56" s="19"/>
+      <c r="P56" s="20"/>
+      <c r="R56" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="S56" s="17"/>
-      <c r="T56" s="18"/>
-      <c r="V56" s="16" t="s">
+      <c r="S56" s="19"/>
+      <c r="T56" s="20"/>
+      <c r="V56" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="W56" s="17"/>
-      <c r="X56" s="18"/>
+      <c r="W56" s="19"/>
+      <c r="X56" s="20"/>
     </row>
     <row r="57" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
@@ -6252,258 +9639,258 @@
       </c>
     </row>
     <row r="59" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="19">
+      <c r="B59" s="21">
         <v>4</v>
       </c>
       <c r="C59" s="6">
         <v>16</v>
       </c>
-      <c r="D59" s="21">
+      <c r="D59" s="22">
         <f>SUM(C59:C65)/7</f>
         <v>11.142857142857142</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F59" s="21">
         <v>4</v>
       </c>
       <c r="G59" s="6">
         <v>0</v>
       </c>
-      <c r="H59" s="21">
+      <c r="H59" s="22">
         <f>SUM(G59:G65)/7</f>
         <v>13.285714285714286</v>
       </c>
-      <c r="J59" s="19">
+      <c r="J59" s="21">
         <v>4</v>
       </c>
       <c r="K59" s="6">
         <v>16</v>
       </c>
-      <c r="L59" s="21">
+      <c r="L59" s="22">
         <f>SUM(K59:K65)/7</f>
         <v>11.142857142857142</v>
       </c>
-      <c r="N59" s="19">
+      <c r="N59" s="21">
         <v>4</v>
       </c>
       <c r="O59" s="6">
         <v>16</v>
       </c>
-      <c r="P59" s="21">
+      <c r="P59" s="22">
         <f>SUM(O59:O65)/7</f>
         <v>9.7142857142857135</v>
       </c>
-      <c r="R59" s="19">
+      <c r="R59" s="21">
         <v>4</v>
       </c>
       <c r="S59" s="6">
         <v>16</v>
       </c>
-      <c r="T59" s="21">
+      <c r="T59" s="22">
         <f>SUM(S59:S65)/7</f>
         <v>15.571428571428571</v>
       </c>
-      <c r="V59" s="19">
+      <c r="V59" s="21">
         <v>4</v>
       </c>
       <c r="W59" s="6">
         <v>15</v>
       </c>
-      <c r="X59" s="21">
+      <c r="X59" s="22">
         <f>SUM(W59:W65)/7</f>
         <v>15.571428571428571</v>
       </c>
     </row>
     <row r="60" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="20"/>
+      <c r="B60" s="16"/>
       <c r="C60" s="5">
         <v>16</v>
       </c>
-      <c r="D60" s="22"/>
-      <c r="F60" s="20"/>
+      <c r="D60" s="17"/>
+      <c r="F60" s="16"/>
       <c r="G60" s="5">
         <v>15</v>
       </c>
-      <c r="H60" s="22"/>
-      <c r="J60" s="20"/>
+      <c r="H60" s="17"/>
+      <c r="J60" s="16"/>
       <c r="K60" s="5">
         <v>0</v>
       </c>
-      <c r="L60" s="22"/>
-      <c r="N60" s="20"/>
+      <c r="L60" s="17"/>
+      <c r="N60" s="16"/>
       <c r="O60" s="5">
         <v>0</v>
       </c>
-      <c r="P60" s="22"/>
-      <c r="R60" s="20"/>
+      <c r="P60" s="17"/>
+      <c r="R60" s="16"/>
       <c r="S60" s="5">
         <v>16</v>
       </c>
-      <c r="T60" s="22"/>
-      <c r="V60" s="20"/>
+      <c r="T60" s="17"/>
+      <c r="V60" s="16"/>
       <c r="W60" s="5">
         <v>16</v>
       </c>
-      <c r="X60" s="22"/>
+      <c r="X60" s="17"/>
     </row>
     <row r="61" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="20"/>
+      <c r="B61" s="16"/>
       <c r="C61" s="5">
         <v>15</v>
       </c>
-      <c r="D61" s="22"/>
-      <c r="F61" s="20"/>
+      <c r="D61" s="17"/>
+      <c r="F61" s="16"/>
       <c r="G61" s="5">
         <v>16</v>
       </c>
-      <c r="H61" s="22"/>
-      <c r="J61" s="20"/>
+      <c r="H61" s="17"/>
+      <c r="J61" s="16"/>
       <c r="K61" s="5">
         <v>15</v>
       </c>
-      <c r="L61" s="22"/>
-      <c r="N61" s="20"/>
+      <c r="L61" s="17"/>
+      <c r="N61" s="16"/>
       <c r="O61" s="5">
         <v>5</v>
       </c>
-      <c r="P61" s="22"/>
-      <c r="R61" s="20"/>
+      <c r="P61" s="17"/>
+      <c r="R61" s="16"/>
       <c r="S61" s="5">
         <v>31</v>
       </c>
-      <c r="T61" s="22"/>
-      <c r="V61" s="20"/>
+      <c r="T61" s="17"/>
+      <c r="V61" s="16"/>
       <c r="W61" s="5">
         <v>16</v>
       </c>
-      <c r="X61" s="22"/>
+      <c r="X61" s="17"/>
     </row>
     <row r="62" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="20"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="5">
         <v>16</v>
       </c>
-      <c r="D62" s="22"/>
-      <c r="F62" s="20"/>
+      <c r="D62" s="17"/>
+      <c r="F62" s="16"/>
       <c r="G62" s="5">
         <v>0</v>
       </c>
-      <c r="H62" s="22"/>
-      <c r="J62" s="20"/>
+      <c r="H62" s="17"/>
+      <c r="J62" s="16"/>
       <c r="K62" s="5">
         <v>16</v>
       </c>
-      <c r="L62" s="22"/>
-      <c r="N62" s="20"/>
+      <c r="L62" s="17"/>
+      <c r="N62" s="16"/>
       <c r="O62" s="5">
         <v>16</v>
       </c>
-      <c r="P62" s="22"/>
-      <c r="R62" s="20"/>
+      <c r="P62" s="17"/>
+      <c r="R62" s="16"/>
       <c r="S62" s="5">
         <v>16</v>
       </c>
-      <c r="T62" s="22"/>
-      <c r="V62" s="20"/>
+      <c r="T62" s="17"/>
+      <c r="V62" s="16"/>
       <c r="W62" s="5">
         <v>15</v>
       </c>
-      <c r="X62" s="22"/>
+      <c r="X62" s="17"/>
     </row>
     <row r="63" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="20"/>
+      <c r="B63" s="16"/>
       <c r="C63" s="5">
         <v>0</v>
       </c>
-      <c r="D63" s="22"/>
-      <c r="F63" s="20"/>
+      <c r="D63" s="17"/>
+      <c r="F63" s="16"/>
       <c r="G63" s="5">
         <v>16</v>
       </c>
-      <c r="H63" s="22"/>
-      <c r="J63" s="20"/>
+      <c r="H63" s="17"/>
+      <c r="J63" s="16"/>
       <c r="K63" s="5">
         <v>15</v>
       </c>
-      <c r="L63" s="22"/>
-      <c r="N63" s="20"/>
+      <c r="L63" s="17"/>
+      <c r="N63" s="16"/>
       <c r="O63" s="5">
         <v>16</v>
       </c>
-      <c r="P63" s="22"/>
-      <c r="R63" s="20"/>
+      <c r="P63" s="17"/>
+      <c r="R63" s="16"/>
       <c r="S63" s="5">
         <v>15</v>
       </c>
-      <c r="T63" s="22"/>
-      <c r="V63" s="20"/>
+      <c r="T63" s="17"/>
+      <c r="V63" s="16"/>
       <c r="W63" s="5">
         <v>16</v>
       </c>
-      <c r="X63" s="22"/>
+      <c r="X63" s="17"/>
     </row>
     <row r="64" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="20"/>
+      <c r="B64" s="16"/>
       <c r="C64" s="5">
         <v>0</v>
       </c>
-      <c r="D64" s="22"/>
-      <c r="F64" s="20"/>
+      <c r="D64" s="17"/>
+      <c r="F64" s="16"/>
       <c r="G64" s="5">
         <v>15</v>
       </c>
-      <c r="H64" s="22"/>
-      <c r="J64" s="20"/>
+      <c r="H64" s="17"/>
+      <c r="J64" s="16"/>
       <c r="K64" s="5">
         <v>16</v>
       </c>
-      <c r="L64" s="22"/>
-      <c r="N64" s="20"/>
+      <c r="L64" s="17"/>
+      <c r="N64" s="16"/>
       <c r="O64" s="5">
         <v>0</v>
       </c>
-      <c r="P64" s="22"/>
-      <c r="R64" s="20"/>
+      <c r="P64" s="17"/>
+      <c r="R64" s="16"/>
       <c r="S64" s="5">
         <v>15</v>
       </c>
-      <c r="T64" s="22"/>
-      <c r="V64" s="20"/>
+      <c r="T64" s="17"/>
+      <c r="V64" s="16"/>
       <c r="W64" s="5">
         <v>15</v>
       </c>
-      <c r="X64" s="22"/>
+      <c r="X64" s="17"/>
     </row>
     <row r="65" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="20"/>
+      <c r="B65" s="16"/>
       <c r="C65" s="5">
         <v>15</v>
       </c>
-      <c r="D65" s="22"/>
-      <c r="F65" s="20"/>
+      <c r="D65" s="17"/>
+      <c r="F65" s="16"/>
       <c r="G65" s="5">
         <v>31</v>
       </c>
-      <c r="H65" s="22"/>
-      <c r="J65" s="20"/>
+      <c r="H65" s="17"/>
+      <c r="J65" s="16"/>
       <c r="K65" s="5">
         <v>0</v>
       </c>
-      <c r="L65" s="22"/>
-      <c r="N65" s="20"/>
+      <c r="L65" s="17"/>
+      <c r="N65" s="16"/>
       <c r="O65" s="5">
         <v>15</v>
       </c>
-      <c r="P65" s="22"/>
-      <c r="R65" s="20"/>
+      <c r="P65" s="17"/>
+      <c r="R65" s="16"/>
       <c r="S65" s="5">
         <v>0</v>
       </c>
-      <c r="T65" s="22"/>
-      <c r="V65" s="20"/>
+      <c r="T65" s="17"/>
+      <c r="V65" s="16"/>
       <c r="W65" s="5">
         <v>16</v>
       </c>
-      <c r="X65" s="22"/>
+      <c r="X65" s="17"/>
     </row>
     <row r="66" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="12">
@@ -6760,194 +10147,194 @@
       <c r="X72" s="14"/>
     </row>
     <row r="73" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="20">
+      <c r="B73" s="16">
         <v>6</v>
       </c>
       <c r="C73" s="5">
         <v>140</v>
       </c>
-      <c r="D73" s="22">
+      <c r="D73" s="17">
         <f>SUM(C73:C77)/5</f>
         <v>134.4</v>
       </c>
-      <c r="F73" s="20">
+      <c r="F73" s="16">
         <v>6</v>
       </c>
       <c r="G73" s="5">
         <v>125</v>
       </c>
-      <c r="H73" s="22">
+      <c r="H73" s="17">
         <f>SUM(G73:G77)/5</f>
         <v>131.4</v>
       </c>
-      <c r="J73" s="20">
+      <c r="J73" s="16">
         <v>6</v>
       </c>
       <c r="K73" s="5">
         <v>141</v>
       </c>
-      <c r="L73" s="22">
+      <c r="L73" s="17">
         <f>SUM(K73:K77)/5</f>
         <v>131.4</v>
       </c>
-      <c r="N73" s="20">
+      <c r="N73" s="16">
         <v>6</v>
       </c>
       <c r="O73" s="5">
         <v>110</v>
       </c>
-      <c r="P73" s="22">
+      <c r="P73" s="17">
         <f>SUM(O73:O77)/5</f>
         <v>134.4</v>
       </c>
-      <c r="R73" s="20">
+      <c r="R73" s="16">
         <v>6</v>
       </c>
       <c r="S73" s="5">
         <v>125</v>
       </c>
-      <c r="T73" s="22">
+      <c r="T73" s="17">
         <f>SUM(S73:S77)/5</f>
         <v>121.8</v>
       </c>
-      <c r="V73" s="20">
+      <c r="V73" s="16">
         <v>6</v>
       </c>
       <c r="W73" s="5">
         <v>125</v>
       </c>
-      <c r="X73" s="22">
+      <c r="X73" s="17">
         <f>SUM(W73:W77)/5</f>
         <v>125</v>
       </c>
     </row>
     <row r="74" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="20"/>
+      <c r="B74" s="16"/>
       <c r="C74" s="5">
         <v>141</v>
       </c>
-      <c r="D74" s="22"/>
-      <c r="F74" s="20"/>
+      <c r="D74" s="17"/>
+      <c r="F74" s="16"/>
       <c r="G74" s="5">
         <v>125</v>
       </c>
-      <c r="H74" s="22"/>
-      <c r="J74" s="20"/>
+      <c r="H74" s="17"/>
+      <c r="J74" s="16"/>
       <c r="K74" s="5">
         <v>125</v>
       </c>
-      <c r="L74" s="22"/>
-      <c r="N74" s="20"/>
+      <c r="L74" s="17"/>
+      <c r="N74" s="16"/>
       <c r="O74" s="5">
         <v>140</v>
       </c>
-      <c r="P74" s="22"/>
-      <c r="R74" s="20"/>
+      <c r="P74" s="17"/>
+      <c r="R74" s="16"/>
       <c r="S74" s="5">
         <v>109</v>
       </c>
-      <c r="T74" s="22"/>
-      <c r="V74" s="20"/>
+      <c r="T74" s="17"/>
+      <c r="V74" s="16"/>
       <c r="W74" s="5">
         <v>110</v>
       </c>
-      <c r="X74" s="22"/>
+      <c r="X74" s="17"/>
     </row>
     <row r="75" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="20"/>
+      <c r="B75" s="16"/>
       <c r="C75" s="5">
         <v>141</v>
       </c>
-      <c r="D75" s="22"/>
-      <c r="F75" s="20"/>
+      <c r="D75" s="17"/>
+      <c r="F75" s="16"/>
       <c r="G75" s="5">
         <v>141</v>
       </c>
-      <c r="H75" s="22"/>
-      <c r="J75" s="20"/>
+      <c r="H75" s="17"/>
+      <c r="J75" s="16"/>
       <c r="K75" s="5">
         <v>125</v>
       </c>
-      <c r="L75" s="22"/>
-      <c r="N75" s="20"/>
+      <c r="L75" s="17"/>
+      <c r="N75" s="16"/>
       <c r="O75" s="5">
         <v>141</v>
       </c>
-      <c r="P75" s="22"/>
-      <c r="R75" s="20"/>
+      <c r="P75" s="17"/>
+      <c r="R75" s="16"/>
       <c r="S75" s="5">
         <v>109</v>
       </c>
-      <c r="T75" s="22"/>
-      <c r="V75" s="20"/>
+      <c r="T75" s="17"/>
+      <c r="V75" s="16"/>
       <c r="W75" s="5">
         <v>140</v>
       </c>
-      <c r="X75" s="22"/>
+      <c r="X75" s="17"/>
     </row>
     <row r="76" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="20"/>
+      <c r="B76" s="16"/>
       <c r="C76" s="5">
         <v>125</v>
       </c>
-      <c r="D76" s="22"/>
-      <c r="F76" s="20"/>
+      <c r="D76" s="17"/>
+      <c r="F76" s="16"/>
       <c r="G76" s="5">
         <v>141</v>
       </c>
-      <c r="H76" s="22"/>
-      <c r="J76" s="20"/>
+      <c r="H76" s="17"/>
+      <c r="J76" s="16"/>
       <c r="K76" s="5">
         <v>125</v>
       </c>
-      <c r="L76" s="22"/>
-      <c r="N76" s="20"/>
+      <c r="L76" s="17"/>
+      <c r="N76" s="16"/>
       <c r="O76" s="5">
         <v>156</v>
       </c>
-      <c r="P76" s="22"/>
-      <c r="R76" s="20"/>
+      <c r="P76" s="17"/>
+      <c r="R76" s="16"/>
       <c r="S76" s="5">
         <v>141</v>
       </c>
-      <c r="T76" s="22"/>
-      <c r="V76" s="20"/>
+      <c r="T76" s="17"/>
+      <c r="V76" s="16"/>
       <c r="W76" s="5">
         <v>125</v>
       </c>
-      <c r="X76" s="22"/>
+      <c r="X76" s="17"/>
     </row>
     <row r="77" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="20"/>
+      <c r="B77" s="16"/>
       <c r="C77" s="5">
         <v>125</v>
       </c>
-      <c r="D77" s="22"/>
-      <c r="F77" s="20"/>
+      <c r="D77" s="17"/>
+      <c r="F77" s="16"/>
       <c r="G77" s="5">
         <v>125</v>
       </c>
-      <c r="H77" s="22"/>
-      <c r="J77" s="20"/>
+      <c r="H77" s="17"/>
+      <c r="J77" s="16"/>
       <c r="K77" s="5">
         <v>141</v>
       </c>
-      <c r="L77" s="22"/>
-      <c r="N77" s="20"/>
+      <c r="L77" s="17"/>
+      <c r="N77" s="16"/>
       <c r="O77" s="5">
         <v>125</v>
       </c>
-      <c r="P77" s="22"/>
-      <c r="R77" s="20"/>
+      <c r="P77" s="17"/>
+      <c r="R77" s="16"/>
       <c r="S77" s="5">
         <v>125</v>
       </c>
-      <c r="T77" s="22"/>
-      <c r="V77" s="20"/>
+      <c r="T77" s="17"/>
+      <c r="V77" s="16"/>
       <c r="W77" s="5">
         <v>125</v>
       </c>
-      <c r="X77" s="22"/>
+      <c r="X77" s="17"/>
     </row>
     <row r="78" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="12">
@@ -7108,36 +10495,36 @@
       <c r="X81" s="15"/>
     </row>
     <row r="83" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C83" s="17"/>
-      <c r="D83" s="18"/>
-      <c r="F83" s="16" t="s">
+      <c r="C83" s="19"/>
+      <c r="D83" s="20"/>
+      <c r="F83" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G83" s="17"/>
-      <c r="H83" s="18"/>
-      <c r="J83" s="16" t="s">
+      <c r="G83" s="19"/>
+      <c r="H83" s="20"/>
+      <c r="J83" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="K83" s="17"/>
-      <c r="L83" s="18"/>
-      <c r="N83" s="16" t="s">
+      <c r="K83" s="19"/>
+      <c r="L83" s="20"/>
+      <c r="N83" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="O83" s="17"/>
-      <c r="P83" s="18"/>
-      <c r="R83" s="16" t="s">
+      <c r="O83" s="19"/>
+      <c r="P83" s="20"/>
+      <c r="R83" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="S83" s="17"/>
-      <c r="T83" s="18"/>
-      <c r="V83" s="16" t="s">
+      <c r="S83" s="19"/>
+      <c r="T83" s="20"/>
+      <c r="V83" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="W83" s="17"/>
-      <c r="X83" s="18"/>
+      <c r="W83" s="19"/>
+      <c r="X83" s="20"/>
     </row>
     <row r="84" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
@@ -7252,258 +10639,258 @@
       </c>
     </row>
     <row r="86" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="19">
+      <c r="B86" s="21">
         <v>4</v>
       </c>
       <c r="C86" s="6">
         <v>16</v>
       </c>
-      <c r="D86" s="21">
+      <c r="D86" s="22">
         <f>SUM(C86:C92)/7</f>
         <v>15.714285714285714</v>
       </c>
-      <c r="F86" s="19">
+      <c r="F86" s="21">
         <v>4</v>
       </c>
       <c r="G86" s="6">
         <v>16</v>
       </c>
-      <c r="H86" s="21">
+      <c r="H86" s="22">
         <f>SUM(G86:G92)/7</f>
         <v>15.571428571428571</v>
       </c>
-      <c r="J86" s="19">
+      <c r="J86" s="21">
         <v>4</v>
       </c>
       <c r="K86" s="6">
         <v>16</v>
       </c>
-      <c r="L86" s="21">
+      <c r="L86" s="22">
         <f>SUM(K86:K92)/7</f>
         <v>13.428571428571429</v>
       </c>
-      <c r="N86" s="19">
+      <c r="N86" s="21">
         <v>4</v>
       </c>
       <c r="O86" s="6">
         <v>15</v>
       </c>
-      <c r="P86" s="21">
+      <c r="P86" s="22">
         <f>SUM(O86:O92)/7</f>
         <v>17.857142857142858</v>
       </c>
-      <c r="R86" s="19">
+      <c r="R86" s="21">
         <v>4</v>
       </c>
       <c r="S86" s="6">
         <v>16</v>
       </c>
-      <c r="T86" s="21">
+      <c r="T86" s="22">
         <f>SUM(S86:S92)/7</f>
         <v>15.714285714285714</v>
       </c>
-      <c r="V86" s="19">
+      <c r="V86" s="21">
         <v>4</v>
       </c>
       <c r="W86" s="6">
         <v>16</v>
       </c>
-      <c r="X86" s="21">
+      <c r="X86" s="22">
         <f>SUM(W86:W92)/7</f>
         <v>13.428571428571429</v>
       </c>
     </row>
     <row r="87" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="20"/>
+      <c r="B87" s="16"/>
       <c r="C87" s="5">
         <v>16</v>
       </c>
-      <c r="D87" s="22"/>
-      <c r="F87" s="20"/>
+      <c r="D87" s="17"/>
+      <c r="F87" s="16"/>
       <c r="G87" s="5">
         <v>15</v>
       </c>
-      <c r="H87" s="22"/>
-      <c r="J87" s="20"/>
+      <c r="H87" s="17"/>
+      <c r="J87" s="16"/>
       <c r="K87" s="5">
         <v>0</v>
       </c>
-      <c r="L87" s="22"/>
-      <c r="N87" s="20"/>
+      <c r="L87" s="17"/>
+      <c r="N87" s="16"/>
       <c r="O87" s="5">
         <v>16</v>
       </c>
-      <c r="P87" s="22"/>
-      <c r="R87" s="20"/>
+      <c r="P87" s="17"/>
+      <c r="R87" s="16"/>
       <c r="S87" s="5">
         <v>16</v>
       </c>
-      <c r="T87" s="22"/>
-      <c r="V87" s="20"/>
+      <c r="T87" s="17"/>
+      <c r="V87" s="16"/>
       <c r="W87" s="5">
         <v>16</v>
       </c>
-      <c r="X87" s="22"/>
+      <c r="X87" s="17"/>
     </row>
     <row r="88" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="20"/>
+      <c r="B88" s="16"/>
       <c r="C88" s="5">
         <v>15</v>
       </c>
-      <c r="D88" s="22"/>
-      <c r="F88" s="20"/>
+      <c r="D88" s="17"/>
+      <c r="F88" s="16"/>
       <c r="G88" s="5">
         <v>16</v>
       </c>
-      <c r="H88" s="22"/>
-      <c r="J88" s="20"/>
+      <c r="H88" s="17"/>
+      <c r="J88" s="16"/>
       <c r="K88" s="5">
         <v>16</v>
       </c>
-      <c r="L88" s="22"/>
-      <c r="N88" s="20"/>
+      <c r="L88" s="17"/>
+      <c r="N88" s="16"/>
       <c r="O88" s="5">
         <v>16</v>
       </c>
-      <c r="P88" s="22"/>
-      <c r="R88" s="20"/>
+      <c r="P88" s="17"/>
+      <c r="R88" s="16"/>
       <c r="S88" s="5">
         <v>15</v>
       </c>
-      <c r="T88" s="22"/>
-      <c r="V88" s="20"/>
+      <c r="T88" s="17"/>
+      <c r="V88" s="16"/>
       <c r="W88" s="5">
         <v>15</v>
       </c>
-      <c r="X88" s="22"/>
+      <c r="X88" s="17"/>
     </row>
     <row r="89" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="20"/>
+      <c r="B89" s="16"/>
       <c r="C89" s="5">
         <v>16</v>
       </c>
-      <c r="D89" s="22"/>
-      <c r="F89" s="20"/>
+      <c r="D89" s="17"/>
+      <c r="F89" s="16"/>
       <c r="G89" s="5">
         <v>15</v>
       </c>
-      <c r="H89" s="22"/>
-      <c r="J89" s="20"/>
+      <c r="H89" s="17"/>
+      <c r="J89" s="16"/>
       <c r="K89" s="5">
         <v>31</v>
       </c>
-      <c r="L89" s="22"/>
-      <c r="N89" s="20"/>
+      <c r="L89" s="17"/>
+      <c r="N89" s="16"/>
       <c r="O89" s="5">
         <v>15</v>
       </c>
-      <c r="P89" s="22"/>
-      <c r="R89" s="20"/>
+      <c r="P89" s="17"/>
+      <c r="R89" s="16"/>
       <c r="S89" s="5">
         <v>16</v>
       </c>
-      <c r="T89" s="22"/>
-      <c r="V89" s="20"/>
+      <c r="T89" s="17"/>
+      <c r="V89" s="16"/>
       <c r="W89" s="5">
         <v>0</v>
       </c>
-      <c r="X89" s="22"/>
+      <c r="X89" s="17"/>
     </row>
     <row r="90" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="20"/>
+      <c r="B90" s="16"/>
       <c r="C90" s="5">
         <v>15</v>
       </c>
-      <c r="D90" s="22"/>
-      <c r="F90" s="20"/>
+      <c r="D90" s="17"/>
+      <c r="F90" s="16"/>
       <c r="G90" s="5">
         <v>16</v>
       </c>
-      <c r="H90" s="22"/>
-      <c r="J90" s="20"/>
+      <c r="H90" s="17"/>
+      <c r="J90" s="16"/>
       <c r="K90" s="5">
         <v>15</v>
       </c>
-      <c r="L90" s="22"/>
-      <c r="N90" s="20"/>
+      <c r="L90" s="17"/>
+      <c r="N90" s="16"/>
       <c r="O90" s="5">
         <v>16</v>
       </c>
-      <c r="P90" s="22"/>
-      <c r="R90" s="20"/>
+      <c r="P90" s="17"/>
+      <c r="R90" s="16"/>
       <c r="S90" s="5">
         <v>15</v>
       </c>
-      <c r="T90" s="22"/>
-      <c r="V90" s="20"/>
+      <c r="T90" s="17"/>
+      <c r="V90" s="16"/>
       <c r="W90" s="5">
         <v>16</v>
       </c>
-      <c r="X90" s="22"/>
+      <c r="X90" s="17"/>
     </row>
     <row r="91" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="20"/>
+      <c r="B91" s="16"/>
       <c r="C91" s="5">
         <v>16</v>
       </c>
-      <c r="D91" s="22"/>
-      <c r="F91" s="20"/>
+      <c r="D91" s="17"/>
+      <c r="F91" s="16"/>
       <c r="G91" s="5">
         <v>16</v>
       </c>
-      <c r="H91" s="22"/>
-      <c r="J91" s="20"/>
+      <c r="H91" s="17"/>
+      <c r="J91" s="16"/>
       <c r="K91" s="5">
         <v>16</v>
       </c>
-      <c r="L91" s="22"/>
-      <c r="N91" s="20"/>
+      <c r="L91" s="17"/>
+      <c r="N91" s="16"/>
       <c r="O91" s="5">
         <v>16</v>
       </c>
-      <c r="P91" s="22"/>
-      <c r="R91" s="20"/>
+      <c r="P91" s="17"/>
+      <c r="R91" s="16"/>
       <c r="S91" s="5">
         <v>16</v>
       </c>
-      <c r="T91" s="22"/>
-      <c r="V91" s="20"/>
+      <c r="T91" s="17"/>
+      <c r="V91" s="16"/>
       <c r="W91" s="5">
         <v>15</v>
       </c>
-      <c r="X91" s="22"/>
+      <c r="X91" s="17"/>
     </row>
     <row r="92" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="20"/>
+      <c r="B92" s="16"/>
       <c r="C92" s="5">
         <v>16</v>
       </c>
-      <c r="D92" s="22"/>
-      <c r="F92" s="20"/>
+      <c r="D92" s="17"/>
+      <c r="F92" s="16"/>
       <c r="G92" s="5">
         <v>15</v>
       </c>
-      <c r="H92" s="22"/>
-      <c r="J92" s="20"/>
+      <c r="H92" s="17"/>
+      <c r="J92" s="16"/>
       <c r="K92" s="5">
         <v>0</v>
       </c>
-      <c r="L92" s="22"/>
-      <c r="N92" s="20"/>
+      <c r="L92" s="17"/>
+      <c r="N92" s="16"/>
       <c r="O92" s="5">
         <v>31</v>
       </c>
-      <c r="P92" s="22"/>
-      <c r="R92" s="20"/>
+      <c r="P92" s="17"/>
+      <c r="R92" s="16"/>
       <c r="S92" s="5">
         <v>16</v>
       </c>
-      <c r="T92" s="22"/>
-      <c r="V92" s="20"/>
+      <c r="T92" s="17"/>
+      <c r="V92" s="16"/>
       <c r="W92" s="5">
         <v>16</v>
       </c>
-      <c r="X92" s="22"/>
+      <c r="X92" s="17"/>
     </row>
     <row r="93" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="12">
@@ -7760,194 +11147,194 @@
       <c r="X99" s="14"/>
     </row>
     <row r="100" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="20">
+      <c r="B100" s="16">
         <v>6</v>
       </c>
       <c r="C100" s="5">
         <v>125</v>
       </c>
-      <c r="D100" s="22">
+      <c r="D100" s="17">
         <f>SUM(C100:C104)/5</f>
         <v>118.8</v>
       </c>
-      <c r="F100" s="20">
+      <c r="F100" s="16">
         <v>6</v>
       </c>
       <c r="G100" s="5">
         <v>172</v>
       </c>
-      <c r="H100" s="22">
+      <c r="H100" s="17">
         <f>SUM(G100:G104)/5</f>
         <v>137.4</v>
       </c>
-      <c r="J100" s="20">
+      <c r="J100" s="16">
         <v>6</v>
       </c>
       <c r="K100" s="5">
         <v>156</v>
       </c>
-      <c r="L100" s="22">
+      <c r="L100" s="17">
         <f>SUM(K100:K104)/5</f>
         <v>131.19999999999999</v>
       </c>
-      <c r="N100" s="20">
+      <c r="N100" s="16">
         <v>6</v>
       </c>
       <c r="O100" s="5">
         <v>125</v>
       </c>
-      <c r="P100" s="22">
+      <c r="P100" s="17">
         <f>SUM(O100:O104)/5</f>
         <v>131.4</v>
       </c>
-      <c r="R100" s="20">
+      <c r="R100" s="16">
         <v>6</v>
       </c>
       <c r="S100" s="5">
         <v>156</v>
       </c>
-      <c r="T100" s="22">
+      <c r="T100" s="17">
         <f>SUM(S100:S104)/5</f>
         <v>143.80000000000001</v>
       </c>
-      <c r="V100" s="20">
+      <c r="V100" s="16">
         <v>6</v>
       </c>
       <c r="W100" s="5">
         <v>125</v>
       </c>
-      <c r="X100" s="22">
+      <c r="X100" s="17">
         <f>SUM(W100:W104)/5</f>
         <v>125</v>
       </c>
     </row>
     <row r="101" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="20"/>
+      <c r="B101" s="16"/>
       <c r="C101" s="5">
         <v>125</v>
       </c>
-      <c r="D101" s="22"/>
-      <c r="F101" s="20"/>
+      <c r="D101" s="17"/>
+      <c r="F101" s="16"/>
       <c r="G101" s="5">
         <v>125</v>
       </c>
-      <c r="H101" s="22"/>
-      <c r="J101" s="20"/>
+      <c r="H101" s="17"/>
+      <c r="J101" s="16"/>
       <c r="K101" s="5">
         <v>125</v>
       </c>
-      <c r="L101" s="22"/>
-      <c r="N101" s="20"/>
+      <c r="L101" s="17"/>
+      <c r="N101" s="16"/>
       <c r="O101" s="5">
         <v>141</v>
       </c>
-      <c r="P101" s="22"/>
-      <c r="R101" s="20"/>
+      <c r="P101" s="17"/>
+      <c r="R101" s="16"/>
       <c r="S101" s="5">
         <v>156</v>
       </c>
-      <c r="T101" s="22"/>
-      <c r="V101" s="20"/>
+      <c r="T101" s="17"/>
+      <c r="V101" s="16"/>
       <c r="W101" s="5">
         <v>125</v>
       </c>
-      <c r="X101" s="22"/>
+      <c r="X101" s="17"/>
     </row>
     <row r="102" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="20"/>
+      <c r="B102" s="16"/>
       <c r="C102" s="5">
         <v>110</v>
       </c>
-      <c r="D102" s="22"/>
-      <c r="F102" s="20"/>
+      <c r="D102" s="17"/>
+      <c r="F102" s="16"/>
       <c r="G102" s="5">
         <v>140</v>
       </c>
-      <c r="H102" s="22"/>
-      <c r="J102" s="20"/>
+      <c r="H102" s="17"/>
+      <c r="J102" s="16"/>
       <c r="K102" s="5">
         <v>109</v>
       </c>
-      <c r="L102" s="22"/>
-      <c r="N102" s="20"/>
+      <c r="L102" s="17"/>
+      <c r="N102" s="16"/>
       <c r="O102" s="5">
         <v>156</v>
       </c>
-      <c r="P102" s="22"/>
-      <c r="R102" s="20"/>
+      <c r="P102" s="17"/>
+      <c r="R102" s="16"/>
       <c r="S102" s="5">
         <v>141</v>
       </c>
-      <c r="T102" s="22"/>
-      <c r="V102" s="20"/>
+      <c r="T102" s="17"/>
+      <c r="V102" s="16"/>
       <c r="W102" s="5">
         <v>125</v>
       </c>
-      <c r="X102" s="22"/>
+      <c r="X102" s="17"/>
     </row>
     <row r="103" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="20"/>
+      <c r="B103" s="16"/>
       <c r="C103" s="5">
         <v>109</v>
       </c>
-      <c r="D103" s="22"/>
-      <c r="F103" s="20"/>
+      <c r="D103" s="17"/>
+      <c r="F103" s="16"/>
       <c r="G103" s="5">
         <v>110</v>
       </c>
-      <c r="H103" s="22"/>
-      <c r="J103" s="20"/>
+      <c r="H103" s="17"/>
+      <c r="J103" s="16"/>
       <c r="K103" s="5">
         <v>125</v>
       </c>
-      <c r="L103" s="22"/>
-      <c r="N103" s="20"/>
+      <c r="L103" s="17"/>
+      <c r="N103" s="16"/>
       <c r="O103" s="5">
         <v>110</v>
       </c>
-      <c r="P103" s="22"/>
-      <c r="R103" s="20"/>
+      <c r="P103" s="17"/>
+      <c r="R103" s="16"/>
       <c r="S103" s="5">
         <v>125</v>
       </c>
-      <c r="T103" s="22"/>
-      <c r="V103" s="20"/>
+      <c r="T103" s="17"/>
+      <c r="V103" s="16"/>
       <c r="W103" s="5">
         <v>125</v>
       </c>
-      <c r="X103" s="22"/>
+      <c r="X103" s="17"/>
     </row>
     <row r="104" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="20"/>
+      <c r="B104" s="16"/>
       <c r="C104" s="5">
         <v>125</v>
       </c>
-      <c r="D104" s="22"/>
-      <c r="F104" s="20"/>
+      <c r="D104" s="17"/>
+      <c r="F104" s="16"/>
       <c r="G104" s="5">
         <v>140</v>
       </c>
-      <c r="H104" s="22"/>
-      <c r="J104" s="20"/>
+      <c r="H104" s="17"/>
+      <c r="J104" s="16"/>
       <c r="K104" s="5">
         <v>141</v>
       </c>
-      <c r="L104" s="22"/>
-      <c r="N104" s="20"/>
+      <c r="L104" s="17"/>
+      <c r="N104" s="16"/>
       <c r="O104" s="5">
         <v>125</v>
       </c>
-      <c r="P104" s="22"/>
-      <c r="R104" s="20"/>
+      <c r="P104" s="17"/>
+      <c r="R104" s="16"/>
       <c r="S104" s="5">
         <v>141</v>
       </c>
-      <c r="T104" s="22"/>
-      <c r="V104" s="20"/>
+      <c r="T104" s="17"/>
+      <c r="V104" s="16"/>
       <c r="W104" s="5">
         <v>125</v>
       </c>
-      <c r="X104" s="22"/>
+      <c r="X104" s="17"/>
     </row>
     <row r="105" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="12">
@@ -8108,36 +11495,36 @@
       <c r="X108" s="15"/>
     </row>
     <row r="110" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="16" t="s">
+      <c r="B110" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C110" s="17"/>
-      <c r="D110" s="18"/>
-      <c r="F110" s="16" t="s">
+      <c r="C110" s="19"/>
+      <c r="D110" s="20"/>
+      <c r="F110" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G110" s="17"/>
-      <c r="H110" s="18"/>
-      <c r="J110" s="16" t="s">
+      <c r="G110" s="19"/>
+      <c r="H110" s="20"/>
+      <c r="J110" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="K110" s="17"/>
-      <c r="L110" s="18"/>
-      <c r="N110" s="16" t="s">
+      <c r="K110" s="19"/>
+      <c r="L110" s="20"/>
+      <c r="N110" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="O110" s="17"/>
-      <c r="P110" s="18"/>
-      <c r="R110" s="16" t="s">
+      <c r="O110" s="19"/>
+      <c r="P110" s="20"/>
+      <c r="R110" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="S110" s="17"/>
-      <c r="T110" s="18"/>
-      <c r="V110" s="16" t="s">
+      <c r="S110" s="19"/>
+      <c r="T110" s="20"/>
+      <c r="V110" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="W110" s="17"/>
-      <c r="X110" s="18"/>
+      <c r="W110" s="19"/>
+      <c r="X110" s="20"/>
     </row>
     <row r="111" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="2" t="s">
@@ -8252,258 +11639,258 @@
       </c>
     </row>
     <row r="113" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="19">
+      <c r="B113" s="21">
         <v>4</v>
       </c>
       <c r="C113" s="6">
         <v>0</v>
       </c>
-      <c r="D113" s="21">
+      <c r="D113" s="22">
         <f>SUM(C113:C119)/7</f>
         <v>13.428571428571429</v>
       </c>
-      <c r="F113" s="19">
+      <c r="F113" s="21">
         <v>4</v>
       </c>
       <c r="G113" s="6">
         <v>15</v>
       </c>
-      <c r="H113" s="21">
+      <c r="H113" s="22">
         <f>SUM(G113:G119)/7</f>
         <v>13.428571428571429</v>
       </c>
-      <c r="J113" s="19">
+      <c r="J113" s="21">
         <v>4</v>
       </c>
       <c r="K113" s="6">
         <v>0</v>
       </c>
-      <c r="L113" s="21">
+      <c r="L113" s="22">
         <f>SUM(K113:K119)/7</f>
         <v>13.285714285714286</v>
       </c>
-      <c r="N113" s="19">
+      <c r="N113" s="21">
         <v>4</v>
       </c>
       <c r="O113" s="6">
         <v>16</v>
       </c>
-      <c r="P113" s="21">
+      <c r="P113" s="22">
         <f>SUM(O113:O119)/7</f>
         <v>13.428571428571429</v>
       </c>
-      <c r="R113" s="19">
+      <c r="R113" s="21">
         <v>4</v>
       </c>
       <c r="S113" s="6">
         <v>15</v>
       </c>
-      <c r="T113" s="21">
+      <c r="T113" s="22">
         <f>SUM(S113:S119)/7</f>
         <v>17.857142857142858</v>
       </c>
-      <c r="V113" s="19">
+      <c r="V113" s="21">
         <v>4</v>
       </c>
       <c r="W113" s="6">
         <v>15</v>
       </c>
-      <c r="X113" s="21">
+      <c r="X113" s="22">
         <f>SUM(W113:W119)/7</f>
         <v>20</v>
       </c>
     </row>
     <row r="114" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="20"/>
+      <c r="B114" s="16"/>
       <c r="C114" s="5">
         <v>15</v>
       </c>
-      <c r="D114" s="22"/>
-      <c r="F114" s="20"/>
+      <c r="D114" s="17"/>
+      <c r="F114" s="16"/>
       <c r="G114" s="5">
         <v>16</v>
       </c>
-      <c r="H114" s="22"/>
-      <c r="J114" s="20"/>
+      <c r="H114" s="17"/>
+      <c r="J114" s="16"/>
       <c r="K114" s="5">
         <v>15</v>
       </c>
-      <c r="L114" s="22"/>
-      <c r="N114" s="20"/>
+      <c r="L114" s="17"/>
+      <c r="N114" s="16"/>
       <c r="O114" s="5">
         <v>0</v>
       </c>
-      <c r="P114" s="22"/>
-      <c r="R114" s="20"/>
+      <c r="P114" s="17"/>
+      <c r="R114" s="16"/>
       <c r="S114" s="5">
         <v>16</v>
       </c>
-      <c r="T114" s="22"/>
-      <c r="V114" s="20"/>
+      <c r="T114" s="17"/>
+      <c r="V114" s="16"/>
       <c r="W114" s="5">
         <v>32</v>
       </c>
-      <c r="X114" s="22"/>
+      <c r="X114" s="17"/>
     </row>
     <row r="115" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="20"/>
+      <c r="B115" s="16"/>
       <c r="C115" s="5">
         <v>16</v>
       </c>
-      <c r="D115" s="22"/>
-      <c r="F115" s="20"/>
+      <c r="D115" s="17"/>
+      <c r="F115" s="16"/>
       <c r="G115" s="5">
         <v>16</v>
       </c>
-      <c r="H115" s="22"/>
-      <c r="J115" s="20"/>
+      <c r="H115" s="17"/>
+      <c r="J115" s="16"/>
       <c r="K115" s="5">
         <v>16</v>
       </c>
-      <c r="L115" s="22"/>
-      <c r="N115" s="20"/>
+      <c r="L115" s="17"/>
+      <c r="N115" s="16"/>
       <c r="O115" s="5">
         <v>16</v>
       </c>
-      <c r="P115" s="22"/>
-      <c r="R115" s="20"/>
+      <c r="P115" s="17"/>
+      <c r="R115" s="16"/>
       <c r="S115" s="5">
         <v>16</v>
       </c>
-      <c r="T115" s="22"/>
-      <c r="V115" s="20"/>
+      <c r="T115" s="17"/>
+      <c r="V115" s="16"/>
       <c r="W115" s="5">
         <v>15</v>
       </c>
-      <c r="X115" s="22"/>
+      <c r="X115" s="17"/>
     </row>
     <row r="116" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="20"/>
+      <c r="B116" s="16"/>
       <c r="C116" s="5">
         <v>16</v>
       </c>
-      <c r="D116" s="22"/>
-      <c r="F116" s="20"/>
+      <c r="D116" s="17"/>
+      <c r="F116" s="16"/>
       <c r="G116" s="5">
         <v>15</v>
       </c>
-      <c r="H116" s="22"/>
-      <c r="J116" s="20"/>
+      <c r="H116" s="17"/>
+      <c r="J116" s="16"/>
       <c r="K116" s="5">
         <v>15</v>
       </c>
-      <c r="L116" s="22"/>
-      <c r="N116" s="20"/>
+      <c r="L116" s="17"/>
+      <c r="N116" s="16"/>
       <c r="O116" s="5">
         <v>15</v>
       </c>
-      <c r="P116" s="22"/>
-      <c r="R116" s="20"/>
+      <c r="P116" s="17"/>
+      <c r="R116" s="16"/>
       <c r="S116" s="5">
         <v>15</v>
       </c>
-      <c r="T116" s="22"/>
-      <c r="V116" s="20"/>
+      <c r="T116" s="17"/>
+      <c r="V116" s="16"/>
       <c r="W116" s="5">
         <v>16</v>
       </c>
-      <c r="X116" s="22"/>
+      <c r="X116" s="17"/>
     </row>
     <row r="117" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="20"/>
+      <c r="B117" s="16"/>
       <c r="C117" s="5">
         <v>15</v>
       </c>
-      <c r="D117" s="22"/>
-      <c r="F117" s="20"/>
+      <c r="D117" s="17"/>
+      <c r="F117" s="16"/>
       <c r="G117" s="5">
         <v>0</v>
       </c>
-      <c r="H117" s="22"/>
-      <c r="J117" s="20"/>
+      <c r="H117" s="17"/>
+      <c r="J117" s="16"/>
       <c r="K117" s="5">
         <v>32</v>
       </c>
-      <c r="L117" s="22"/>
-      <c r="N117" s="20"/>
+      <c r="L117" s="17"/>
+      <c r="N117" s="16"/>
       <c r="O117" s="5">
         <v>16</v>
       </c>
-      <c r="P117" s="22"/>
-      <c r="R117" s="20"/>
+      <c r="P117" s="17"/>
+      <c r="R117" s="16"/>
       <c r="S117" s="5">
         <v>16</v>
       </c>
-      <c r="T117" s="22"/>
-      <c r="V117" s="20"/>
+      <c r="T117" s="17"/>
+      <c r="V117" s="16"/>
       <c r="W117" s="5">
         <v>31</v>
       </c>
-      <c r="X117" s="22"/>
+      <c r="X117" s="17"/>
     </row>
     <row r="118" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="20"/>
+      <c r="B118" s="16"/>
       <c r="C118" s="5">
         <v>16</v>
       </c>
-      <c r="D118" s="22"/>
-      <c r="F118" s="20"/>
+      <c r="D118" s="17"/>
+      <c r="F118" s="16"/>
       <c r="G118" s="5">
         <v>16</v>
       </c>
-      <c r="H118" s="22"/>
-      <c r="J118" s="20"/>
+      <c r="H118" s="17"/>
+      <c r="J118" s="16"/>
       <c r="K118" s="5">
         <v>15</v>
       </c>
-      <c r="L118" s="22"/>
-      <c r="N118" s="20"/>
+      <c r="L118" s="17"/>
+      <c r="N118" s="16"/>
       <c r="O118" s="5">
         <v>16</v>
       </c>
-      <c r="P118" s="22"/>
-      <c r="R118" s="20"/>
+      <c r="P118" s="17"/>
+      <c r="R118" s="16"/>
       <c r="S118" s="5">
         <v>15</v>
       </c>
-      <c r="T118" s="22"/>
-      <c r="V118" s="20"/>
+      <c r="T118" s="17"/>
+      <c r="V118" s="16"/>
       <c r="W118" s="5">
         <v>16</v>
       </c>
-      <c r="X118" s="22"/>
+      <c r="X118" s="17"/>
     </row>
     <row r="119" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="20"/>
+      <c r="B119" s="16"/>
       <c r="C119" s="5">
         <v>16</v>
       </c>
-      <c r="D119" s="22"/>
-      <c r="F119" s="20"/>
+      <c r="D119" s="17"/>
+      <c r="F119" s="16"/>
       <c r="G119" s="5">
         <v>16</v>
       </c>
-      <c r="H119" s="22"/>
-      <c r="J119" s="20"/>
+      <c r="H119" s="17"/>
+      <c r="J119" s="16"/>
       <c r="K119" s="5">
         <v>0</v>
       </c>
-      <c r="L119" s="22"/>
-      <c r="N119" s="20"/>
+      <c r="L119" s="17"/>
+      <c r="N119" s="16"/>
       <c r="O119" s="5">
         <v>15</v>
       </c>
-      <c r="P119" s="22"/>
-      <c r="R119" s="20"/>
+      <c r="P119" s="17"/>
+      <c r="R119" s="16"/>
       <c r="S119" s="5">
         <v>32</v>
       </c>
-      <c r="T119" s="22"/>
-      <c r="V119" s="20"/>
+      <c r="T119" s="17"/>
+      <c r="V119" s="16"/>
       <c r="W119" s="5">
         <v>15</v>
       </c>
-      <c r="X119" s="22"/>
+      <c r="X119" s="17"/>
     </row>
     <row r="120" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="12">
@@ -8760,194 +12147,194 @@
       <c r="X126" s="14"/>
     </row>
     <row r="127" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="20">
+      <c r="B127" s="16">
         <v>6</v>
       </c>
       <c r="C127" s="5">
         <v>109</v>
       </c>
-      <c r="D127" s="22">
+      <c r="D127" s="17">
         <f>SUM(C127:C131)/5</f>
         <v>125</v>
       </c>
-      <c r="F127" s="20">
+      <c r="F127" s="16">
         <v>6</v>
       </c>
       <c r="G127" s="5">
         <v>141</v>
       </c>
-      <c r="H127" s="22">
+      <c r="H127" s="17">
         <f>SUM(G127:G131)/5</f>
         <v>131.4</v>
       </c>
-      <c r="J127" s="20">
+      <c r="J127" s="16">
         <v>6</v>
       </c>
       <c r="K127" s="5">
         <v>125</v>
       </c>
-      <c r="L127" s="22">
+      <c r="L127" s="17">
         <f>SUM(K127:K131)/5</f>
         <v>125</v>
       </c>
-      <c r="N127" s="20">
+      <c r="N127" s="16">
         <v>6</v>
       </c>
       <c r="O127" s="5">
         <v>125</v>
       </c>
-      <c r="P127" s="22">
+      <c r="P127" s="17">
         <f>SUM(O127:O131)/5</f>
         <v>134.4</v>
       </c>
-      <c r="R127" s="20">
+      <c r="R127" s="16">
         <v>6</v>
       </c>
       <c r="S127" s="5">
         <v>110</v>
       </c>
-      <c r="T127" s="22">
+      <c r="T127" s="17">
         <f>SUM(S127:S131)/5</f>
         <v>122</v>
       </c>
-      <c r="V127" s="20">
+      <c r="V127" s="16">
         <v>6</v>
       </c>
       <c r="W127" s="5">
         <v>125</v>
       </c>
-      <c r="X127" s="22">
+      <c r="X127" s="17">
         <f>SUM(W127:W131)/5</f>
         <v>122</v>
       </c>
     </row>
     <row r="128" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="20"/>
+      <c r="B128" s="16"/>
       <c r="C128" s="5">
         <v>110</v>
       </c>
-      <c r="D128" s="22"/>
-      <c r="F128" s="20"/>
+      <c r="D128" s="17"/>
+      <c r="F128" s="16"/>
       <c r="G128" s="5">
         <v>156</v>
       </c>
-      <c r="H128" s="22"/>
-      <c r="J128" s="20"/>
+      <c r="H128" s="17"/>
+      <c r="J128" s="16"/>
       <c r="K128" s="5">
         <v>109</v>
       </c>
-      <c r="L128" s="22"/>
-      <c r="N128" s="20"/>
+      <c r="L128" s="17"/>
+      <c r="N128" s="16"/>
       <c r="O128" s="5">
         <v>125</v>
       </c>
-      <c r="P128" s="22"/>
-      <c r="R128" s="20"/>
+      <c r="P128" s="17"/>
+      <c r="R128" s="16"/>
       <c r="S128" s="5">
         <v>125</v>
       </c>
-      <c r="T128" s="22"/>
-      <c r="V128" s="20"/>
+      <c r="T128" s="17"/>
+      <c r="V128" s="16"/>
       <c r="W128" s="5">
         <v>110</v>
       </c>
-      <c r="X128" s="22"/>
+      <c r="X128" s="17"/>
     </row>
     <row r="129" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="20"/>
+      <c r="B129" s="16"/>
       <c r="C129" s="5">
         <v>109</v>
       </c>
-      <c r="D129" s="22"/>
-      <c r="F129" s="20"/>
+      <c r="D129" s="17"/>
+      <c r="F129" s="16"/>
       <c r="G129" s="5">
         <v>125</v>
       </c>
-      <c r="H129" s="22"/>
-      <c r="J129" s="20"/>
+      <c r="H129" s="17"/>
+      <c r="J129" s="16"/>
       <c r="K129" s="5">
         <v>125</v>
       </c>
-      <c r="L129" s="22"/>
-      <c r="N129" s="20"/>
+      <c r="L129" s="17"/>
+      <c r="N129" s="16"/>
       <c r="O129" s="5">
         <v>125</v>
       </c>
-      <c r="P129" s="22"/>
-      <c r="R129" s="20"/>
+      <c r="P129" s="17"/>
+      <c r="R129" s="16"/>
       <c r="S129" s="5">
         <v>125</v>
       </c>
-      <c r="T129" s="22"/>
-      <c r="V129" s="20"/>
+      <c r="T129" s="17"/>
+      <c r="V129" s="16"/>
       <c r="W129" s="5">
         <v>125</v>
       </c>
-      <c r="X129" s="22"/>
+      <c r="X129" s="17"/>
     </row>
     <row r="130" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="20"/>
+      <c r="B130" s="16"/>
       <c r="C130" s="5">
         <v>141</v>
       </c>
-      <c r="D130" s="22"/>
-      <c r="F130" s="20"/>
+      <c r="D130" s="17"/>
+      <c r="F130" s="16"/>
       <c r="G130" s="5">
         <v>110</v>
       </c>
-      <c r="H130" s="22"/>
-      <c r="J130" s="20"/>
+      <c r="H130" s="17"/>
+      <c r="J130" s="16"/>
       <c r="K130" s="5">
         <v>125</v>
       </c>
-      <c r="L130" s="22"/>
-      <c r="N130" s="20"/>
+      <c r="L130" s="17"/>
+      <c r="N130" s="16"/>
       <c r="O130" s="5">
         <v>125</v>
       </c>
-      <c r="P130" s="22"/>
-      <c r="R130" s="20"/>
+      <c r="P130" s="17"/>
+      <c r="R130" s="16"/>
       <c r="S130" s="5">
         <v>125</v>
       </c>
-      <c r="T130" s="22"/>
-      <c r="V130" s="20"/>
+      <c r="T130" s="17"/>
+      <c r="V130" s="16"/>
       <c r="W130" s="5">
         <v>125</v>
       </c>
-      <c r="X130" s="22"/>
+      <c r="X130" s="17"/>
     </row>
     <row r="131" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="20"/>
+      <c r="B131" s="16"/>
       <c r="C131" s="5">
         <v>156</v>
       </c>
-      <c r="D131" s="22"/>
-      <c r="F131" s="20"/>
+      <c r="D131" s="17"/>
+      <c r="F131" s="16"/>
       <c r="G131" s="5">
         <v>125</v>
       </c>
-      <c r="H131" s="22"/>
-      <c r="J131" s="20"/>
+      <c r="H131" s="17"/>
+      <c r="J131" s="16"/>
       <c r="K131" s="5">
         <v>141</v>
       </c>
-      <c r="L131" s="22"/>
-      <c r="N131" s="20"/>
+      <c r="L131" s="17"/>
+      <c r="N131" s="16"/>
       <c r="O131" s="5">
         <v>172</v>
       </c>
-      <c r="P131" s="22"/>
-      <c r="R131" s="20"/>
+      <c r="P131" s="17"/>
+      <c r="R131" s="16"/>
       <c r="S131" s="5">
         <v>125</v>
       </c>
-      <c r="T131" s="22"/>
-      <c r="V131" s="20"/>
+      <c r="T131" s="17"/>
+      <c r="V131" s="16"/>
       <c r="W131" s="5">
         <v>125</v>
       </c>
-      <c r="X131" s="22"/>
+      <c r="X131" s="17"/>
     </row>
     <row r="132" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="12">
@@ -9109,260 +12496,6 @@
     </row>
   </sheetData>
   <mergeCells count="270">
-    <mergeCell ref="N132:N135"/>
-    <mergeCell ref="P132:P135"/>
-    <mergeCell ref="R132:R135"/>
-    <mergeCell ref="T132:T135"/>
-    <mergeCell ref="V132:V135"/>
-    <mergeCell ref="X132:X135"/>
-    <mergeCell ref="N127:N131"/>
-    <mergeCell ref="P127:P131"/>
-    <mergeCell ref="R127:R131"/>
-    <mergeCell ref="T127:T131"/>
-    <mergeCell ref="V127:V131"/>
-    <mergeCell ref="X127:X131"/>
-    <mergeCell ref="N120:N126"/>
-    <mergeCell ref="P120:P126"/>
-    <mergeCell ref="R120:R126"/>
-    <mergeCell ref="T120:T126"/>
-    <mergeCell ref="V120:V126"/>
-    <mergeCell ref="X120:X126"/>
-    <mergeCell ref="N110:P110"/>
-    <mergeCell ref="R110:T110"/>
-    <mergeCell ref="V110:X110"/>
-    <mergeCell ref="N113:N119"/>
-    <mergeCell ref="P113:P119"/>
-    <mergeCell ref="R113:R119"/>
-    <mergeCell ref="T113:T119"/>
-    <mergeCell ref="V113:V119"/>
-    <mergeCell ref="X113:X119"/>
-    <mergeCell ref="N105:N108"/>
-    <mergeCell ref="P105:P108"/>
-    <mergeCell ref="R105:R108"/>
-    <mergeCell ref="T105:T108"/>
-    <mergeCell ref="V105:V108"/>
-    <mergeCell ref="X105:X108"/>
-    <mergeCell ref="N100:N104"/>
-    <mergeCell ref="P100:P104"/>
-    <mergeCell ref="R100:R104"/>
-    <mergeCell ref="T100:T104"/>
-    <mergeCell ref="V100:V104"/>
-    <mergeCell ref="X100:X104"/>
-    <mergeCell ref="N93:N99"/>
-    <mergeCell ref="P93:P99"/>
-    <mergeCell ref="R93:R99"/>
-    <mergeCell ref="T93:T99"/>
-    <mergeCell ref="V93:V99"/>
-    <mergeCell ref="X93:X99"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="R83:T83"/>
-    <mergeCell ref="V83:X83"/>
-    <mergeCell ref="N86:N92"/>
-    <mergeCell ref="P86:P92"/>
-    <mergeCell ref="R86:R92"/>
-    <mergeCell ref="T86:T92"/>
-    <mergeCell ref="V86:V92"/>
-    <mergeCell ref="X86:X92"/>
-    <mergeCell ref="N78:N81"/>
-    <mergeCell ref="P78:P81"/>
-    <mergeCell ref="R78:R81"/>
-    <mergeCell ref="T78:T81"/>
-    <mergeCell ref="V78:V81"/>
-    <mergeCell ref="X78:X81"/>
-    <mergeCell ref="N73:N77"/>
-    <mergeCell ref="P73:P77"/>
-    <mergeCell ref="R73:R77"/>
-    <mergeCell ref="T73:T77"/>
-    <mergeCell ref="V73:V77"/>
-    <mergeCell ref="X73:X77"/>
-    <mergeCell ref="N66:N72"/>
-    <mergeCell ref="P66:P72"/>
-    <mergeCell ref="R66:R72"/>
-    <mergeCell ref="T66:T72"/>
-    <mergeCell ref="V66:V72"/>
-    <mergeCell ref="X66:X72"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="R56:T56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="N59:N65"/>
-    <mergeCell ref="P59:P65"/>
-    <mergeCell ref="R59:R65"/>
-    <mergeCell ref="T59:T65"/>
-    <mergeCell ref="V59:V65"/>
-    <mergeCell ref="X59:X65"/>
-    <mergeCell ref="N51:N54"/>
-    <mergeCell ref="P51:P54"/>
-    <mergeCell ref="R51:R54"/>
-    <mergeCell ref="T51:T54"/>
-    <mergeCell ref="V51:V54"/>
-    <mergeCell ref="X51:X54"/>
-    <mergeCell ref="N46:N50"/>
-    <mergeCell ref="P46:P50"/>
-    <mergeCell ref="R46:R50"/>
-    <mergeCell ref="T46:T50"/>
-    <mergeCell ref="V46:V50"/>
-    <mergeCell ref="X46:X50"/>
-    <mergeCell ref="N39:N45"/>
-    <mergeCell ref="P39:P45"/>
-    <mergeCell ref="R39:R45"/>
-    <mergeCell ref="T39:T45"/>
-    <mergeCell ref="V39:V45"/>
-    <mergeCell ref="X39:X45"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="N32:N38"/>
-    <mergeCell ref="P32:P38"/>
-    <mergeCell ref="R32:R38"/>
-    <mergeCell ref="T32:T38"/>
-    <mergeCell ref="V32:V38"/>
-    <mergeCell ref="X32:X38"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="T24:T27"/>
-    <mergeCell ref="V24:V27"/>
-    <mergeCell ref="X24:X27"/>
-    <mergeCell ref="N19:N23"/>
-    <mergeCell ref="P19:P23"/>
-    <mergeCell ref="R19:R23"/>
-    <mergeCell ref="T19:T23"/>
-    <mergeCell ref="V19:V23"/>
-    <mergeCell ref="X19:X23"/>
-    <mergeCell ref="N12:N18"/>
-    <mergeCell ref="P12:P18"/>
-    <mergeCell ref="R12:R18"/>
-    <mergeCell ref="T12:T18"/>
-    <mergeCell ref="V12:V18"/>
-    <mergeCell ref="X12:X18"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="N5:N11"/>
-    <mergeCell ref="P5:P11"/>
-    <mergeCell ref="R5:R11"/>
-    <mergeCell ref="T5:T11"/>
-    <mergeCell ref="V5:V11"/>
-    <mergeCell ref="X5:X11"/>
-    <mergeCell ref="B132:B135"/>
-    <mergeCell ref="D132:D135"/>
-    <mergeCell ref="F132:F135"/>
-    <mergeCell ref="H132:H135"/>
-    <mergeCell ref="J132:J135"/>
-    <mergeCell ref="L132:L135"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="D127:D131"/>
-    <mergeCell ref="F127:F131"/>
-    <mergeCell ref="H127:H131"/>
-    <mergeCell ref="J127:J131"/>
-    <mergeCell ref="L127:L131"/>
-    <mergeCell ref="B120:B126"/>
-    <mergeCell ref="D120:D126"/>
-    <mergeCell ref="F120:F126"/>
-    <mergeCell ref="H120:H126"/>
-    <mergeCell ref="J120:J126"/>
-    <mergeCell ref="L120:L126"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="F110:H110"/>
-    <mergeCell ref="J110:L110"/>
-    <mergeCell ref="B113:B119"/>
-    <mergeCell ref="D113:D119"/>
-    <mergeCell ref="F113:F119"/>
-    <mergeCell ref="H113:H119"/>
-    <mergeCell ref="J113:J119"/>
-    <mergeCell ref="L113:L119"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="D105:D108"/>
-    <mergeCell ref="F105:F108"/>
-    <mergeCell ref="H105:H108"/>
-    <mergeCell ref="J105:J108"/>
-    <mergeCell ref="L105:L108"/>
-    <mergeCell ref="B100:B104"/>
-    <mergeCell ref="D100:D104"/>
-    <mergeCell ref="F100:F104"/>
-    <mergeCell ref="H100:H104"/>
-    <mergeCell ref="J100:J104"/>
-    <mergeCell ref="L100:L104"/>
-    <mergeCell ref="B93:B99"/>
-    <mergeCell ref="D93:D99"/>
-    <mergeCell ref="F93:F99"/>
-    <mergeCell ref="H93:H99"/>
-    <mergeCell ref="J93:J99"/>
-    <mergeCell ref="L93:L99"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="J83:L83"/>
-    <mergeCell ref="B86:B92"/>
-    <mergeCell ref="D86:D92"/>
-    <mergeCell ref="F86:F92"/>
-    <mergeCell ref="H86:H92"/>
-    <mergeCell ref="J86:J92"/>
-    <mergeCell ref="L86:L92"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="J78:J81"/>
-    <mergeCell ref="L78:L81"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="D73:D77"/>
-    <mergeCell ref="F73:F77"/>
-    <mergeCell ref="H73:H77"/>
-    <mergeCell ref="J73:J77"/>
-    <mergeCell ref="L73:L77"/>
-    <mergeCell ref="B66:B72"/>
-    <mergeCell ref="D66:D72"/>
-    <mergeCell ref="F66:F72"/>
-    <mergeCell ref="H66:H72"/>
-    <mergeCell ref="J66:J72"/>
-    <mergeCell ref="L66:L72"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="B59:B65"/>
-    <mergeCell ref="D59:D65"/>
-    <mergeCell ref="F59:F65"/>
-    <mergeCell ref="H59:H65"/>
-    <mergeCell ref="J59:J65"/>
-    <mergeCell ref="L59:L65"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="F51:F54"/>
-    <mergeCell ref="H51:H54"/>
-    <mergeCell ref="J51:J54"/>
-    <mergeCell ref="L51:L54"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="D46:D50"/>
-    <mergeCell ref="F46:F50"/>
-    <mergeCell ref="H46:H50"/>
-    <mergeCell ref="J46:J50"/>
-    <mergeCell ref="L46:L50"/>
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="D39:D45"/>
-    <mergeCell ref="F39:F45"/>
-    <mergeCell ref="H39:H45"/>
-    <mergeCell ref="J39:J45"/>
-    <mergeCell ref="L39:L45"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="D32:D38"/>
-    <mergeCell ref="F32:F38"/>
-    <mergeCell ref="H32:H38"/>
-    <mergeCell ref="J32:J38"/>
-    <mergeCell ref="L32:L38"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J5:J11"/>
-    <mergeCell ref="L5:L11"/>
-    <mergeCell ref="J12:J18"/>
-    <mergeCell ref="L12:L18"/>
-    <mergeCell ref="J19:J23"/>
-    <mergeCell ref="L19:L23"/>
-    <mergeCell ref="J24:J27"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="D24:D27"/>
     <mergeCell ref="B2:D2"/>
@@ -9379,6 +12512,260 @@
     <mergeCell ref="D12:D18"/>
     <mergeCell ref="B19:B23"/>
     <mergeCell ref="D19:D23"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J5:J11"/>
+    <mergeCell ref="L5:L11"/>
+    <mergeCell ref="J12:J18"/>
+    <mergeCell ref="L12:L18"/>
+    <mergeCell ref="J19:J23"/>
+    <mergeCell ref="L19:L23"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="D39:D45"/>
+    <mergeCell ref="F39:F45"/>
+    <mergeCell ref="H39:H45"/>
+    <mergeCell ref="J39:J45"/>
+    <mergeCell ref="L39:L45"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="D32:D38"/>
+    <mergeCell ref="F32:F38"/>
+    <mergeCell ref="H32:H38"/>
+    <mergeCell ref="J32:J38"/>
+    <mergeCell ref="L32:L38"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="H51:H54"/>
+    <mergeCell ref="J51:J54"/>
+    <mergeCell ref="L51:L54"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="F46:F50"/>
+    <mergeCell ref="H46:H50"/>
+    <mergeCell ref="J46:J50"/>
+    <mergeCell ref="L46:L50"/>
+    <mergeCell ref="B66:B72"/>
+    <mergeCell ref="D66:D72"/>
+    <mergeCell ref="F66:F72"/>
+    <mergeCell ref="H66:H72"/>
+    <mergeCell ref="J66:J72"/>
+    <mergeCell ref="L66:L72"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="D59:D65"/>
+    <mergeCell ref="F59:F65"/>
+    <mergeCell ref="H59:H65"/>
+    <mergeCell ref="J59:J65"/>
+    <mergeCell ref="L59:L65"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="J78:J81"/>
+    <mergeCell ref="L78:L81"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="D73:D77"/>
+    <mergeCell ref="F73:F77"/>
+    <mergeCell ref="H73:H77"/>
+    <mergeCell ref="J73:J77"/>
+    <mergeCell ref="L73:L77"/>
+    <mergeCell ref="B93:B99"/>
+    <mergeCell ref="D93:D99"/>
+    <mergeCell ref="F93:F99"/>
+    <mergeCell ref="H93:H99"/>
+    <mergeCell ref="J93:J99"/>
+    <mergeCell ref="L93:L99"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="J83:L83"/>
+    <mergeCell ref="B86:B92"/>
+    <mergeCell ref="D86:D92"/>
+    <mergeCell ref="F86:F92"/>
+    <mergeCell ref="H86:H92"/>
+    <mergeCell ref="J86:J92"/>
+    <mergeCell ref="L86:L92"/>
+    <mergeCell ref="B105:B108"/>
+    <mergeCell ref="D105:D108"/>
+    <mergeCell ref="F105:F108"/>
+    <mergeCell ref="H105:H108"/>
+    <mergeCell ref="J105:J108"/>
+    <mergeCell ref="L105:L108"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="D100:D104"/>
+    <mergeCell ref="F100:F104"/>
+    <mergeCell ref="H100:H104"/>
+    <mergeCell ref="J100:J104"/>
+    <mergeCell ref="L100:L104"/>
+    <mergeCell ref="B120:B126"/>
+    <mergeCell ref="D120:D126"/>
+    <mergeCell ref="F120:F126"/>
+    <mergeCell ref="H120:H126"/>
+    <mergeCell ref="J120:J126"/>
+    <mergeCell ref="L120:L126"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="J110:L110"/>
+    <mergeCell ref="B113:B119"/>
+    <mergeCell ref="D113:D119"/>
+    <mergeCell ref="F113:F119"/>
+    <mergeCell ref="H113:H119"/>
+    <mergeCell ref="J113:J119"/>
+    <mergeCell ref="L113:L119"/>
+    <mergeCell ref="B132:B135"/>
+    <mergeCell ref="D132:D135"/>
+    <mergeCell ref="F132:F135"/>
+    <mergeCell ref="H132:H135"/>
+    <mergeCell ref="J132:J135"/>
+    <mergeCell ref="L132:L135"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="D127:D131"/>
+    <mergeCell ref="F127:F131"/>
+    <mergeCell ref="H127:H131"/>
+    <mergeCell ref="J127:J131"/>
+    <mergeCell ref="L127:L131"/>
+    <mergeCell ref="N12:N18"/>
+    <mergeCell ref="P12:P18"/>
+    <mergeCell ref="R12:R18"/>
+    <mergeCell ref="T12:T18"/>
+    <mergeCell ref="V12:V18"/>
+    <mergeCell ref="X12:X18"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="N5:N11"/>
+    <mergeCell ref="P5:P11"/>
+    <mergeCell ref="R5:R11"/>
+    <mergeCell ref="T5:T11"/>
+    <mergeCell ref="V5:V11"/>
+    <mergeCell ref="X5:X11"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="T24:T27"/>
+    <mergeCell ref="V24:V27"/>
+    <mergeCell ref="X24:X27"/>
+    <mergeCell ref="N19:N23"/>
+    <mergeCell ref="P19:P23"/>
+    <mergeCell ref="R19:R23"/>
+    <mergeCell ref="T19:T23"/>
+    <mergeCell ref="V19:V23"/>
+    <mergeCell ref="X19:X23"/>
+    <mergeCell ref="N39:N45"/>
+    <mergeCell ref="P39:P45"/>
+    <mergeCell ref="R39:R45"/>
+    <mergeCell ref="T39:T45"/>
+    <mergeCell ref="V39:V45"/>
+    <mergeCell ref="X39:X45"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="N32:N38"/>
+    <mergeCell ref="P32:P38"/>
+    <mergeCell ref="R32:R38"/>
+    <mergeCell ref="T32:T38"/>
+    <mergeCell ref="V32:V38"/>
+    <mergeCell ref="X32:X38"/>
+    <mergeCell ref="N51:N54"/>
+    <mergeCell ref="P51:P54"/>
+    <mergeCell ref="R51:R54"/>
+    <mergeCell ref="T51:T54"/>
+    <mergeCell ref="V51:V54"/>
+    <mergeCell ref="X51:X54"/>
+    <mergeCell ref="N46:N50"/>
+    <mergeCell ref="P46:P50"/>
+    <mergeCell ref="R46:R50"/>
+    <mergeCell ref="T46:T50"/>
+    <mergeCell ref="V46:V50"/>
+    <mergeCell ref="X46:X50"/>
+    <mergeCell ref="N66:N72"/>
+    <mergeCell ref="P66:P72"/>
+    <mergeCell ref="R66:R72"/>
+    <mergeCell ref="T66:T72"/>
+    <mergeCell ref="V66:V72"/>
+    <mergeCell ref="X66:X72"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="R56:T56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="N59:N65"/>
+    <mergeCell ref="P59:P65"/>
+    <mergeCell ref="R59:R65"/>
+    <mergeCell ref="T59:T65"/>
+    <mergeCell ref="V59:V65"/>
+    <mergeCell ref="X59:X65"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="P78:P81"/>
+    <mergeCell ref="R78:R81"/>
+    <mergeCell ref="T78:T81"/>
+    <mergeCell ref="V78:V81"/>
+    <mergeCell ref="X78:X81"/>
+    <mergeCell ref="N73:N77"/>
+    <mergeCell ref="P73:P77"/>
+    <mergeCell ref="R73:R77"/>
+    <mergeCell ref="T73:T77"/>
+    <mergeCell ref="V73:V77"/>
+    <mergeCell ref="X73:X77"/>
+    <mergeCell ref="N93:N99"/>
+    <mergeCell ref="P93:P99"/>
+    <mergeCell ref="R93:R99"/>
+    <mergeCell ref="T93:T99"/>
+    <mergeCell ref="V93:V99"/>
+    <mergeCell ref="X93:X99"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="R83:T83"/>
+    <mergeCell ref="V83:X83"/>
+    <mergeCell ref="N86:N92"/>
+    <mergeCell ref="P86:P92"/>
+    <mergeCell ref="R86:R92"/>
+    <mergeCell ref="T86:T92"/>
+    <mergeCell ref="V86:V92"/>
+    <mergeCell ref="X86:X92"/>
+    <mergeCell ref="N105:N108"/>
+    <mergeCell ref="P105:P108"/>
+    <mergeCell ref="R105:R108"/>
+    <mergeCell ref="T105:T108"/>
+    <mergeCell ref="V105:V108"/>
+    <mergeCell ref="X105:X108"/>
+    <mergeCell ref="N100:N104"/>
+    <mergeCell ref="P100:P104"/>
+    <mergeCell ref="R100:R104"/>
+    <mergeCell ref="T100:T104"/>
+    <mergeCell ref="V100:V104"/>
+    <mergeCell ref="X100:X104"/>
+    <mergeCell ref="N120:N126"/>
+    <mergeCell ref="P120:P126"/>
+    <mergeCell ref="R120:R126"/>
+    <mergeCell ref="T120:T126"/>
+    <mergeCell ref="V120:V126"/>
+    <mergeCell ref="X120:X126"/>
+    <mergeCell ref="N110:P110"/>
+    <mergeCell ref="R110:T110"/>
+    <mergeCell ref="V110:X110"/>
+    <mergeCell ref="N113:N119"/>
+    <mergeCell ref="P113:P119"/>
+    <mergeCell ref="R113:R119"/>
+    <mergeCell ref="T113:T119"/>
+    <mergeCell ref="V113:V119"/>
+    <mergeCell ref="X113:X119"/>
+    <mergeCell ref="N132:N135"/>
+    <mergeCell ref="P132:P135"/>
+    <mergeCell ref="R132:R135"/>
+    <mergeCell ref="T132:T135"/>
+    <mergeCell ref="V132:V135"/>
+    <mergeCell ref="X132:X135"/>
+    <mergeCell ref="N127:N131"/>
+    <mergeCell ref="P127:P131"/>
+    <mergeCell ref="R127:R131"/>
+    <mergeCell ref="T127:T131"/>
+    <mergeCell ref="V127:V131"/>
+    <mergeCell ref="X127:X131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9389,8 +12776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF0B77F-6DCE-4264-AB89-6BB57A1E05F2}">
   <dimension ref="B2:AF6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9422,81 +12809,81 @@
       <c r="H2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="L2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="M2" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="P2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="35" t="s">
+      <c r="R2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="35" t="s">
+      <c r="S2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="36" t="s">
+      <c r="T2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="34" t="s">
+      <c r="U2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="35" t="s">
+      <c r="V2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="35" t="s">
+      <c r="W2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="35" t="s">
+      <c r="X2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="35" t="s">
+      <c r="Y2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="36" t="s">
+      <c r="Z2" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="34" t="s">
+      <c r="AA2" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="AB2" s="35" t="s">
+      <c r="AB2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="35" t="s">
+      <c r="AC2" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AD2" s="35" t="s">
+      <c r="AD2" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AE2" s="35" t="s">
+      <c r="AE2" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AF2" s="36" t="s">
+      <c r="AF2" s="30" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28">
+      <c r="B3" s="31">
         <v>4</v>
       </c>
       <c r="C3" s="25">
@@ -9621,376 +13008,376 @@
       </c>
     </row>
     <row r="4" spans="2:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28">
+      <c r="B4" s="31">
         <v>5</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="31">
         <f>+'1'!$D12</f>
         <v>44.571428571428569</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="32">
         <f>+'1'!$H12</f>
         <v>53.571428571428569</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="32">
         <f>+'1'!$L12</f>
         <v>46.857142857142854</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="32">
         <f>+'1'!$P12</f>
         <v>51.428571428571431</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="32">
         <f>+'1'!$T12</f>
         <v>53.571428571428569</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="33">
         <f>+'1'!$X12</f>
         <v>47</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="31">
         <f>+'1'!$D39</f>
         <v>60.142857142857146</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="32">
         <f>+'1'!$H39</f>
         <v>46.857142857142854</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="32">
         <f>+'1'!$L39</f>
         <v>58</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="32">
         <f>+'1'!$P39</f>
         <v>49.142857142857146</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="32">
         <f>+'1'!$T39</f>
         <v>49.142857142857146</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="33">
         <f>+'1'!$X39</f>
         <v>44.571428571428569</v>
       </c>
-      <c r="O4" s="28">
+      <c r="O4" s="31">
         <f>+'1'!$D66</f>
         <v>51.428571428571431</v>
       </c>
-      <c r="P4" s="29">
+      <c r="P4" s="32">
         <f>+'1'!$H66</f>
         <v>53.571428571428569</v>
       </c>
-      <c r="Q4" s="29">
+      <c r="Q4" s="32">
         <f>+'1'!$L66</f>
         <v>44.571428571428569</v>
       </c>
-      <c r="R4" s="29">
+      <c r="R4" s="32">
         <f>+'1'!$P66</f>
         <v>46.857142857142854</v>
       </c>
-      <c r="S4" s="29">
+      <c r="S4" s="32">
         <f>+'1'!$T66</f>
         <v>58.142857142857146</v>
       </c>
-      <c r="T4" s="30">
+      <c r="T4" s="33">
         <f>+'1'!$X66</f>
         <v>49</v>
       </c>
-      <c r="U4" s="28">
+      <c r="U4" s="31">
         <f>+'1'!$D93</f>
         <v>44.571428571428569</v>
       </c>
-      <c r="V4" s="29">
+      <c r="V4" s="32">
         <f>+'1'!$H93</f>
         <v>49.142857142857146</v>
       </c>
-      <c r="W4" s="29">
+      <c r="W4" s="32">
         <f>+'1'!$L93</f>
         <v>44.714285714285715</v>
       </c>
-      <c r="X4" s="29">
+      <c r="X4" s="32">
         <f>+'1'!$P93</f>
         <v>44.571428571428569</v>
       </c>
-      <c r="Y4" s="29">
+      <c r="Y4" s="32">
         <f>+'1'!$T93</f>
         <v>46.857142857142854</v>
       </c>
-      <c r="Z4" s="30">
+      <c r="Z4" s="33">
         <f>+'1'!$X93</f>
         <v>46.857142857142854</v>
       </c>
-      <c r="AA4" s="28">
+      <c r="AA4" s="31">
         <f>+'1'!$D120</f>
         <v>44.571428571428569</v>
       </c>
-      <c r="AB4" s="29">
+      <c r="AB4" s="32">
         <f>+'1'!$H120</f>
         <v>49</v>
       </c>
-      <c r="AC4" s="29">
+      <c r="AC4" s="32">
         <f>+'1'!$L120</f>
         <v>47</v>
       </c>
-      <c r="AD4" s="29">
+      <c r="AD4" s="32">
         <f>+'1'!$P120</f>
         <v>44.714285714285715</v>
       </c>
-      <c r="AE4" s="29">
+      <c r="AE4" s="32">
         <f>+'1'!$T120</f>
         <v>44.571428571428569</v>
       </c>
-      <c r="AF4" s="30">
+      <c r="AF4" s="33">
         <f>+'1'!$X120</f>
         <v>42.428571428571431</v>
       </c>
     </row>
     <row r="5" spans="2:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="28">
+      <c r="B5" s="31">
         <v>6</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="31">
         <f>+'1'!$D19</f>
         <v>131.4</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="32">
         <f>+'1'!$H19</f>
         <v>128</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="32">
         <f>+'1'!$L19</f>
         <v>131.19999999999999</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="32">
         <f>+'1'!$P19</f>
         <v>140.6</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="32">
         <f>+'1'!$T19</f>
         <v>128.19999999999999</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="33">
         <f>+'1'!$X19</f>
         <v>150</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="31">
         <f>+'1'!$D46</f>
         <v>143.80000000000001</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="32">
         <f>+'1'!$H46</f>
         <v>131.19999999999999</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="32">
         <f>+'1'!$L46</f>
         <v>122</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="32">
         <f>+'1'!$P46</f>
         <v>128</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="32">
         <f>+'1'!$T46</f>
         <v>128</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="33">
         <f>+'1'!$X46</f>
         <v>134.4</v>
       </c>
-      <c r="O5" s="28">
+      <c r="O5" s="31">
         <f>+'1'!$D73</f>
         <v>134.4</v>
       </c>
-      <c r="P5" s="29">
+      <c r="P5" s="32">
         <f>+'1'!$H73</f>
         <v>131.4</v>
       </c>
-      <c r="Q5" s="29">
+      <c r="Q5" s="32">
         <f>+'1'!$L73</f>
         <v>131.4</v>
       </c>
-      <c r="R5" s="29">
+      <c r="R5" s="32">
         <f>+'1'!$P73</f>
         <v>134.4</v>
       </c>
-      <c r="S5" s="29">
+      <c r="S5" s="32">
         <f>+'1'!$T73</f>
         <v>121.8</v>
       </c>
-      <c r="T5" s="30">
+      <c r="T5" s="33">
         <f>+'1'!$X73</f>
         <v>125</v>
       </c>
-      <c r="U5" s="28">
+      <c r="U5" s="31">
         <f>+'1'!$D100</f>
         <v>118.8</v>
       </c>
-      <c r="V5" s="29">
+      <c r="V5" s="32">
         <f>+'1'!$H100</f>
         <v>137.4</v>
       </c>
-      <c r="W5" s="29">
+      <c r="W5" s="32">
         <f>+'1'!$L100</f>
         <v>131.19999999999999</v>
       </c>
-      <c r="X5" s="29">
+      <c r="X5" s="32">
         <f>+'1'!$P100</f>
         <v>131.4</v>
       </c>
-      <c r="Y5" s="29">
+      <c r="Y5" s="32">
         <f>+'1'!$T100</f>
         <v>143.80000000000001</v>
       </c>
-      <c r="Z5" s="30">
+      <c r="Z5" s="33">
         <f>+'1'!$X100</f>
         <v>125</v>
       </c>
-      <c r="AA5" s="28">
+      <c r="AA5" s="31">
         <f>+'1'!$D127</f>
         <v>125</v>
       </c>
-      <c r="AB5" s="29">
+      <c r="AB5" s="32">
         <f>+'1'!$H127</f>
         <v>131.4</v>
       </c>
-      <c r="AC5" s="29">
+      <c r="AC5" s="32">
         <f>+'1'!$L127</f>
         <v>125</v>
       </c>
-      <c r="AD5" s="29">
+      <c r="AD5" s="32">
         <f>+'1'!$P127</f>
         <v>134.4</v>
       </c>
-      <c r="AE5" s="29">
+      <c r="AE5" s="32">
         <f>+'1'!$T127</f>
         <v>122</v>
       </c>
-      <c r="AF5" s="30">
+      <c r="AF5" s="33">
         <f>+'1'!$X127</f>
         <v>122</v>
       </c>
     </row>
     <row r="6" spans="2:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="31">
+      <c r="B6" s="34">
         <v>7</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="34">
         <f>+'1'!$D24</f>
         <v>296.75</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="35">
         <f>+'1'!$H24</f>
         <v>304.75</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="35">
         <f>+'1'!$L24</f>
         <v>347.75</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="35">
         <f>+'1'!$P24</f>
         <v>359.25</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="35">
         <f>+'1'!$T24</f>
         <v>343.75</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="36">
         <f>+'1'!$X24</f>
         <v>320.25</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="34">
         <f>+'1'!$D51</f>
         <v>336</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J6" s="35">
         <f>+'1'!$H51</f>
         <v>301</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="35">
         <f>+'1'!$L51</f>
         <v>277.25</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="35">
         <f>+'1'!$P51</f>
         <v>289</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="35">
         <f>+'1'!$T51</f>
         <v>308.5</v>
       </c>
-      <c r="N6" s="33">
+      <c r="N6" s="36">
         <f>+'1'!$X51</f>
         <v>308.5</v>
       </c>
-      <c r="O6" s="31">
+      <c r="O6" s="34">
         <f>+'1'!$D78</f>
         <v>308.5</v>
       </c>
-      <c r="P6" s="32">
+      <c r="P6" s="35">
         <f>+'1'!$H78</f>
         <v>308.5</v>
       </c>
-      <c r="Q6" s="32">
+      <c r="Q6" s="35">
         <f>+'1'!$L78</f>
         <v>296.75</v>
       </c>
-      <c r="R6" s="32">
+      <c r="R6" s="35">
         <f>+'1'!$P78</f>
         <v>285</v>
       </c>
-      <c r="S6" s="32">
+      <c r="S6" s="35">
         <f>+'1'!$T78</f>
         <v>285.25</v>
       </c>
-      <c r="T6" s="33">
+      <c r="T6" s="36">
         <f>+'1'!$X78</f>
         <v>293</v>
       </c>
-      <c r="U6" s="31">
+      <c r="U6" s="34">
         <f>+'1'!$D105</f>
         <v>281.25</v>
       </c>
-      <c r="V6" s="32">
+      <c r="V6" s="35">
         <f>+'1'!$H105</f>
         <v>300.75</v>
       </c>
-      <c r="W6" s="32">
+      <c r="W6" s="35">
         <f>+'1'!$L105</f>
         <v>312.5</v>
       </c>
-      <c r="X6" s="32">
+      <c r="X6" s="35">
         <f>+'1'!$P105</f>
         <v>300.5</v>
       </c>
-      <c r="Y6" s="32">
+      <c r="Y6" s="35">
         <f>+'1'!$T105</f>
         <v>304.5</v>
       </c>
-      <c r="Z6" s="33">
+      <c r="Z6" s="36">
         <f>+'1'!$X105</f>
         <v>312.5</v>
       </c>
-      <c r="AA6" s="31">
+      <c r="AA6" s="34">
         <f>+'1'!$D132</f>
         <v>300.75</v>
       </c>
-      <c r="AB6" s="32">
+      <c r="AB6" s="35">
         <f>+'1'!$H132</f>
         <v>304.5</v>
       </c>
-      <c r="AC6" s="32">
+      <c r="AC6" s="35">
         <f>+'1'!$L132</f>
         <v>304.5</v>
       </c>
-      <c r="AD6" s="32">
+      <c r="AD6" s="35">
         <f>+'1'!$P132</f>
         <v>300.75</v>
       </c>
-      <c r="AE6" s="32">
+      <c r="AE6" s="35">
         <f>+'1'!$T132</f>
         <v>300.75</v>
       </c>
-      <c r="AF6" s="33">
+      <c r="AF6" s="36">
         <f>+'1'!$X132</f>
         <v>289</v>
       </c>
@@ -9999,4 +13386,1031 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0577EF65-BBBD-4F53-B5BB-051296879D2C}">
+  <dimension ref="B2:AF38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G8" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="23" customWidth="1"/>
+    <col min="3" max="16384" width="22.7109375" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD2" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF2" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="37">
+        <v>4</v>
+      </c>
+      <c r="C3" s="32">
+        <v>13.428571428571429</v>
+      </c>
+      <c r="D3" s="32">
+        <v>20.142857142857142</v>
+      </c>
+      <c r="E3" s="32">
+        <v>13.428571428571429</v>
+      </c>
+      <c r="F3" s="32">
+        <v>17.714285714285715</v>
+      </c>
+      <c r="G3" s="32">
+        <v>17.857142857142858</v>
+      </c>
+      <c r="H3" s="32">
+        <v>17.714285714285715</v>
+      </c>
+      <c r="I3" s="32">
+        <v>13.428571428571429</v>
+      </c>
+      <c r="J3" s="32">
+        <v>26.714285714285715</v>
+      </c>
+      <c r="K3" s="32">
+        <v>20</v>
+      </c>
+      <c r="L3" s="32">
+        <v>18</v>
+      </c>
+      <c r="M3" s="32">
+        <v>15.714285714285714</v>
+      </c>
+      <c r="N3" s="32">
+        <v>15.714285714285714</v>
+      </c>
+      <c r="O3" s="32">
+        <v>11.142857142857142</v>
+      </c>
+      <c r="P3" s="32">
+        <v>13.285714285714286</v>
+      </c>
+      <c r="Q3" s="32">
+        <v>11.142857142857142</v>
+      </c>
+      <c r="R3" s="32">
+        <v>9.7142857142857135</v>
+      </c>
+      <c r="S3" s="32">
+        <v>15.571428571428571</v>
+      </c>
+      <c r="T3" s="32">
+        <v>15.571428571428571</v>
+      </c>
+      <c r="U3" s="32">
+        <v>15.714285714285714</v>
+      </c>
+      <c r="V3" s="32">
+        <v>15.571428571428571</v>
+      </c>
+      <c r="W3" s="32">
+        <v>13.428571428571429</v>
+      </c>
+      <c r="X3" s="32">
+        <v>17.857142857142858</v>
+      </c>
+      <c r="Y3" s="32">
+        <v>15.714285714285714</v>
+      </c>
+      <c r="Z3" s="32">
+        <v>13.428571428571429</v>
+      </c>
+      <c r="AA3" s="32">
+        <v>13.428571428571429</v>
+      </c>
+      <c r="AB3" s="32">
+        <v>13.428571428571429</v>
+      </c>
+      <c r="AC3" s="32">
+        <v>13.285714285714286</v>
+      </c>
+      <c r="AD3" s="32">
+        <v>13.428571428571429</v>
+      </c>
+      <c r="AE3" s="32">
+        <v>17.857142857142858</v>
+      </c>
+      <c r="AF3" s="33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="37">
+        <v>5</v>
+      </c>
+      <c r="C4" s="32">
+        <v>44.571428571428569</v>
+      </c>
+      <c r="D4" s="32">
+        <v>53.571428571428569</v>
+      </c>
+      <c r="E4" s="32">
+        <v>46.857142857142854</v>
+      </c>
+      <c r="F4" s="32">
+        <v>51.428571428571431</v>
+      </c>
+      <c r="G4" s="32">
+        <v>53.571428571428569</v>
+      </c>
+      <c r="H4" s="32">
+        <v>47</v>
+      </c>
+      <c r="I4" s="32">
+        <v>60.142857142857146</v>
+      </c>
+      <c r="J4" s="32">
+        <v>46.857142857142854</v>
+      </c>
+      <c r="K4" s="32">
+        <v>58</v>
+      </c>
+      <c r="L4" s="32">
+        <v>49.142857142857146</v>
+      </c>
+      <c r="M4" s="32">
+        <v>49.142857142857146</v>
+      </c>
+      <c r="N4" s="32">
+        <v>44.571428571428569</v>
+      </c>
+      <c r="O4" s="32">
+        <v>51.428571428571431</v>
+      </c>
+      <c r="P4" s="32">
+        <v>53.571428571428569</v>
+      </c>
+      <c r="Q4" s="32">
+        <v>44.571428571428569</v>
+      </c>
+      <c r="R4" s="32">
+        <v>46.857142857142854</v>
+      </c>
+      <c r="S4" s="32">
+        <v>58.142857142857146</v>
+      </c>
+      <c r="T4" s="32">
+        <v>49</v>
+      </c>
+      <c r="U4" s="32">
+        <v>44.571428571428569</v>
+      </c>
+      <c r="V4" s="32">
+        <v>49.142857142857146</v>
+      </c>
+      <c r="W4" s="32">
+        <v>44.714285714285715</v>
+      </c>
+      <c r="X4" s="32">
+        <v>44.571428571428569</v>
+      </c>
+      <c r="Y4" s="32">
+        <v>46.857142857142854</v>
+      </c>
+      <c r="Z4" s="32">
+        <v>46.857142857142854</v>
+      </c>
+      <c r="AA4" s="32">
+        <v>44.571428571428569</v>
+      </c>
+      <c r="AB4" s="32">
+        <v>49</v>
+      </c>
+      <c r="AC4" s="32">
+        <v>47</v>
+      </c>
+      <c r="AD4" s="32">
+        <v>44.714285714285715</v>
+      </c>
+      <c r="AE4" s="32">
+        <v>44.571428571428569</v>
+      </c>
+      <c r="AF4" s="33">
+        <v>42.428571428571431</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="37">
+        <v>6</v>
+      </c>
+      <c r="C5" s="32">
+        <v>131.4</v>
+      </c>
+      <c r="D5" s="32">
+        <v>128</v>
+      </c>
+      <c r="E5" s="32">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="F5" s="32">
+        <v>140.6</v>
+      </c>
+      <c r="G5" s="32">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="H5" s="32">
+        <v>150</v>
+      </c>
+      <c r="I5" s="32">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="J5" s="32">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="K5" s="32">
+        <v>122</v>
+      </c>
+      <c r="L5" s="32">
+        <v>128</v>
+      </c>
+      <c r="M5" s="32">
+        <v>128</v>
+      </c>
+      <c r="N5" s="32">
+        <v>134.4</v>
+      </c>
+      <c r="O5" s="32">
+        <v>134.4</v>
+      </c>
+      <c r="P5" s="32">
+        <v>131.4</v>
+      </c>
+      <c r="Q5" s="32">
+        <v>131.4</v>
+      </c>
+      <c r="R5" s="32">
+        <v>134.4</v>
+      </c>
+      <c r="S5" s="32">
+        <v>121.8</v>
+      </c>
+      <c r="T5" s="32">
+        <v>125</v>
+      </c>
+      <c r="U5" s="32">
+        <v>118.8</v>
+      </c>
+      <c r="V5" s="32">
+        <v>137.4</v>
+      </c>
+      <c r="W5" s="32">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="X5" s="32">
+        <v>131.4</v>
+      </c>
+      <c r="Y5" s="32">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="Z5" s="32">
+        <v>125</v>
+      </c>
+      <c r="AA5" s="32">
+        <v>125</v>
+      </c>
+      <c r="AB5" s="32">
+        <v>131.4</v>
+      </c>
+      <c r="AC5" s="32">
+        <v>125</v>
+      </c>
+      <c r="AD5" s="32">
+        <v>134.4</v>
+      </c>
+      <c r="AE5" s="32">
+        <v>122</v>
+      </c>
+      <c r="AF5" s="33">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="38">
+        <v>7</v>
+      </c>
+      <c r="C6" s="35">
+        <v>296.75</v>
+      </c>
+      <c r="D6" s="35">
+        <v>304.75</v>
+      </c>
+      <c r="E6" s="35">
+        <v>347.75</v>
+      </c>
+      <c r="F6" s="35">
+        <v>359.25</v>
+      </c>
+      <c r="G6" s="35">
+        <v>343.75</v>
+      </c>
+      <c r="H6" s="35">
+        <v>320.25</v>
+      </c>
+      <c r="I6" s="35">
+        <v>336</v>
+      </c>
+      <c r="J6" s="35">
+        <v>301</v>
+      </c>
+      <c r="K6" s="35">
+        <v>277.25</v>
+      </c>
+      <c r="L6" s="35">
+        <v>289</v>
+      </c>
+      <c r="M6" s="35">
+        <v>308.5</v>
+      </c>
+      <c r="N6" s="35">
+        <v>308.5</v>
+      </c>
+      <c r="O6" s="35">
+        <v>308.5</v>
+      </c>
+      <c r="P6" s="35">
+        <v>308.5</v>
+      </c>
+      <c r="Q6" s="35">
+        <v>296.75</v>
+      </c>
+      <c r="R6" s="35">
+        <v>285</v>
+      </c>
+      <c r="S6" s="35">
+        <v>285.25</v>
+      </c>
+      <c r="T6" s="35">
+        <v>293</v>
+      </c>
+      <c r="U6" s="35">
+        <v>281.25</v>
+      </c>
+      <c r="V6" s="35">
+        <v>300.75</v>
+      </c>
+      <c r="W6" s="35">
+        <v>312.5</v>
+      </c>
+      <c r="X6" s="35">
+        <v>300.5</v>
+      </c>
+      <c r="Y6" s="35">
+        <v>304.5</v>
+      </c>
+      <c r="Z6" s="35">
+        <v>312.5</v>
+      </c>
+      <c r="AA6" s="35">
+        <v>300.75</v>
+      </c>
+      <c r="AB6" s="35">
+        <v>304.5</v>
+      </c>
+      <c r="AC6" s="35">
+        <v>304.5</v>
+      </c>
+      <c r="AD6" s="35">
+        <v>300.75</v>
+      </c>
+      <c r="AE6" s="35">
+        <v>300.75</v>
+      </c>
+      <c r="AF6" s="36">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="2:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="31">
+        <v>17.714285714285715</v>
+      </c>
+      <c r="D9" s="32">
+        <v>51.428571428571431</v>
+      </c>
+      <c r="E9" s="32">
+        <v>140.6</v>
+      </c>
+      <c r="F9" s="32">
+        <v>359.25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="31">
+        <v>13.428571428571429</v>
+      </c>
+      <c r="D10" s="32">
+        <v>46.857142857142854</v>
+      </c>
+      <c r="E10" s="32">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="F10" s="32">
+        <v>347.75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="31">
+        <v>17.857142857142858</v>
+      </c>
+      <c r="D11" s="32">
+        <v>53.571428571428569</v>
+      </c>
+      <c r="E11" s="32">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="F11" s="32">
+        <v>343.75</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="31">
+        <v>13.428571428571429</v>
+      </c>
+      <c r="D12" s="32">
+        <v>60.142857142857146</v>
+      </c>
+      <c r="E12" s="32">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="F12" s="32">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="31">
+        <v>17.714285714285715</v>
+      </c>
+      <c r="D13" s="32">
+        <v>47</v>
+      </c>
+      <c r="E13" s="32">
+        <v>150</v>
+      </c>
+      <c r="F13" s="32">
+        <v>320.25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="31">
+        <v>13.428571428571429</v>
+      </c>
+      <c r="D14" s="32">
+        <v>44.714285714285715</v>
+      </c>
+      <c r="E14" s="32">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="F14" s="32">
+        <v>312.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="31">
+        <v>13.428571428571429</v>
+      </c>
+      <c r="D15" s="32">
+        <v>46.857142857142854</v>
+      </c>
+      <c r="E15" s="32">
+        <v>125</v>
+      </c>
+      <c r="F15" s="32">
+        <v>312.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="31">
+        <v>15.714285714285714</v>
+      </c>
+      <c r="D16" s="32">
+        <v>49.142857142857146</v>
+      </c>
+      <c r="E16" s="32">
+        <v>128</v>
+      </c>
+      <c r="F16" s="32">
+        <v>308.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="31">
+        <v>15.714285714285714</v>
+      </c>
+      <c r="D17" s="32">
+        <v>44.571428571428569</v>
+      </c>
+      <c r="E17" s="32">
+        <v>134.4</v>
+      </c>
+      <c r="F17" s="32">
+        <v>308.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="31">
+        <v>11.142857142857142</v>
+      </c>
+      <c r="D18" s="32">
+        <v>51.428571428571431</v>
+      </c>
+      <c r="E18" s="32">
+        <v>134.4</v>
+      </c>
+      <c r="F18" s="32">
+        <v>308.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="31">
+        <v>13.285714285714286</v>
+      </c>
+      <c r="D19" s="32">
+        <v>53.571428571428569</v>
+      </c>
+      <c r="E19" s="32">
+        <v>131.4</v>
+      </c>
+      <c r="F19" s="32">
+        <v>308.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="31">
+        <v>20.142857142857142</v>
+      </c>
+      <c r="D20" s="32">
+        <v>53.571428571428569</v>
+      </c>
+      <c r="E20" s="32">
+        <v>128</v>
+      </c>
+      <c r="F20" s="32">
+        <v>304.75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="31">
+        <v>15.714285714285714</v>
+      </c>
+      <c r="D21" s="32">
+        <v>46.857142857142854</v>
+      </c>
+      <c r="E21" s="32">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="F21" s="32">
+        <v>304.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="31">
+        <v>13.428571428571429</v>
+      </c>
+      <c r="D22" s="32">
+        <v>49</v>
+      </c>
+      <c r="E22" s="32">
+        <v>131.4</v>
+      </c>
+      <c r="F22" s="32">
+        <v>304.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="31">
+        <v>13.285714285714286</v>
+      </c>
+      <c r="D23" s="32">
+        <v>47</v>
+      </c>
+      <c r="E23" s="32">
+        <v>125</v>
+      </c>
+      <c r="F23" s="32">
+        <v>304.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="31">
+        <v>26.714285714285715</v>
+      </c>
+      <c r="D24" s="32">
+        <v>46.857142857142854</v>
+      </c>
+      <c r="E24" s="32">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="F24" s="32">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="31">
+        <v>15.571428571428571</v>
+      </c>
+      <c r="D25" s="32">
+        <v>49.142857142857146</v>
+      </c>
+      <c r="E25" s="32">
+        <v>137.4</v>
+      </c>
+      <c r="F25" s="32">
+        <v>300.75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="31">
+        <v>13.428571428571429</v>
+      </c>
+      <c r="D26" s="32">
+        <v>44.571428571428569</v>
+      </c>
+      <c r="E26" s="32">
+        <v>125</v>
+      </c>
+      <c r="F26" s="32">
+        <v>300.75</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="31">
+        <v>13.428571428571429</v>
+      </c>
+      <c r="D27" s="32">
+        <v>44.714285714285715</v>
+      </c>
+      <c r="E27" s="32">
+        <v>134.4</v>
+      </c>
+      <c r="F27" s="32">
+        <v>300.75</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="31">
+        <v>17.857142857142858</v>
+      </c>
+      <c r="D28" s="32">
+        <v>44.571428571428569</v>
+      </c>
+      <c r="E28" s="32">
+        <v>122</v>
+      </c>
+      <c r="F28" s="32">
+        <v>300.75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="31">
+        <v>17.857142857142858</v>
+      </c>
+      <c r="D29" s="32">
+        <v>44.571428571428569</v>
+      </c>
+      <c r="E29" s="32">
+        <v>131.4</v>
+      </c>
+      <c r="F29" s="32">
+        <v>300.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="31">
+        <v>13.428571428571429</v>
+      </c>
+      <c r="D30" s="32">
+        <v>44.571428571428569</v>
+      </c>
+      <c r="E30" s="32">
+        <v>131.4</v>
+      </c>
+      <c r="F30" s="32">
+        <v>296.75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="31">
+        <v>11.142857142857142</v>
+      </c>
+      <c r="D31" s="32">
+        <v>44.571428571428569</v>
+      </c>
+      <c r="E31" s="32">
+        <v>131.4</v>
+      </c>
+      <c r="F31" s="32">
+        <v>296.75</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="31">
+        <v>15.571428571428571</v>
+      </c>
+      <c r="D32" s="32">
+        <v>49</v>
+      </c>
+      <c r="E32" s="32">
+        <v>125</v>
+      </c>
+      <c r="F32" s="32">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="31">
+        <v>18</v>
+      </c>
+      <c r="D33" s="32">
+        <v>49.142857142857146</v>
+      </c>
+      <c r="E33" s="32">
+        <v>128</v>
+      </c>
+      <c r="F33" s="32">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="31">
+        <v>20</v>
+      </c>
+      <c r="D34" s="32">
+        <v>42.428571428571431</v>
+      </c>
+      <c r="E34" s="32">
+        <v>122</v>
+      </c>
+      <c r="F34" s="32">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="31">
+        <v>15.571428571428571</v>
+      </c>
+      <c r="D35" s="32">
+        <v>58.142857142857146</v>
+      </c>
+      <c r="E35" s="32">
+        <v>121.8</v>
+      </c>
+      <c r="F35" s="32">
+        <v>285.25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="31">
+        <v>9.7142857142857135</v>
+      </c>
+      <c r="D36" s="32">
+        <v>46.857142857142854</v>
+      </c>
+      <c r="E36" s="32">
+        <v>134.4</v>
+      </c>
+      <c r="F36" s="32">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="31">
+        <v>15.714285714285714</v>
+      </c>
+      <c r="D37" s="32">
+        <v>44.571428571428569</v>
+      </c>
+      <c r="E37" s="32">
+        <v>118.8</v>
+      </c>
+      <c r="F37" s="32">
+        <v>281.25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="31">
+        <v>20</v>
+      </c>
+      <c r="D38" s="32">
+        <v>58</v>
+      </c>
+      <c r="E38" s="32">
+        <v>122</v>
+      </c>
+      <c r="F38" s="32">
+        <v>277.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>